--- a/Working code/Logs/fitness1_rule_log.xlsx
+++ b/Working code/Logs/fitness1_rule_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AA137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3193,6 +3193,8931 @@
         <v>0.5833333333333334</v>
       </c>
     </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:31:23</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.459546084440233</v>
+      </c>
+      <c r="D33" t="n">
+        <v>14.47811985283481</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>8.24691441652997</v>
+      </c>
+      <c r="G33" t="n">
+        <v>124.759440938307</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>25.99976641671065</v>
+      </c>
+      <c r="J33" t="n">
+        <v>71.10258716809967</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>51.71009367042123</v>
+      </c>
+      <c r="M33" t="n">
+        <v>81.62862590247889</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>363.1313832250931</v>
+      </c>
+      <c r="P33" t="n">
+        <v>547.4770606425233</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
+      <c r="R33" t="n">
+        <v>51.07459342520482</v>
+      </c>
+      <c r="S33" t="n">
+        <v>52.54854307643068</v>
+      </c>
+      <c r="T33" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" t="n">
+        <v>0.7154305982293763</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0.7863614590186017</v>
+      </c>
+      <c r="W33" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" t="n">
+        <v>29.35527976541131</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>55.74445253353861</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>0.7342857142857143</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:31:32</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.760774460248338</v>
+      </c>
+      <c r="D34" t="n">
+        <v>6.27364437252789</v>
+      </c>
+      <c r="E34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>121.3560417921923</v>
+      </c>
+      <c r="G34" t="n">
+        <v>158.4668799931078</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>63.26953378181705</v>
+      </c>
+      <c r="J34" t="n">
+        <v>92.2307203012048</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="n">
+        <v>8.236903985406038</v>
+      </c>
+      <c r="M34" t="n">
+        <v>39.22725679018507</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>534.9835505556589</v>
+      </c>
+      <c r="P34" t="n">
+        <v>632.7925646175512</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>32.24757695522452</v>
+      </c>
+      <c r="S34" t="n">
+        <v>38.45236138946546</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>1.317749714152261</v>
+      </c>
+      <c r="V34" t="n">
+        <v>2.396709913543447</v>
+      </c>
+      <c r="W34" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" t="n">
+        <v>30.40037779039511</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>40.57697976694207</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.4408602150537634</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:31:40</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>3.02141418948336</v>
+      </c>
+      <c r="D35" t="n">
+        <v>9.166270514882651</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>37.74926092606893</v>
+      </c>
+      <c r="G35" t="n">
+        <v>83.22753536365185</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>9.981015428847552</v>
+      </c>
+      <c r="J35" t="n">
+        <v>74.16708962395542</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>20.46392467629238</v>
+      </c>
+      <c r="M35" t="n">
+        <v>33.52842248601667</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>29.12061406088296</v>
+      </c>
+      <c r="P35" t="n">
+        <v>796.1725493155235</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>29.14313554714294</v>
+      </c>
+      <c r="S35" t="n">
+        <v>29.75772016109087</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0.6935012842130116</v>
+      </c>
+      <c r="V35" t="n">
+        <v>2.408877482862703</v>
+      </c>
+      <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>36.38153933464122</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>50.86695067221453</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>0.01923076923076923</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:31:47</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" t="n">
+        <v>8.517232988828146</v>
+      </c>
+      <c r="D36" t="n">
+        <v>15.10705792721505</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
+        <v>42.46566916972449</v>
+      </c>
+      <c r="G36" t="n">
+        <v>99.54665268975216</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2.924797801902892</v>
+      </c>
+      <c r="J36" t="n">
+        <v>84.51388407024056</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>70.35589548371659</v>
+      </c>
+      <c r="M36" t="n">
+        <v>95.50904455737194</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>111.4304355873646</v>
+      </c>
+      <c r="P36" t="n">
+        <v>420.3817303669673</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
+      <c r="R36" t="n">
+        <v>38.97646010607861</v>
+      </c>
+      <c r="S36" t="n">
+        <v>60.14799704995674</v>
+      </c>
+      <c r="T36" t="n">
+        <v>0</v>
+      </c>
+      <c r="U36" t="n">
+        <v>0.1868293131475151</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0.619714094471901</v>
+      </c>
+      <c r="W36" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" t="n">
+        <v>72.30713956049931</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>75.6862760411525</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>0.07843137254901961</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:31:55</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>7.436864993571946</v>
+      </c>
+      <c r="D37" t="n">
+        <v>9.427115839186087</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
+        <v>57.50499272179922</v>
+      </c>
+      <c r="G37" t="n">
+        <v>92.73831204048726</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>19.51826329873619</v>
+      </c>
+      <c r="J37" t="n">
+        <v>55.53727899176103</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>18.84573870483097</v>
+      </c>
+      <c r="M37" t="n">
+        <v>44.46121145225608</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>458.0101990738476</v>
+      </c>
+      <c r="P37" t="n">
+        <v>819.2877820293329</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>24.30312970188516</v>
+      </c>
+      <c r="S37" t="n">
+        <v>65.03563795747426</v>
+      </c>
+      <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1.91548290733745</v>
+      </c>
+      <c r="V37" t="n">
+        <v>2.048294951740888</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
+        <v>25.6572760659234</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>32.52522722890208</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>0.1914893617021277</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:32:01</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>6.761173980226044</v>
+      </c>
+      <c r="D38" t="n">
+        <v>12.86710336048954</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>21.83770346732505</v>
+      </c>
+      <c r="G38" t="n">
+        <v>174.9449364436104</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>96.19772422403854</v>
+      </c>
+      <c r="J38" t="n">
+        <v>114.8092638616166</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1.193615925287479</v>
+      </c>
+      <c r="M38" t="n">
+        <v>67.41437407606445</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>213.0208812681108</v>
+      </c>
+      <c r="P38" t="n">
+        <v>397.3724792594753</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>30.51919224456094</v>
+      </c>
+      <c r="S38" t="n">
+        <v>60.777411635028</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0.188434611832185</v>
+      </c>
+      <c r="V38" t="n">
+        <v>1.699358230051685</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
+        <v>36.21502500452104</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>74.97302415513155</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>0.1052631578947368</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:32:08</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.4014263675817878</v>
+      </c>
+      <c r="D39" t="n">
+        <v>12.25445905015665</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
+        <v>19.39605422558429</v>
+      </c>
+      <c r="G39" t="n">
+        <v>24.47679395215391</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>5.66428293521956</v>
+      </c>
+      <c r="J39" t="n">
+        <v>52.99798971028734</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>35.72678731732623</v>
+      </c>
+      <c r="M39" t="n">
+        <v>59.87477419158193</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>115.4440652891169</v>
+      </c>
+      <c r="P39" t="n">
+        <v>593.6005545340942</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>23.67617398321104</v>
+      </c>
+      <c r="S39" t="n">
+        <v>56.77816355748772</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.255580417130414</v>
+      </c>
+      <c r="V39" t="n">
+        <v>1.972209111703243</v>
+      </c>
+      <c r="W39" t="n">
+        <v>0</v>
+      </c>
+      <c r="X39" t="n">
+        <v>72.0253709487925</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>74.42202802884373</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>0.1764705882352941</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:32:15</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>12.59351481814441</v>
+      </c>
+      <c r="D40" t="n">
+        <v>17</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>84.43089808934688</v>
+      </c>
+      <c r="G40" t="n">
+        <v>179.2082618463643</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>52.46242355670689</v>
+      </c>
+      <c r="J40" t="n">
+        <v>105.142069440445</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
+        <v>6.368616710495098</v>
+      </c>
+      <c r="M40" t="n">
+        <v>64.63289801895054</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>165.5203006216067</v>
+      </c>
+      <c r="P40" t="n">
+        <v>283.7035484311428</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>17.99857967165021</v>
+      </c>
+      <c r="S40" t="n">
+        <v>45.84444543415021</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.7360595862249779</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.475146643805699</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>80.191738765369</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>0.6844919786096256</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:32:18</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.723260993630472</v>
+      </c>
+      <c r="D41" t="n">
+        <v>13.63318734201263</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>178.5034262267272</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>48.94135235666838</v>
+      </c>
+      <c r="J41" t="n">
+        <v>53.65494400429761</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>12.15537185085293</v>
+      </c>
+      <c r="M41" t="n">
+        <v>34.03111816097473</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>348.3739226650537</v>
+      </c>
+      <c r="P41" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>21.88498371853721</v>
+      </c>
+      <c r="S41" t="n">
+        <v>24.765547853667</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.14427987140039</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.875306416864443</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>39.27981105138254</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>0.559322033898305</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:32:37</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.6720647443384309</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1</v>
+      </c>
+      <c r="F42" t="n">
+        <v>45.95813631162955</v>
+      </c>
+      <c r="G42" t="n">
+        <v>138.9180590348641</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>54.08014927140921</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>35.49175295226833</v>
+      </c>
+      <c r="M42" t="n">
+        <v>90.35997499430613</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" t="n">
+        <v>129.4017608114648</v>
+      </c>
+      <c r="P42" t="n">
+        <v>280.2397712144751</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>36.83897161035563</v>
+      </c>
+      <c r="S42" t="n">
+        <v>52.73967621270818</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>1.091060978871274</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.392442894932498</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>51.26055476210544</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>0.8457142857142858</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:32:47</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>5.670976171263415</v>
+      </c>
+      <c r="D43" t="n">
+        <v>6.445926725806698</v>
+      </c>
+      <c r="E43" t="n">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>119.5043612066236</v>
+      </c>
+      <c r="G43" t="n">
+        <v>162.5515767750513</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>42.17705628407974</v>
+      </c>
+      <c r="J43" t="n">
+        <v>62.7790881468287</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
+        <v>5.65359665247962</v>
+      </c>
+      <c r="M43" t="n">
+        <v>12.44168242407982</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0</v>
+      </c>
+      <c r="O43" t="n">
+        <v>283.7848658622633</v>
+      </c>
+      <c r="P43" t="n">
+        <v>601.0229084660288</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>30.40640891015975</v>
+      </c>
+      <c r="S43" t="n">
+        <v>46.98373518199338</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>1.838190846837898</v>
+      </c>
+      <c r="V43" t="n">
+        <v>1.85267027406818</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1</v>
+      </c>
+      <c r="X43" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>27.75992393017853</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>0.2962962962962963</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:32:55</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>13.15840187656226</v>
+      </c>
+      <c r="D44" t="n">
+        <v>14.92245229965829</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>8.215993181287844</v>
+      </c>
+      <c r="G44" t="n">
+        <v>96.14616781082637</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>24.76847787470225</v>
+      </c>
+      <c r="J44" t="n">
+        <v>74.75102296950315</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>12.06441469330595</v>
+      </c>
+      <c r="M44" t="n">
+        <v>75.94584331971765</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>781.2035898403611</v>
+      </c>
+      <c r="P44" t="n">
+        <v>843.7650410741828</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>33.88361070099685</v>
+      </c>
+      <c r="S44" t="n">
+        <v>52.4316238994195</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.357917719621225</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.6494506992071278</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>27.6088970314761</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>70.36944401949501</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:33:03</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>15.71118747867137</v>
+      </c>
+      <c r="D45" t="n">
+        <v>15.82334817903811</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.7086540497992755</v>
+      </c>
+      <c r="G45" t="n">
+        <v>171.9175730289424</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>3.435697162765883</v>
+      </c>
+      <c r="J45" t="n">
+        <v>75.93244561098615</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>54.20743216226143</v>
+      </c>
+      <c r="M45" t="n">
+        <v>91.71601073998397</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>179.5880080867194</v>
+      </c>
+      <c r="P45" t="n">
+        <v>437.8481231522511</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>13.09204553241823</v>
+      </c>
+      <c r="S45" t="n">
+        <v>26.82409062046501</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.3016746960007111</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.567299191609475</v>
+      </c>
+      <c r="W45" t="n">
+        <v>0</v>
+      </c>
+      <c r="X45" t="n">
+        <v>44.1481190615447</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>66.07822397659963</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>0.131578947368421</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:33:11</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>1</v>
+      </c>
+      <c r="C46" t="n">
+        <v>9.594917049152544</v>
+      </c>
+      <c r="D46" t="n">
+        <v>15.19300934008328</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>72.30647173350108</v>
+      </c>
+      <c r="G46" t="n">
+        <v>173.5842916198802</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>23.02874094561708</v>
+      </c>
+      <c r="J46" t="n">
+        <v>83.9810331548321</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>10.38415249578865</v>
+      </c>
+      <c r="M46" t="n">
+        <v>43.72360501240369</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>497.8330068917286</v>
+      </c>
+      <c r="P46" t="n">
+        <v>529.6716654747401</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>10.75710577711511</v>
+      </c>
+      <c r="S46" t="n">
+        <v>17.48073988973151</v>
+      </c>
+      <c r="T46" t="n">
+        <v>0</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.943964058901096</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.416345261092514</v>
+      </c>
+      <c r="W46" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" t="n">
+        <v>26.96351382662194</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>72.46081383723967</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>0.1212121212121212</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:33:18</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.04779265438828384</v>
+      </c>
+      <c r="D47" t="n">
+        <v>11.16142123559814</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>5.627101235644759</v>
+      </c>
+      <c r="G47" t="n">
+        <v>153.0517587348918</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45.59490456084669</v>
+      </c>
+      <c r="J47" t="n">
+        <v>113.5352326995577</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
+        <v>23.93421233393922</v>
+      </c>
+      <c r="M47" t="n">
+        <v>56.74502775318965</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" t="n">
+        <v>487.7667339519351</v>
+      </c>
+      <c r="P47" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>25.82721270080014</v>
+      </c>
+      <c r="S47" t="n">
+        <v>42.93455809626904</v>
+      </c>
+      <c r="T47" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" t="n">
+        <v>0.6294830461051273</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0.869430634315407</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0</v>
+      </c>
+      <c r="X47" t="n">
+        <v>36.19368074412557</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>42.99171809786293</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:33:21</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.403340473612897</v>
+      </c>
+      <c r="D48" t="n">
+        <v>10.62547491929841</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
+        <v>95.43234451034537</v>
+      </c>
+      <c r="G48" t="n">
+        <v>96.4361697142745</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
+        <v>79.44802735628285</v>
+      </c>
+      <c r="J48" t="n">
+        <v>92.47273964483364</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
+        <v>59.18454532943321</v>
+      </c>
+      <c r="M48" t="n">
+        <v>95.93375013570603</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0</v>
+      </c>
+      <c r="O48" t="n">
+        <v>50.43401921107278</v>
+      </c>
+      <c r="P48" t="n">
+        <v>840.9401355037915</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>44.02799927003391</v>
+      </c>
+      <c r="S48" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>0.3748347575644383</v>
+      </c>
+      <c r="V48" t="n">
+        <v>1.34838516161947</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>48.26569247560157</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>70.69859144983519</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>0.4705882352941176</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:33:42</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>9.924833008803368</v>
+      </c>
+      <c r="D49" t="n">
+        <v>12.82381033967192</v>
+      </c>
+      <c r="E49" t="n">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>68.51261742327316</v>
+      </c>
+      <c r="G49" t="n">
+        <v>132.2868786065725</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>81.36676342014597</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="n">
+        <v>80.1037462036378</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0</v>
+      </c>
+      <c r="O49" t="n">
+        <v>66.34001547754772</v>
+      </c>
+      <c r="P49" t="n">
+        <v>715.0498789179288</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
+      <c r="R49" t="n">
+        <v>48.68994494530745</v>
+      </c>
+      <c r="S49" t="n">
+        <v>54.97071898485004</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1</v>
+      </c>
+      <c r="U49" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0.7976422583932524</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>32.26452258379576</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>0.6971428571428572</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:33:51</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4765042516019812</v>
+      </c>
+      <c r="D50" t="n">
+        <v>5.835911728985534</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>88.49198027731202</v>
+      </c>
+      <c r="G50" t="n">
+        <v>178.7724656413369</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>64.31747853547755</v>
+      </c>
+      <c r="J50" t="n">
+        <v>85.65715682305802</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>56.47704006792929</v>
+      </c>
+      <c r="M50" t="n">
+        <v>90.69243608851643</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0</v>
+      </c>
+      <c r="O50" t="n">
+        <v>432.9500088360234</v>
+      </c>
+      <c r="P50" t="n">
+        <v>542.0933117412782</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
+      <c r="R50" t="n">
+        <v>0.5804189806020854</v>
+      </c>
+      <c r="S50" t="n">
+        <v>4.917547109568497</v>
+      </c>
+      <c r="T50" t="n">
+        <v>0</v>
+      </c>
+      <c r="U50" t="n">
+        <v>0.2699329890504789</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0.3532585510538347</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0</v>
+      </c>
+      <c r="X50" t="n">
+        <v>21.73817197123019</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>33.82284544253421</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>0.6226415094339622</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:33:59</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>8.696768027518422</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9.684726071588093</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>37.66802147598116</v>
+      </c>
+      <c r="G51" t="n">
+        <v>159.944334210147</v>
+      </c>
+      <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>78.47202314769503</v>
+      </c>
+      <c r="J51" t="n">
+        <v>101.7308346728479</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>52.67823826608316</v>
+      </c>
+      <c r="M51" t="n">
+        <v>89.29426254544371</v>
+      </c>
+      <c r="N51" t="n">
+        <v>0</v>
+      </c>
+      <c r="O51" t="n">
+        <v>199.3063708444736</v>
+      </c>
+      <c r="P51" t="n">
+        <v>821.5966569121781</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
+      <c r="R51" t="n">
+        <v>17.49424724613615</v>
+      </c>
+      <c r="S51" t="n">
+        <v>47.89121683652341</v>
+      </c>
+      <c r="T51" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" t="n">
+        <v>0.1408070654306543</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.137059710845421</v>
+      </c>
+      <c r="W51" t="n">
+        <v>0</v>
+      </c>
+      <c r="X51" t="n">
+        <v>60.21440672234331</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>63.75915792405576</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:34:07</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>7.988008850963329</v>
+      </c>
+      <c r="D52" t="n">
+        <v>14.5832682519128</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="n">
+        <v>45.96529213694627</v>
+      </c>
+      <c r="G52" t="n">
+        <v>112.8138212667646</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>66.15148942492624</v>
+      </c>
+      <c r="J52" t="n">
+        <v>92.45881204823016</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>13.55061099903929</v>
+      </c>
+      <c r="M52" t="n">
+        <v>77.16168591046521</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>168.0705077704237</v>
+      </c>
+      <c r="P52" t="n">
+        <v>429.1955237946448</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
+      <c r="R52" t="n">
+        <v>24.01050595348068</v>
+      </c>
+      <c r="S52" t="n">
+        <v>52.14239614365366</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>0.1772420935448777</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0.7549912968353792</v>
+      </c>
+      <c r="W52" t="n">
+        <v>0</v>
+      </c>
+      <c r="X52" t="n">
+        <v>48.81975150788374</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>73.02759618851077</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>0.1578947368421053</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:34:15</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0</v>
+      </c>
+      <c r="C53" t="n">
+        <v>3.35100406117232</v>
+      </c>
+      <c r="D53" t="n">
+        <v>7.69625957653301</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="n">
+        <v>41.19444122064676</v>
+      </c>
+      <c r="G53" t="n">
+        <v>153.4913101186224</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>100.0794360202445</v>
+      </c>
+      <c r="J53" t="n">
+        <v>113.2775602053672</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="n">
+        <v>16.60452783539392</v>
+      </c>
+      <c r="M53" t="n">
+        <v>16.63695360472712</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="n">
+        <v>109.6956951402532</v>
+      </c>
+      <c r="P53" t="n">
+        <v>842.3214573596418</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
+      <c r="R53" t="n">
+        <v>9.016901205520343</v>
+      </c>
+      <c r="S53" t="n">
+        <v>38.37535736583304</v>
+      </c>
+      <c r="T53" t="n">
+        <v>0</v>
+      </c>
+      <c r="U53" t="n">
+        <v>0.7216651729722434</v>
+      </c>
+      <c r="V53" t="n">
+        <v>1.905069473720077</v>
+      </c>
+      <c r="W53" t="n">
+        <v>0</v>
+      </c>
+      <c r="X53" t="n">
+        <v>48.94590535330971</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>80.91907761999781</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:34:22</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0</v>
+      </c>
+      <c r="C54" t="n">
+        <v>10.5588102594245</v>
+      </c>
+      <c r="D54" t="n">
+        <v>12.37837726591055</v>
+      </c>
+      <c r="E54" t="n">
+        <v>1</v>
+      </c>
+      <c r="F54" t="n">
+        <v>24.16766265888037</v>
+      </c>
+      <c r="G54" t="n">
+        <v>73.48889802139618</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>20.8855128337667</v>
+      </c>
+      <c r="J54" t="n">
+        <v>119.4166616176561</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>16.47289388008108</v>
+      </c>
+      <c r="M54" t="n">
+        <v>33.57063099365624</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="n">
+        <v>614.6187627641053</v>
+      </c>
+      <c r="P54" t="n">
+        <v>816.0351073890016</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
+      <c r="R54" t="n">
+        <v>11.24178164055236</v>
+      </c>
+      <c r="S54" t="n">
+        <v>58.95196941557203</v>
+      </c>
+      <c r="T54" t="n">
+        <v>0</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1.303244068379504</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.234984082007332</v>
+      </c>
+      <c r="W54" t="n">
+        <v>0</v>
+      </c>
+      <c r="X54" t="n">
+        <v>55.65258208096309</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>56.32518789423787</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>0.15625</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:34:29</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+      <c r="C55" t="n">
+        <v>5.45330360190682</v>
+      </c>
+      <c r="D55" t="n">
+        <v>9.291464392118749</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="n">
+        <v>196.6042802479809</v>
+      </c>
+      <c r="G55" t="n">
+        <v>199</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>41.01116261781111</v>
+      </c>
+      <c r="J55" t="n">
+        <v>92.56949084894248</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>55.8701909373039</v>
+      </c>
+      <c r="M55" t="n">
+        <v>59.41882415850876</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0</v>
+      </c>
+      <c r="O55" t="n">
+        <v>227.1353411849951</v>
+      </c>
+      <c r="P55" t="n">
+        <v>804.2410080043052</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" t="n">
+        <v>26.26085986678312</v>
+      </c>
+      <c r="S55" t="n">
+        <v>59.01222391800466</v>
+      </c>
+      <c r="T55" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V55" t="n">
+        <v>1.337362689733255</v>
+      </c>
+      <c r="W55" t="n">
+        <v>0</v>
+      </c>
+      <c r="X55" t="n">
+        <v>37.21039199182934</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>65.4040946411962</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>0.9358288770053476</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:34:55</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0</v>
+      </c>
+      <c r="D56" t="n">
+        <v>7.797030543292488</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="n">
+        <v>89.42811505970157</v>
+      </c>
+      <c r="G56" t="n">
+        <v>129.9123220402241</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>40.06294879770009</v>
+      </c>
+      <c r="J56" t="n">
+        <v>58.93182039202085</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.281406333724766</v>
+      </c>
+      <c r="M56" t="n">
+        <v>72.42523898564056</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0</v>
+      </c>
+      <c r="O56" t="n">
+        <v>121.8898475418033</v>
+      </c>
+      <c r="P56" t="n">
+        <v>537.9497104654369</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.419984151402462</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4.388795399044008</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>0.3022237690951016</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0.8383834463879636</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1</v>
+      </c>
+      <c r="X56" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>28.81301977231128</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>0.6028571428571429</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:35:11</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>13.74576479229284</v>
+      </c>
+      <c r="D57" t="n">
+        <v>16.20733743108646</v>
+      </c>
+      <c r="E57" t="n">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>97.90789699945989</v>
+      </c>
+      <c r="G57" t="n">
+        <v>143.6011862244597</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>15.9199519099927</v>
+      </c>
+      <c r="J57" t="n">
+        <v>29.36186062526431</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>7.402046144029218</v>
+      </c>
+      <c r="M57" t="n">
+        <v>35.08989093343175</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0</v>
+      </c>
+      <c r="O57" t="n">
+        <v>211.9055462475343</v>
+      </c>
+      <c r="P57" t="n">
+        <v>774.6063770636512</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
+      <c r="R57" t="n">
+        <v>22.43417545939023</v>
+      </c>
+      <c r="S57" t="n">
+        <v>49.4078089861183</v>
+      </c>
+      <c r="T57" t="n">
+        <v>0</v>
+      </c>
+      <c r="U57" t="n">
+        <v>0.3489451569004275</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0.8717583915517298</v>
+      </c>
+      <c r="W57" t="n">
+        <v>0</v>
+      </c>
+      <c r="X57" t="n">
+        <v>47.48825120805468</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>61.47516272032467</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>0.5539568345323741</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:35:20</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.5523578634758831</v>
+      </c>
+      <c r="D58" t="n">
+        <v>5.420791119299786</v>
+      </c>
+      <c r="E58" t="n">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>76.7673248197114</v>
+      </c>
+      <c r="G58" t="n">
+        <v>116.791821858173</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>34.20473826416536</v>
+      </c>
+      <c r="J58" t="n">
+        <v>57.06926809046181</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>17.8668063338216</v>
+      </c>
+      <c r="M58" t="n">
+        <v>82.48366223337176</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0</v>
+      </c>
+      <c r="O58" t="n">
+        <v>579.4765944671362</v>
+      </c>
+      <c r="P58" t="n">
+        <v>820.5689384846328</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
+      <c r="R58" t="n">
+        <v>46.78116108399892</v>
+      </c>
+      <c r="S58" t="n">
+        <v>55.17017149989972</v>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0.8757262813546642</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.029154543501713</v>
+      </c>
+      <c r="W58" t="n">
+        <v>0</v>
+      </c>
+      <c r="X58" t="n">
+        <v>29.24464663252404</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>56.66643931451082</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>0.4838709677419355</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:35:29</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+      <c r="C59" t="n">
+        <v>7.91830941830354</v>
+      </c>
+      <c r="D59" t="n">
+        <v>9.91430559099736</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="n">
+        <v>42.25456115658154</v>
+      </c>
+      <c r="G59" t="n">
+        <v>46.79505245461954</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>63.91171996577754</v>
+      </c>
+      <c r="J59" t="n">
+        <v>98.90335664925956</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>16.55226871537352</v>
+      </c>
+      <c r="M59" t="n">
+        <v>55.67819266418871</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="n">
+        <v>553.1843177574393</v>
+      </c>
+      <c r="P59" t="n">
+        <v>557.5714690909248</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1</v>
+      </c>
+      <c r="R59" t="n">
+        <v>22.69894150474529</v>
+      </c>
+      <c r="S59" t="n">
+        <v>31.6307253828282</v>
+      </c>
+      <c r="T59" t="n">
+        <v>0</v>
+      </c>
+      <c r="U59" t="n">
+        <v>0.9145374791118004</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.411606920022888</v>
+      </c>
+      <c r="W59" t="n">
+        <v>0</v>
+      </c>
+      <c r="X59" t="n">
+        <v>34.5890769805866</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>49.77750043176422</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:35:36</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+      <c r="C60" t="n">
+        <v>11.90919632829067</v>
+      </c>
+      <c r="D60" t="n">
+        <v>16.65573287380273</v>
+      </c>
+      <c r="E60" t="n">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>75.80787516398645</v>
+      </c>
+      <c r="G60" t="n">
+        <v>196.4067791671564</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>74.68715516148444</v>
+      </c>
+      <c r="J60" t="n">
+        <v>80.74846271613889</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="n">
+        <v>67.15293363329772</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" t="n">
+        <v>838.6871329297825</v>
+      </c>
+      <c r="P60" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
+      <c r="R60" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T60" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1.268932486751017</v>
+      </c>
+      <c r="V60" t="n">
+        <v>1.854508738469838</v>
+      </c>
+      <c r="W60" t="n">
+        <v>0</v>
+      </c>
+      <c r="X60" t="n">
+        <v>34.91038249374812</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>41.58466145367213</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>0.9839572192513369</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:35:59</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" t="n">
+        <v>6.115740537420107</v>
+      </c>
+      <c r="E61" t="n">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>10.90298681250959</v>
+      </c>
+      <c r="G61" t="n">
+        <v>133.7474634729627</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>53.58201770499811</v>
+      </c>
+      <c r="J61" t="n">
+        <v>78.93739298965191</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="n">
+        <v>99</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0</v>
+      </c>
+      <c r="O61" t="n">
+        <v>0</v>
+      </c>
+      <c r="P61" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
+      <c r="R61" t="n">
+        <v>9.619367441513237</v>
+      </c>
+      <c r="S61" t="n">
+        <v>51.27676640874174</v>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>0.9073835155377041</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0.9739293294797594</v>
+      </c>
+      <c r="W61" t="n">
+        <v>0</v>
+      </c>
+      <c r="X61" t="n">
+        <v>34.36858609593975</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>0.8171428571428572</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:36:09</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0</v>
+      </c>
+      <c r="C62" t="n">
+        <v>6.251576237841175</v>
+      </c>
+      <c r="D62" t="n">
+        <v>6.760387992096851</v>
+      </c>
+      <c r="E62" t="n">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>141.0259053343462</v>
+      </c>
+      <c r="G62" t="n">
+        <v>159.0518817414334</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+      <c r="I62" t="n">
+        <v>5.058140106206333</v>
+      </c>
+      <c r="J62" t="n">
+        <v>109.3909888167229</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>15.73040884447695</v>
+      </c>
+      <c r="M62" t="n">
+        <v>80.35947392149407</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0</v>
+      </c>
+      <c r="O62" t="n">
+        <v>81.00071735348195</v>
+      </c>
+      <c r="P62" t="n">
+        <v>275.2566430615763</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.015180258920283</v>
+      </c>
+      <c r="S62" t="n">
+        <v>39.58652883188046</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.4020730518092443</v>
+      </c>
+      <c r="V62" t="n">
+        <v>1.045001504063354</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0</v>
+      </c>
+      <c r="X62" t="n">
+        <v>24.3126914124657</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>63.11420211134497</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.453125</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:36:19</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0</v>
+      </c>
+      <c r="C63" t="n">
+        <v>3.256758046044751</v>
+      </c>
+      <c r="D63" t="n">
+        <v>12.24253716817558</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>32.46619078910397</v>
+      </c>
+      <c r="G63" t="n">
+        <v>162.1921359306921</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
+        <v>11.50383480999383</v>
+      </c>
+      <c r="J63" t="n">
+        <v>62.40622778782048</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
+        <v>45.24549297086431</v>
+      </c>
+      <c r="M63" t="n">
+        <v>89.37821350136829</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" t="n">
+        <v>478.3590046792435</v>
+      </c>
+      <c r="P63" t="n">
+        <v>692.8681907537328</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1</v>
+      </c>
+      <c r="R63" t="n">
+        <v>14.06161242737723</v>
+      </c>
+      <c r="S63" t="n">
+        <v>28.47801199420631</v>
+      </c>
+      <c r="T63" t="n">
+        <v>0</v>
+      </c>
+      <c r="U63" t="n">
+        <v>0.7508256178344824</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.32988090949517</v>
+      </c>
+      <c r="W63" t="n">
+        <v>0</v>
+      </c>
+      <c r="X63" t="n">
+        <v>35.67187047803547</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>66.86934418687584</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:36:27</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+      <c r="C64" t="n">
+        <v>3.536517493819736</v>
+      </c>
+      <c r="D64" t="n">
+        <v>16.35441830368832</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>78.04605575504202</v>
+      </c>
+      <c r="G64" t="n">
+        <v>92.84032068257382</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10.92297181443003</v>
+      </c>
+      <c r="J64" t="n">
+        <v>83.14999746961971</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
+        <v>5.800793116025978</v>
+      </c>
+      <c r="M64" t="n">
+        <v>9.153224532893738</v>
+      </c>
+      <c r="N64" t="n">
+        <v>0</v>
+      </c>
+      <c r="O64" t="n">
+        <v>503.8419011226462</v>
+      </c>
+      <c r="P64" t="n">
+        <v>620.7958861115227</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
+      <c r="R64" t="n">
+        <v>16.51304378191007</v>
+      </c>
+      <c r="S64" t="n">
+        <v>46.85665178516745</v>
+      </c>
+      <c r="T64" t="n">
+        <v>0</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1.401871593060271</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.849037688080468</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1</v>
+      </c>
+      <c r="X64" t="n">
+        <v>24.83490480790782</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>64.14709497401566</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>0.8716577540106952</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:36:50</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.588532610037074</v>
+      </c>
+      <c r="D65" t="n">
+        <v>7.471557705873246</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="n">
+        <v>23.33269936016885</v>
+      </c>
+      <c r="G65" t="n">
+        <v>95.52917101909571</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>37.31264357831744</v>
+      </c>
+      <c r="J65" t="n">
+        <v>98.21837058604947</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>17.16665296890103</v>
+      </c>
+      <c r="M65" t="n">
+        <v>25.5376872922926</v>
+      </c>
+      <c r="N65" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" t="n">
+        <v>42.80917137525644</v>
+      </c>
+      <c r="P65" t="n">
+        <v>294.5120747955564</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.137142913737291</v>
+      </c>
+      <c r="S65" t="n">
+        <v>30.35691394829183</v>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>0.07831566066105755</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0.7900746157852069</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1</v>
+      </c>
+      <c r="X65" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>33.02493329864215</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>0.7171428571428572</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:37:00</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.023680781200823</v>
+      </c>
+      <c r="D66" t="n">
+        <v>11.62078491379931</v>
+      </c>
+      <c r="E66" t="n">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>14.90858881559438</v>
+      </c>
+      <c r="G66" t="n">
+        <v>132.7597842370448</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>6.424805894469574</v>
+      </c>
+      <c r="J66" t="n">
+        <v>72.62776678369234</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>22.10035823424393</v>
+      </c>
+      <c r="M66" t="n">
+        <v>44.95603133559074</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" t="n">
+        <v>32.79052766617421</v>
+      </c>
+      <c r="P66" t="n">
+        <v>66.69184185006407</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
+      <c r="R66" t="n">
+        <v>35.61565364924839</v>
+      </c>
+      <c r="S66" t="n">
+        <v>66.58610962272812</v>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0.4667931705958292</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1.197136200420964</v>
+      </c>
+      <c r="W66" t="n">
+        <v>0</v>
+      </c>
+      <c r="X66" t="n">
+        <v>40.36364536531661</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>77.30919745143504</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>0.6868686868686869</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:37:07</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.744828620099678</v>
+      </c>
+      <c r="D67" t="n">
+        <v>15.04353737971372</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
+        <v>131.6723928293007</v>
+      </c>
+      <c r="G67" t="n">
+        <v>169.3579413072448</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>2.822651423968852</v>
+      </c>
+      <c r="J67" t="n">
+        <v>92.87707344391721</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>41.7713530121051</v>
+      </c>
+      <c r="M67" t="n">
+        <v>66.35931631897347</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>360.8944514593587</v>
+      </c>
+      <c r="P67" t="n">
+        <v>434.0040922327257</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
+      <c r="R67" t="n">
+        <v>25.01354138120764</v>
+      </c>
+      <c r="S67" t="n">
+        <v>27.42990160564983</v>
+      </c>
+      <c r="T67" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" t="n">
+        <v>0.9578177635955353</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1.858372829946357</v>
+      </c>
+      <c r="W67" t="n">
+        <v>0</v>
+      </c>
+      <c r="X67" t="n">
+        <v>46.46130083793941</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>50.179978344682</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:37:14</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.857914399249784</v>
+      </c>
+      <c r="D68" t="n">
+        <v>4.79794423890222</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>162.4303363898473</v>
+      </c>
+      <c r="G68" t="n">
+        <v>189.8004241023059</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>28.98935931953271</v>
+      </c>
+      <c r="J68" t="n">
+        <v>58.05748620446133</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>34.07422229213277</v>
+      </c>
+      <c r="M68" t="n">
+        <v>64.15553887014811</v>
+      </c>
+      <c r="N68" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" t="n">
+        <v>351.5091823035909</v>
+      </c>
+      <c r="P68" t="n">
+        <v>732.64541323795</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
+      <c r="R68" t="n">
+        <v>24.64593459569828</v>
+      </c>
+      <c r="S68" t="n">
+        <v>40.85862380291726</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1.596911541007826</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1.69915996497361</v>
+      </c>
+      <c r="W68" t="n">
+        <v>0</v>
+      </c>
+      <c r="X68" t="n">
+        <v>45.79146564016575</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>48.26157801524453</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:37:23</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0</v>
+      </c>
+      <c r="C69" t="n">
+        <v>3.92202603862417</v>
+      </c>
+      <c r="D69" t="n">
+        <v>7.305985342401288</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>73.24308620408735</v>
+      </c>
+      <c r="G69" t="n">
+        <v>82.08652666169944</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>97.99564538075576</v>
+      </c>
+      <c r="J69" t="n">
+        <v>102.0082220437986</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>39.98631133376816</v>
+      </c>
+      <c r="M69" t="n">
+        <v>70.96880484814112</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>56.52620414609252</v>
+      </c>
+      <c r="P69" t="n">
+        <v>298.610238415586</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
+      <c r="R69" t="n">
+        <v>18.77780849709427</v>
+      </c>
+      <c r="S69" t="n">
+        <v>44.93612077594731</v>
+      </c>
+      <c r="T69" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" t="n">
+        <v>0.3845579494994412</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.005968659384421</v>
+      </c>
+      <c r="W69" t="n">
+        <v>0</v>
+      </c>
+      <c r="X69" t="n">
+        <v>38.15890818926131</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>78.37666410310817</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:37:31</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.49356017695123</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.02965325662088</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>47.60085527386156</v>
+      </c>
+      <c r="G70" t="n">
+        <v>160.7940968561002</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>20.32042011380777</v>
+      </c>
+      <c r="J70" t="n">
+        <v>111.8961296925396</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>65.4940448267368</v>
+      </c>
+      <c r="M70" t="n">
+        <v>76.96156159203504</v>
+      </c>
+      <c r="N70" t="n">
+        <v>0</v>
+      </c>
+      <c r="O70" t="n">
+        <v>153.2041481501933</v>
+      </c>
+      <c r="P70" t="n">
+        <v>234.9500698011879</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>1</v>
+      </c>
+      <c r="R70" t="n">
+        <v>29.0430220651095</v>
+      </c>
+      <c r="S70" t="n">
+        <v>63.63720458050407</v>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>1.926107169552989</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.39347748523318</v>
+      </c>
+      <c r="W70" t="n">
+        <v>0</v>
+      </c>
+      <c r="X70" t="n">
+        <v>44.78238615454421</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>60.40945194650324</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>0.8181818181818182</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:37:33</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+      <c r="C71" t="n">
+        <v>3.29341681234143</v>
+      </c>
+      <c r="D71" t="n">
+        <v>3.690892283349474</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>152.412647914388</v>
+      </c>
+      <c r="G71" t="n">
+        <v>174.8472515280069</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>34.91854230562888</v>
+      </c>
+      <c r="J71" t="n">
+        <v>67.90670928241643</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>28.07969791813065</v>
+      </c>
+      <c r="M71" t="n">
+        <v>33.63645649921312</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>3.405029505953324</v>
+      </c>
+      <c r="P71" t="n">
+        <v>432.3842934631398</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5.864003473894087</v>
+      </c>
+      <c r="S71" t="n">
+        <v>19.77181082555081</v>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0.1097791068495978</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.375323320769605</v>
+      </c>
+      <c r="W71" t="n">
+        <v>0</v>
+      </c>
+      <c r="X71" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>43.98234278020799</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>0.4411764705882353</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:37:54</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.6937201485255703</v>
+      </c>
+      <c r="D72" t="n">
+        <v>6.478972751401299</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>60.56425830224866</v>
+      </c>
+      <c r="G72" t="n">
+        <v>112.0548470356496</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>63.85802483490917</v>
+      </c>
+      <c r="J72" t="n">
+        <v>84.55441152247668</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>21.51244947588661</v>
+      </c>
+      <c r="M72" t="n">
+        <v>45.81950076598982</v>
+      </c>
+      <c r="N72" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" t="n">
+        <v>0</v>
+      </c>
+      <c r="P72" t="n">
+        <v>639.6647132349731</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
+      <c r="R72" t="n">
+        <v>7.646570360011143</v>
+      </c>
+      <c r="S72" t="n">
+        <v>55.59422931191133</v>
+      </c>
+      <c r="T72" t="n">
+        <v>0</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1.291043210989132</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.508251500928812</v>
+      </c>
+      <c r="W72" t="n">
+        <v>0</v>
+      </c>
+      <c r="X72" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>25.06876802797859</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>0.5771428571428572</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:38:06</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>1</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.2907600112549746</v>
+      </c>
+      <c r="D73" t="n">
+        <v>6.551374656813733</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>86.36388896951402</v>
+      </c>
+      <c r="G73" t="n">
+        <v>110.8219407571684</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
+        <v>104.5015955326711</v>
+      </c>
+      <c r="J73" t="n">
+        <v>108.379232083355</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="n">
+        <v>91.58231923981253</v>
+      </c>
+      <c r="N73" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" t="n">
+        <v>113.4035463409578</v>
+      </c>
+      <c r="P73" t="n">
+        <v>520.6760196780408</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
+      <c r="R73" t="n">
+        <v>10.95800174130741</v>
+      </c>
+      <c r="S73" t="n">
+        <v>37.50246048642998</v>
+      </c>
+      <c r="T73" t="n">
+        <v>0</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1.859357882243319</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.128327910357701</v>
+      </c>
+      <c r="W73" t="n">
+        <v>0</v>
+      </c>
+      <c r="X73" t="n">
+        <v>29.9214879996286</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>49.74299580137547</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>0.6824324324324325</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:38:15</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+      <c r="C74" t="n">
+        <v>6.143002992395885</v>
+      </c>
+      <c r="D74" t="n">
+        <v>14.02202511657629</v>
+      </c>
+      <c r="E74" t="n">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>118.2426729467231</v>
+      </c>
+      <c r="G74" t="n">
+        <v>154.7463426500229</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.3440275881550778</v>
+      </c>
+      <c r="J74" t="n">
+        <v>12.94097534963662</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0</v>
+      </c>
+      <c r="L74" t="n">
+        <v>10.00830406886112</v>
+      </c>
+      <c r="M74" t="n">
+        <v>98.58589174069603</v>
+      </c>
+      <c r="N74" t="n">
+        <v>0</v>
+      </c>
+      <c r="O74" t="n">
+        <v>173.3487089632192</v>
+      </c>
+      <c r="P74" t="n">
+        <v>564.1718724318716</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
+      <c r="R74" t="n">
+        <v>19.19504681407877</v>
+      </c>
+      <c r="S74" t="n">
+        <v>27.10733923036655</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1</v>
+      </c>
+      <c r="U74" t="n">
+        <v>0.2674067072123495</v>
+      </c>
+      <c r="V74" t="n">
+        <v>1.199717776642985</v>
+      </c>
+      <c r="W74" t="n">
+        <v>0</v>
+      </c>
+      <c r="X74" t="n">
+        <v>22.25230308224215</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>70.74111913672641</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>0.4468085106382979</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:38:23</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.183593566234432</v>
+      </c>
+      <c r="D75" t="n">
+        <v>6.43306135120148</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="n">
+        <v>27.60624145440347</v>
+      </c>
+      <c r="G75" t="n">
+        <v>127.6175096355059</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>15.42159958404761</v>
+      </c>
+      <c r="J75" t="n">
+        <v>122</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>59.28883196302517</v>
+      </c>
+      <c r="M75" t="n">
+        <v>70.40932362627767</v>
+      </c>
+      <c r="N75" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" t="n">
+        <v>123.7186050520853</v>
+      </c>
+      <c r="P75" t="n">
+        <v>143.2632949971588</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>1</v>
+      </c>
+      <c r="R75" t="n">
+        <v>25.35438725463391</v>
+      </c>
+      <c r="S75" t="n">
+        <v>62.51847913177183</v>
+      </c>
+      <c r="T75" t="n">
+        <v>0</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1.499472627011488</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.414812877526701</v>
+      </c>
+      <c r="W75" t="n">
+        <v>0</v>
+      </c>
+      <c r="X75" t="n">
+        <v>76.24438429610903</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>0.9518716577540107</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:38:49</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0</v>
+      </c>
+      <c r="D76" t="n">
+        <v>12.66096736629854</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="n">
+        <v>68.8606112984978</v>
+      </c>
+      <c r="G76" t="n">
+        <v>74.60365480139828</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.229895904231761</v>
+      </c>
+      <c r="J76" t="n">
+        <v>31.49390406793658</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>35.73827032200947</v>
+      </c>
+      <c r="M76" t="n">
+        <v>43.70125467459516</v>
+      </c>
+      <c r="N76" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" t="n">
+        <v>114.1909658842193</v>
+      </c>
+      <c r="P76" t="n">
+        <v>393.5292785846068</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
+      <c r="R76" t="n">
+        <v>0</v>
+      </c>
+      <c r="S76" t="n">
+        <v>21.66516258945478</v>
+      </c>
+      <c r="T76" t="n">
+        <v>0</v>
+      </c>
+      <c r="U76" t="n">
+        <v>0.1024767804432305</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.5736194034189175</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>34.58285195501006</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>0.7342857142857143</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:38:59</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+      <c r="C77" t="n">
+        <v>3.878280271942286</v>
+      </c>
+      <c r="D77" t="n">
+        <v>4.486458284373284</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="n">
+        <v>6.356726401872734</v>
+      </c>
+      <c r="G77" t="n">
+        <v>88.57664035887258</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>82.32388381553193</v>
+      </c>
+      <c r="J77" t="n">
+        <v>99.43836439655202</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>64.52406311338174</v>
+      </c>
+      <c r="M77" t="n">
+        <v>80.26891695130077</v>
+      </c>
+      <c r="N77" t="n">
+        <v>0</v>
+      </c>
+      <c r="O77" t="n">
+        <v>347.5830906404683</v>
+      </c>
+      <c r="P77" t="n">
+        <v>478.408459580258</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
+      <c r="R77" t="n">
+        <v>16.99049587395038</v>
+      </c>
+      <c r="S77" t="n">
+        <v>56.17100030633452</v>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>0.7770505876934364</v>
+      </c>
+      <c r="V77" t="n">
+        <v>1.790498442954986</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1</v>
+      </c>
+      <c r="X77" t="n">
+        <v>37.43251757525884</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>65.98288343521152</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>0.7311827956989247</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:39:07</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4.971377601253883</v>
+      </c>
+      <c r="D78" t="n">
+        <v>15.8608158839523</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="n">
+        <v>27.57357419029364</v>
+      </c>
+      <c r="G78" t="n">
+        <v>174.1056619227084</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>35.91923065034499</v>
+      </c>
+      <c r="J78" t="n">
+        <v>74.40999068400832</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>38.05360171954059</v>
+      </c>
+      <c r="M78" t="n">
+        <v>57.48661054834479</v>
+      </c>
+      <c r="N78" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" t="n">
+        <v>591.9891106868715</v>
+      </c>
+      <c r="P78" t="n">
+        <v>771.6069619289457</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>1</v>
+      </c>
+      <c r="R78" t="n">
+        <v>20.68834138373657</v>
+      </c>
+      <c r="S78" t="n">
+        <v>48.44870173188313</v>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>0.6321524483095646</v>
+      </c>
+      <c r="V78" t="n">
+        <v>1.888386429375852</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0</v>
+      </c>
+      <c r="X78" t="n">
+        <v>62.07279918387204</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>73.28466031206851</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>0.9572192513368984</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:39:28</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0</v>
+      </c>
+      <c r="C79" t="n">
+        <v>6.075433556882445</v>
+      </c>
+      <c r="D79" t="n">
+        <v>13.53391374934992</v>
+      </c>
+      <c r="E79" t="n">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>41.8885452223962</v>
+      </c>
+      <c r="G79" t="n">
+        <v>145.6386039981834</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>72.93813935333584</v>
+      </c>
+      <c r="J79" t="n">
+        <v>107.6907325786059</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0</v>
+      </c>
+      <c r="L79" t="n">
+        <v>5.279331180465029</v>
+      </c>
+      <c r="M79" t="n">
+        <v>76.04665568274845</v>
+      </c>
+      <c r="N79" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" t="n">
+        <v>258.8962918349898</v>
+      </c>
+      <c r="P79" t="n">
+        <v>817.3696239448858</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
+      <c r="R79" t="n">
+        <v>0.9096498940612373</v>
+      </c>
+      <c r="S79" t="n">
+        <v>13.23575667644563</v>
+      </c>
+      <c r="T79" t="n">
+        <v>0</v>
+      </c>
+      <c r="U79" t="n">
+        <v>0.9474115696079128</v>
+      </c>
+      <c r="V79" t="n">
+        <v>1.375330774225775</v>
+      </c>
+      <c r="W79" t="n">
+        <v>0</v>
+      </c>
+      <c r="X79" t="n">
+        <v>31.53113598627736</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>66.17625344552189</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>0.8914285714285715</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:39:36</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.222276724238746</v>
+      </c>
+      <c r="D80" t="n">
+        <v>17</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="n">
+        <v>183.569062085407</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>20.75630194441687</v>
+      </c>
+      <c r="J80" t="n">
+        <v>107.7882859936834</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>30.01602280914344</v>
+      </c>
+      <c r="M80" t="n">
+        <v>71.68159578265033</v>
+      </c>
+      <c r="N80" t="n">
+        <v>1</v>
+      </c>
+      <c r="O80" t="n">
+        <v>323.9254528084704</v>
+      </c>
+      <c r="P80" t="n">
+        <v>802.1452338296955</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
+      <c r="R80" t="n">
+        <v>26.25837405531518</v>
+      </c>
+      <c r="S80" t="n">
+        <v>28.58403413821393</v>
+      </c>
+      <c r="T80" t="n">
+        <v>0</v>
+      </c>
+      <c r="U80" t="n">
+        <v>0.1442192210349174</v>
+      </c>
+      <c r="V80" t="n">
+        <v>1.425940397483127</v>
+      </c>
+      <c r="W80" t="n">
+        <v>0</v>
+      </c>
+      <c r="X80" t="n">
+        <v>34.47830261285534</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>63.61957761848587</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>0.1842105263157895</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:39:44</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.260814996295822</v>
+      </c>
+      <c r="D81" t="n">
+        <v>12.77056401878767</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="n">
+        <v>108.1099948136722</v>
+      </c>
+      <c r="G81" t="n">
+        <v>164.4712971794293</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>76.97319219563082</v>
+      </c>
+      <c r="J81" t="n">
+        <v>77.62937649073707</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0</v>
+      </c>
+      <c r="L81" t="n">
+        <v>59.07715308678443</v>
+      </c>
+      <c r="M81" t="n">
+        <v>86.75517235217022</v>
+      </c>
+      <c r="N81" t="n">
+        <v>0</v>
+      </c>
+      <c r="O81" t="n">
+        <v>557.5271893693417</v>
+      </c>
+      <c r="P81" t="n">
+        <v>672.8662677364391</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
+      <c r="R81" t="n">
+        <v>29.60732543518733</v>
+      </c>
+      <c r="S81" t="n">
+        <v>43.9241697279591</v>
+      </c>
+      <c r="T81" t="n">
+        <v>0</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1.025471798632714</v>
+      </c>
+      <c r="V81" t="n">
+        <v>1.638821315835345</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1</v>
+      </c>
+      <c r="X81" t="n">
+        <v>43.6720762499485</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>70.53503874245735</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>0.2903225806451613</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:39:52</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5.465106056232431</v>
+      </c>
+      <c r="D82" t="n">
+        <v>10.0964176121574</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="n">
+        <v>112.078668479824</v>
+      </c>
+      <c r="G82" t="n">
+        <v>159.3550029872559</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>50.42864980680106</v>
+      </c>
+      <c r="J82" t="n">
+        <v>61.98424677111193</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>24.92771828593232</v>
+      </c>
+      <c r="M82" t="n">
+        <v>40.73952075083909</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="n">
+        <v>148.2452958588601</v>
+      </c>
+      <c r="P82" t="n">
+        <v>349.4001765823422</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
+      <c r="R82" t="n">
+        <v>40.63103312027528</v>
+      </c>
+      <c r="S82" t="n">
+        <v>57.55828701387015</v>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>0.4269966439683742</v>
+      </c>
+      <c r="V82" t="n">
+        <v>1.031103678214629</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1</v>
+      </c>
+      <c r="X82" t="n">
+        <v>27.84224213327781</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>70.2919881015509</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>0.7914438502673797</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:39:55</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.773350141437365</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11.47133911629561</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>37.88589410381221</v>
+      </c>
+      <c r="G83" t="n">
+        <v>144.9938140945505</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>66.01583942605757</v>
+      </c>
+      <c r="J83" t="n">
+        <v>105.2146539270538</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
+        <v>25.18435256193808</v>
+      </c>
+      <c r="M83" t="n">
+        <v>51.2018355515728</v>
+      </c>
+      <c r="N83" t="n">
+        <v>0</v>
+      </c>
+      <c r="O83" t="n">
+        <v>431.2892585100893</v>
+      </c>
+      <c r="P83" t="n">
+        <v>564.6537861585713</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>1</v>
+      </c>
+      <c r="R83" t="n">
+        <v>10.83932631014591</v>
+      </c>
+      <c r="S83" t="n">
+        <v>66.06805056918736</v>
+      </c>
+      <c r="T83" t="n">
+        <v>0</v>
+      </c>
+      <c r="U83" t="n">
+        <v>1.249827519421862</v>
+      </c>
+      <c r="V83" t="n">
+        <v>1.542518387911235</v>
+      </c>
+      <c r="W83" t="n">
+        <v>0</v>
+      </c>
+      <c r="X83" t="n">
+        <v>51.53994439977149</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>70.65587815007501</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>0.5128205128205128</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:40:16</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="n">
+        <v>51.86073829388393</v>
+      </c>
+      <c r="G84" t="n">
+        <v>150.4665364732277</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>45.579747121277</v>
+      </c>
+      <c r="J84" t="n">
+        <v>65.7755903909932</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
+        <v>24.20620031073067</v>
+      </c>
+      <c r="M84" t="n">
+        <v>91.28877180918531</v>
+      </c>
+      <c r="N84" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" t="n">
+        <v>493.5864308921672</v>
+      </c>
+      <c r="P84" t="n">
+        <v>696.2344088008444</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5.089929139955843</v>
+      </c>
+      <c r="S84" t="n">
+        <v>21.69237487146877</v>
+      </c>
+      <c r="T84" t="n">
+        <v>0</v>
+      </c>
+      <c r="U84" t="n">
+        <v>0.3160140331001035</v>
+      </c>
+      <c r="V84" t="n">
+        <v>1.179219534291994</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>30.54331792077836</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>0.6685714285714286</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:40:26</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>3.809888870751534</v>
+      </c>
+      <c r="D85" t="n">
+        <v>11.13284882523235</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="n">
+        <v>157.6003557248068</v>
+      </c>
+      <c r="G85" t="n">
+        <v>163.3908421746095</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>16.76812331612988</v>
+      </c>
+      <c r="J85" t="n">
+        <v>102.9172072564453</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>77.54222161922759</v>
+      </c>
+      <c r="M85" t="n">
+        <v>99</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="n">
+        <v>11.9245915266614</v>
+      </c>
+      <c r="P85" t="n">
+        <v>426.276551390657</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
+      <c r="R85" t="n">
+        <v>10.78499468855523</v>
+      </c>
+      <c r="S85" t="n">
+        <v>38.09268815584567</v>
+      </c>
+      <c r="T85" t="n">
+        <v>0</v>
+      </c>
+      <c r="U85" t="n">
+        <v>1.954770844575034</v>
+      </c>
+      <c r="V85" t="n">
+        <v>2.056374239416793</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1</v>
+      </c>
+      <c r="X85" t="n">
+        <v>36.17534153253153</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>48.72731899065948</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>0.353448275862069</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:40:36</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.20476190673813</v>
+      </c>
+      <c r="D86" t="n">
+        <v>12.58260707590631</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="n">
+        <v>35.86394626933599</v>
+      </c>
+      <c r="G86" t="n">
+        <v>52.25874824549935</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>80.42273884955982</v>
+      </c>
+      <c r="J86" t="n">
+        <v>106.9694647423061</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0</v>
+      </c>
+      <c r="M86" t="n">
+        <v>28.3968178724845</v>
+      </c>
+      <c r="N86" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" t="n">
+        <v>335.4574233851445</v>
+      </c>
+      <c r="P86" t="n">
+        <v>574.7735641247335</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
+      <c r="R86" t="n">
+        <v>66.06672709129576</v>
+      </c>
+      <c r="S86" t="n">
+        <v>66.59657209917771</v>
+      </c>
+      <c r="T86" t="n">
+        <v>0</v>
+      </c>
+      <c r="U86" t="n">
+        <v>1.268599031071647</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1.717083156823366</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1</v>
+      </c>
+      <c r="X86" t="n">
+        <v>54.21506258053372</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>70.39437814955718</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:40:45</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+      <c r="C87" t="n">
+        <v>9.348011173062714</v>
+      </c>
+      <c r="D87" t="n">
+        <v>16.94792847557051</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="n">
+        <v>24.74239628271107</v>
+      </c>
+      <c r="G87" t="n">
+        <v>99.04853956228968</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>17.02681138616239</v>
+      </c>
+      <c r="J87" t="n">
+        <v>37.87803627319179</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>22.01460408881395</v>
+      </c>
+      <c r="M87" t="n">
+        <v>50.04497799186257</v>
+      </c>
+      <c r="N87" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" t="n">
+        <v>293.5641636329805</v>
+      </c>
+      <c r="P87" t="n">
+        <v>827.3928290959237</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
+      <c r="R87" t="n">
+        <v>44.46484149754051</v>
+      </c>
+      <c r="S87" t="n">
+        <v>44.76612609922178</v>
+      </c>
+      <c r="T87" t="n">
+        <v>0</v>
+      </c>
+      <c r="U87" t="n">
+        <v>0.9842162604447785</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.021721055067509</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1</v>
+      </c>
+      <c r="X87" t="n">
+        <v>40.76638167841611</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>49.67484998734928</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>0.2280701754385965</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:40:53</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+      <c r="C88" t="n">
+        <v>9.23168478354162</v>
+      </c>
+      <c r="D88" t="n">
+        <v>16.04353876501322</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>25.94081837031725</v>
+      </c>
+      <c r="G88" t="n">
+        <v>126.8989895795043</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>41.76543419939085</v>
+      </c>
+      <c r="J88" t="n">
+        <v>102.2751048336619</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0</v>
+      </c>
+      <c r="L88" t="n">
+        <v>79.25326329745629</v>
+      </c>
+      <c r="M88" t="n">
+        <v>80.09344317273998</v>
+      </c>
+      <c r="N88" t="n">
+        <v>0</v>
+      </c>
+      <c r="O88" t="n">
+        <v>625.6624024016004</v>
+      </c>
+      <c r="P88" t="n">
+        <v>633.6196620672663</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
+      <c r="R88" t="n">
+        <v>31.10791721665146</v>
+      </c>
+      <c r="S88" t="n">
+        <v>54.39930019225358</v>
+      </c>
+      <c r="T88" t="n">
+        <v>0</v>
+      </c>
+      <c r="U88" t="n">
+        <v>0.5075625454259042</v>
+      </c>
+      <c r="V88" t="n">
+        <v>1.24027033599474</v>
+      </c>
+      <c r="W88" t="n">
+        <v>0</v>
+      </c>
+      <c r="X88" t="n">
+        <v>27.51358379767736</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>32.78431179461359</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>0.7045454545454546</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:41:00</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0</v>
+      </c>
+      <c r="C89" t="n">
+        <v>12.3641144200203</v>
+      </c>
+      <c r="D89" t="n">
+        <v>13.83170544550886</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="n">
+        <v>14.80937584776751</v>
+      </c>
+      <c r="G89" t="n">
+        <v>119.5970784804055</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>90.56068208967199</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>43.81824769927713</v>
+      </c>
+      <c r="M89" t="n">
+        <v>89.06759180956286</v>
+      </c>
+      <c r="N89" t="n">
+        <v>0</v>
+      </c>
+      <c r="O89" t="n">
+        <v>384.4381874405018</v>
+      </c>
+      <c r="P89" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
+      <c r="R89" t="n">
+        <v>0</v>
+      </c>
+      <c r="S89" t="n">
+        <v>40.12289973699632</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1</v>
+      </c>
+      <c r="U89" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V89" t="n">
+        <v>1.145614135215453</v>
+      </c>
+      <c r="W89" t="n">
+        <v>0</v>
+      </c>
+      <c r="X89" t="n">
+        <v>54.69977196527537</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>60.94441758301303</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>0.9144385026737968</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:41:18</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.626044538784788</v>
+      </c>
+      <c r="D90" t="n">
+        <v>10.23050881581222</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19.6472691763096</v>
+      </c>
+      <c r="G90" t="n">
+        <v>131.6874147466331</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>10.5745896150941</v>
+      </c>
+      <c r="J90" t="n">
+        <v>35.13301377485912</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>0</v>
+      </c>
+      <c r="O90" t="n">
+        <v>226.0148216050704</v>
+      </c>
+      <c r="P90" t="n">
+        <v>308.702425913763</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
+      <c r="R90" t="n">
+        <v>0</v>
+      </c>
+      <c r="S90" t="n">
+        <v>16.87878871059321</v>
+      </c>
+      <c r="T90" t="n">
+        <v>0</v>
+      </c>
+      <c r="U90" t="n">
+        <v>0.4178832504977272</v>
+      </c>
+      <c r="V90" t="n">
+        <v>1.123693903592056</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X90" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>71.32405897590101</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>0.8057142857142857</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:41:26</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+      <c r="C91" t="n">
+        <v>15.2408703615784</v>
+      </c>
+      <c r="D91" t="n">
+        <v>16.08263909480514</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="n">
+        <v>27.97314416875477</v>
+      </c>
+      <c r="G91" t="n">
+        <v>84.35779763864268</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>39.89622731023225</v>
+      </c>
+      <c r="J91" t="n">
+        <v>47.91814767527686</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
+        <v>12.91506971697241</v>
+      </c>
+      <c r="M91" t="n">
+        <v>46.35366521034985</v>
+      </c>
+      <c r="N91" t="n">
+        <v>0</v>
+      </c>
+      <c r="O91" t="n">
+        <v>138.2622443934449</v>
+      </c>
+      <c r="P91" t="n">
+        <v>414.1766910101169</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
+      <c r="R91" t="n">
+        <v>20.80477841106057</v>
+      </c>
+      <c r="S91" t="n">
+        <v>36.87136513142907</v>
+      </c>
+      <c r="T91" t="n">
+        <v>0</v>
+      </c>
+      <c r="U91" t="n">
+        <v>1.733677332552382</v>
+      </c>
+      <c r="V91" t="n">
+        <v>1.844856692741318</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1</v>
+      </c>
+      <c r="X91" t="n">
+        <v>59.66499993651518</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>73.16714263873229</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:41:37</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.8567184034392139</v>
+      </c>
+      <c r="D92" t="n">
+        <v>14.62772157557096</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="n">
+        <v>107.8533828517843</v>
+      </c>
+      <c r="G92" t="n">
+        <v>147.3412681180788</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>56.1311243711485</v>
+      </c>
+      <c r="J92" t="n">
+        <v>75.0726418899707</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
+        <v>35.46642044482364</v>
+      </c>
+      <c r="M92" t="n">
+        <v>48.06523480069735</v>
+      </c>
+      <c r="N92" t="n">
+        <v>0</v>
+      </c>
+      <c r="O92" t="n">
+        <v>304.6145172401953</v>
+      </c>
+      <c r="P92" t="n">
+        <v>729.0051318902133</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
+      <c r="R92" t="n">
+        <v>57.2615040797505</v>
+      </c>
+      <c r="S92" t="n">
+        <v>63.64224598730213</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1</v>
+      </c>
+      <c r="U92" t="n">
+        <v>0.191337170897696</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0.4164110627904437</v>
+      </c>
+      <c r="W92" t="n">
+        <v>0</v>
+      </c>
+      <c r="X92" t="n">
+        <v>33.43591013374626</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>53.94984899247864</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>0.4137931034482759</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:41:45</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3.228952638227426</v>
+      </c>
+      <c r="D93" t="n">
+        <v>11.30371407132301</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="n">
+        <v>80.91236443569817</v>
+      </c>
+      <c r="G93" t="n">
+        <v>143.8092313651165</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>4.140250405797977</v>
+      </c>
+      <c r="J93" t="n">
+        <v>105.1658131832075</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>25.38363792121778</v>
+      </c>
+      <c r="M93" t="n">
+        <v>48.38620766473673</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="n">
+        <v>763.0533885732244</v>
+      </c>
+      <c r="P93" t="n">
+        <v>826.9525005279932</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
+      <c r="R93" t="n">
+        <v>22.30829065746775</v>
+      </c>
+      <c r="S93" t="n">
+        <v>25.61812498722248</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1</v>
+      </c>
+      <c r="U93" t="n">
+        <v>0.4172967528216557</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0.5566111499274169</v>
+      </c>
+      <c r="W93" t="n">
+        <v>0</v>
+      </c>
+      <c r="X93" t="n">
+        <v>34.38810157028941</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>79.15084217630942</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>0.1470588235294118</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:41:52</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0</v>
+      </c>
+      <c r="C94" t="n">
+        <v>5.846547920315227</v>
+      </c>
+      <c r="D94" t="n">
+        <v>10.43128540032405</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>27.50541768923114</v>
+      </c>
+      <c r="G94" t="n">
+        <v>135.3734149512506</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>37.07877709452135</v>
+      </c>
+      <c r="J94" t="n">
+        <v>63.06468953655462</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
+        <v>32.44204759880427</v>
+      </c>
+      <c r="M94" t="n">
+        <v>87.21774096713102</v>
+      </c>
+      <c r="N94" t="n">
+        <v>0</v>
+      </c>
+      <c r="O94" t="n">
+        <v>364.7613054852931</v>
+      </c>
+      <c r="P94" t="n">
+        <v>628.1871276345038</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>0</v>
+      </c>
+      <c r="S94" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T94" t="n">
+        <v>0</v>
+      </c>
+      <c r="U94" t="n">
+        <v>0.4653052572923118</v>
+      </c>
+      <c r="V94" t="n">
+        <v>1.768938035165484</v>
+      </c>
+      <c r="W94" t="n">
+        <v>0</v>
+      </c>
+      <c r="X94" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>34.87422789658458</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>0.4545454545454545</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:41:57</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+      <c r="C95" t="n">
+        <v>8.416827803124914</v>
+      </c>
+      <c r="D95" t="n">
+        <v>10.05656352694921</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="n">
+        <v>2.565221703588248</v>
+      </c>
+      <c r="G95" t="n">
+        <v>70.8984744618556</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>63.49516677611584</v>
+      </c>
+      <c r="J95" t="n">
+        <v>108.3809304928983</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
+        <v>68.9530559300383</v>
+      </c>
+      <c r="M95" t="n">
+        <v>71.24755914271206</v>
+      </c>
+      <c r="N95" t="n">
+        <v>0</v>
+      </c>
+      <c r="O95" t="n">
+        <v>379.5871464321736</v>
+      </c>
+      <c r="P95" t="n">
+        <v>596.4028271640594</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
+      <c r="R95" t="n">
+        <v>3.518682367260588</v>
+      </c>
+      <c r="S95" t="n">
+        <v>55.48348212790219</v>
+      </c>
+      <c r="T95" t="n">
+        <v>0</v>
+      </c>
+      <c r="U95" t="n">
+        <v>1.132713276940778</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.21175108433343</v>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>25.29023587893138</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>38.10514774960324</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>0.8431372549019608</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:42:18</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0</v>
+      </c>
+      <c r="C96" t="n">
+        <v>12.43580630918275</v>
+      </c>
+      <c r="D96" t="n">
+        <v>17</v>
+      </c>
+      <c r="E96" t="n">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="n">
+        <v>125.5469180590963</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>29.5685767335752</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>26.52907282514817</v>
+      </c>
+      <c r="M96" t="n">
+        <v>41.70148362003285</v>
+      </c>
+      <c r="N96" t="n">
+        <v>0</v>
+      </c>
+      <c r="O96" t="n">
+        <v>25.55904866603244</v>
+      </c>
+      <c r="P96" t="n">
+        <v>551.7701366758506</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
+      <c r="R96" t="n">
+        <v>0</v>
+      </c>
+      <c r="S96" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T96" t="n">
+        <v>0</v>
+      </c>
+      <c r="U96" t="n">
+        <v>0.8467804607001188</v>
+      </c>
+      <c r="V96" t="n">
+        <v>1.679990926790733</v>
+      </c>
+      <c r="W96" t="n">
+        <v>0</v>
+      </c>
+      <c r="X96" t="n">
+        <v>28.86706924739946</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>64.71697470946681</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>0.7514285714285714</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:42:28</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1.314160673470368</v>
+      </c>
+      <c r="D97" t="n">
+        <v>11.63546795904871</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>121.1527985857259</v>
+      </c>
+      <c r="G97" t="n">
+        <v>169.2481222995906</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>48.24537133771216</v>
+      </c>
+      <c r="J97" t="n">
+        <v>91.60990246642602</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
+        <v>17.57180243437174</v>
+      </c>
+      <c r="M97" t="n">
+        <v>57.80302411225014</v>
+      </c>
+      <c r="N97" t="n">
+        <v>0</v>
+      </c>
+      <c r="O97" t="n">
+        <v>375.1806819489036</v>
+      </c>
+      <c r="P97" t="n">
+        <v>698.3521098498609</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
+      <c r="R97" t="n">
+        <v>18.84496454309959</v>
+      </c>
+      <c r="S97" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T97" t="n">
+        <v>0</v>
+      </c>
+      <c r="U97" t="n">
+        <v>0.6586151405838945</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.325648182272277</v>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>61.92990042572493</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>72.47844108771289</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>0.896551724137931</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:42:35</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+      <c r="C98" t="n">
+        <v>4.239458971249745</v>
+      </c>
+      <c r="D98" t="n">
+        <v>10.07920559785988</v>
+      </c>
+      <c r="E98" t="n">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>7.269100067650445</v>
+      </c>
+      <c r="G98" t="n">
+        <v>166.3237207470296</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>36.00947838519235</v>
+      </c>
+      <c r="J98" t="n">
+        <v>82.45999473641095</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>45.81320602550041</v>
+      </c>
+      <c r="M98" t="n">
+        <v>96.4081462213186</v>
+      </c>
+      <c r="N98" t="n">
+        <v>0</v>
+      </c>
+      <c r="O98" t="n">
+        <v>654.8136640933405</v>
+      </c>
+      <c r="P98" t="n">
+        <v>782.8910226209815</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
+      <c r="R98" t="n">
+        <v>44.32162931803192</v>
+      </c>
+      <c r="S98" t="n">
+        <v>62.82035146703333</v>
+      </c>
+      <c r="T98" t="n">
+        <v>0</v>
+      </c>
+      <c r="U98" t="n">
+        <v>0.7034389366811161</v>
+      </c>
+      <c r="V98" t="n">
+        <v>1.729058319793173</v>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>65.05103399291727</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>76.86718369564905</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:42:38</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+      <c r="C99" t="n">
+        <v>7.734786513262533</v>
+      </c>
+      <c r="D99" t="n">
+        <v>14.43245482953808</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="n">
+        <v>74.63711722182228</v>
+      </c>
+      <c r="G99" t="n">
+        <v>161.7587492793498</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>52.74785976353752</v>
+      </c>
+      <c r="J99" t="n">
+        <v>105.1983825597212</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>60.70394229235333</v>
+      </c>
+      <c r="M99" t="n">
+        <v>72.62602245788955</v>
+      </c>
+      <c r="N99" t="n">
+        <v>0</v>
+      </c>
+      <c r="O99" t="n">
+        <v>16.25808471006874</v>
+      </c>
+      <c r="P99" t="n">
+        <v>387.3867404327245</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>29.50285949793826</v>
+      </c>
+      <c r="S99" t="n">
+        <v>44.76180813237851</v>
+      </c>
+      <c r="T99" t="n">
+        <v>0</v>
+      </c>
+      <c r="U99" t="n">
+        <v>0.6130491877794434</v>
+      </c>
+      <c r="V99" t="n">
+        <v>1.391647538568267</v>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>50.09022977339882</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>70.3275192818754</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>0.8627450980392157</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:43:02</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+      <c r="C100" t="n">
+        <v>3.143802741264524</v>
+      </c>
+      <c r="D100" t="n">
+        <v>16.21122089182969</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>63.79487629391682</v>
+      </c>
+      <c r="G100" t="n">
+        <v>117.8622031483748</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>0.8120224857099743</v>
+      </c>
+      <c r="J100" t="n">
+        <v>88.06554631613145</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
+        <v>37.00214195648393</v>
+      </c>
+      <c r="M100" t="n">
+        <v>99</v>
+      </c>
+      <c r="N100" t="n">
+        <v>0</v>
+      </c>
+      <c r="O100" t="n">
+        <v>407.1197568200776</v>
+      </c>
+      <c r="P100" t="n">
+        <v>731.9822083224723</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
+      <c r="R100" t="n">
+        <v>26.51195594827498</v>
+      </c>
+      <c r="S100" t="n">
+        <v>62.41587659811262</v>
+      </c>
+      <c r="T100" t="n">
+        <v>0</v>
+      </c>
+      <c r="U100" t="n">
+        <v>0.7140182483734691</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.044834569903886</v>
+      </c>
+      <c r="W100" t="n">
+        <v>0</v>
+      </c>
+      <c r="X100" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>25.92526489953883</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>0.6285714285714286</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:43:16</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+      <c r="C101" t="n">
+        <v>13.2137401445222</v>
+      </c>
+      <c r="D101" t="n">
+        <v>16.74757692595346</v>
+      </c>
+      <c r="E101" t="n">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>94.46023927674882</v>
+      </c>
+      <c r="G101" t="n">
+        <v>141.0206241916904</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
+        <v>38.26077741429822</v>
+      </c>
+      <c r="J101" t="n">
+        <v>89.25553210387319</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>46.76797274101326</v>
+      </c>
+      <c r="M101" t="n">
+        <v>68.74570751113748</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="n">
+        <v>299.5720208342418</v>
+      </c>
+      <c r="P101" t="n">
+        <v>320.5654959865041</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
+      <c r="R101" t="n">
+        <v>40.54352313069225</v>
+      </c>
+      <c r="S101" t="n">
+        <v>52.35204919514074</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1</v>
+      </c>
+      <c r="U101" t="n">
+        <v>0.1537292390054317</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.125656180650328</v>
+      </c>
+      <c r="W101" t="n">
+        <v>0</v>
+      </c>
+      <c r="X101" t="n">
+        <v>39.04614222733339</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>76.30185900744063</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>0.5769230769230769</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:43:29</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.2609976491686</v>
+      </c>
+      <c r="D102" t="n">
+        <v>6.716734665764134</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="n">
+        <v>23.18977942253617</v>
+      </c>
+      <c r="G102" t="n">
+        <v>50.24614362018301</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
+        <v>26.93833793566313</v>
+      </c>
+      <c r="J102" t="n">
+        <v>96.79067830490163</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>7.250561517920556</v>
+      </c>
+      <c r="M102" t="n">
+        <v>35.27258622875061</v>
+      </c>
+      <c r="N102" t="n">
+        <v>0</v>
+      </c>
+      <c r="O102" t="n">
+        <v>163.0038134450645</v>
+      </c>
+      <c r="P102" t="n">
+        <v>552.9518762818466</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
+      <c r="R102" t="n">
+        <v>21.23205053573622</v>
+      </c>
+      <c r="S102" t="n">
+        <v>49.58936993240988</v>
+      </c>
+      <c r="T102" t="n">
+        <v>0</v>
+      </c>
+      <c r="U102" t="n">
+        <v>0.8535794850397861</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.30651794417513</v>
+      </c>
+      <c r="W102" t="n">
+        <v>0</v>
+      </c>
+      <c r="X102" t="n">
+        <v>57.12367013357361</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>62.54083644801098</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>0.7454545454545455</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:43:37</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+      <c r="C103" t="n">
+        <v>10.10135500815418</v>
+      </c>
+      <c r="D103" t="n">
+        <v>15.78936673220032</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="n">
+        <v>43.08379904896366</v>
+      </c>
+      <c r="G103" t="n">
+        <v>132.903002615288</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>44.61986548264052</v>
+      </c>
+      <c r="J103" t="n">
+        <v>113.8631409396473</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>62.47735110609802</v>
+      </c>
+      <c r="M103" t="n">
+        <v>99</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" t="n">
+        <v>0</v>
+      </c>
+      <c r="P103" t="n">
+        <v>815.4383959151426</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
+      <c r="R103" t="n">
+        <v>65.79400380434598</v>
+      </c>
+      <c r="S103" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T103" t="n">
+        <v>0</v>
+      </c>
+      <c r="U103" t="n">
+        <v>0.1741277483892276</v>
+      </c>
+      <c r="V103" t="n">
+        <v>1.178779113515191</v>
+      </c>
+      <c r="W103" t="n">
+        <v>0</v>
+      </c>
+      <c r="X103" t="n">
+        <v>53.73890720656042</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:44:00</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+      <c r="C104" t="n">
+        <v>1.074663089724214</v>
+      </c>
+      <c r="D104" t="n">
+        <v>4.556800628828074</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="n">
+        <v>17.07521801839976</v>
+      </c>
+      <c r="G104" t="n">
+        <v>192.9056526406486</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>74.8288190795127</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0</v>
+      </c>
+      <c r="L104" t="n">
+        <v>66.56500352145149</v>
+      </c>
+      <c r="M104" t="n">
+        <v>80.66853204997379</v>
+      </c>
+      <c r="N104" t="n">
+        <v>0</v>
+      </c>
+      <c r="O104" t="n">
+        <v>217.0960921450059</v>
+      </c>
+      <c r="P104" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
+      <c r="R104" t="n">
+        <v>8.583435369442949</v>
+      </c>
+      <c r="S104" t="n">
+        <v>18.2057315578934</v>
+      </c>
+      <c r="T104" t="n">
+        <v>0</v>
+      </c>
+      <c r="U104" t="n">
+        <v>0.1422574430242856</v>
+      </c>
+      <c r="V104" t="n">
+        <v>0.9473800093771276</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1</v>
+      </c>
+      <c r="X104" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>30.57818417491854</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>0.6685714285714286</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:44:12</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+      <c r="C105" t="n">
+        <v>5.28325525738426</v>
+      </c>
+      <c r="D105" t="n">
+        <v>17</v>
+      </c>
+      <c r="E105" t="n">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>25.52822258778627</v>
+      </c>
+      <c r="G105" t="n">
+        <v>151.0763373706815</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>12.69902723634037</v>
+      </c>
+      <c r="J105" t="n">
+        <v>103.1359274056755</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>56.07558082255876</v>
+      </c>
+      <c r="M105" t="n">
+        <v>64.07306277125849</v>
+      </c>
+      <c r="N105" t="n">
+        <v>0</v>
+      </c>
+      <c r="O105" t="n">
+        <v>442.0382450259305</v>
+      </c>
+      <c r="P105" t="n">
+        <v>806.5585033392709</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
+      <c r="R105" t="n">
+        <v>13.26157220795656</v>
+      </c>
+      <c r="S105" t="n">
+        <v>49.4226014283511</v>
+      </c>
+      <c r="T105" t="n">
+        <v>0</v>
+      </c>
+      <c r="U105" t="n">
+        <v>0.9117323198479507</v>
+      </c>
+      <c r="V105" t="n">
+        <v>1.213920046429652</v>
+      </c>
+      <c r="W105" t="n">
+        <v>0</v>
+      </c>
+      <c r="X105" t="n">
+        <v>23.33636105972714</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>23.64609713982117</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>0.8706896551724138</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:44:23</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" t="n">
+        <v>7.222775909785168</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="n">
+        <v>65.77445671364038</v>
+      </c>
+      <c r="G106" t="n">
+        <v>163.9274528571509</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>65.27763095367163</v>
+      </c>
+      <c r="J106" t="n">
+        <v>83.71150644177685</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>53.74288629633793</v>
+      </c>
+      <c r="M106" t="n">
+        <v>86.10704681680974</v>
+      </c>
+      <c r="N106" t="n">
+        <v>0</v>
+      </c>
+      <c r="O106" t="n">
+        <v>201.6816328353246</v>
+      </c>
+      <c r="P106" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
+      <c r="R106" t="n">
+        <v>14.58502190545824</v>
+      </c>
+      <c r="S106" t="n">
+        <v>46.0919284926203</v>
+      </c>
+      <c r="T106" t="n">
+        <v>0</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1.217044584248279</v>
+      </c>
+      <c r="V106" t="n">
+        <v>1.283847358849823</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1</v>
+      </c>
+      <c r="X106" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>60.95864455524659</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>0.9732620320855615</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:44:48</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>0</v>
+      </c>
+      <c r="C107" t="n">
+        <v>7.116075407526446</v>
+      </c>
+      <c r="D107" t="n">
+        <v>16.85284578469333</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>53.06167042458796</v>
+      </c>
+      <c r="G107" t="n">
+        <v>138.818312671149</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>84.68920728505947</v>
+      </c>
+      <c r="J107" t="n">
+        <v>95.68148127149186</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
+        <v>12.70870575136942</v>
+      </c>
+      <c r="M107" t="n">
+        <v>49.20907757650482</v>
+      </c>
+      <c r="N107" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" t="n">
+        <v>370.9742342596285</v>
+      </c>
+      <c r="P107" t="n">
+        <v>415.0990999168932</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.677167428657137</v>
+      </c>
+      <c r="S107" t="n">
+        <v>12.50875890556791</v>
+      </c>
+      <c r="T107" t="n">
+        <v>0</v>
+      </c>
+      <c r="U107" t="n">
+        <v>0.3163461186296312</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.334286568882746</v>
+      </c>
+      <c r="W107" t="n">
+        <v>0</v>
+      </c>
+      <c r="X107" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>55.56290534310273</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>0.8457142857142858</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:44:57</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+      <c r="C108" t="n">
+        <v>8.052330469917235</v>
+      </c>
+      <c r="D108" t="n">
+        <v>12.70269460019951</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="n">
+        <v>6.275173886977821</v>
+      </c>
+      <c r="G108" t="n">
+        <v>32.28316860943664</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>111.8953291771815</v>
+      </c>
+      <c r="J108" t="n">
+        <v>120.7070990702212</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>35.23384432657403</v>
+      </c>
+      <c r="M108" t="n">
+        <v>76.82417827221768</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+      <c r="O108" t="n">
+        <v>178.262805104697</v>
+      </c>
+      <c r="P108" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
+      <c r="R108" t="n">
+        <v>12.99118885109042</v>
+      </c>
+      <c r="S108" t="n">
+        <v>23.39040022515961</v>
+      </c>
+      <c r="T108" t="n">
+        <v>0</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1.341179030800769</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.313925711945642</v>
+      </c>
+      <c r="W108" t="n">
+        <v>0</v>
+      </c>
+      <c r="X108" t="n">
+        <v>34.23292124241651</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>71.39237147754181</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>0.2777777777777778</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:45:05</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+      <c r="C109" t="n">
+        <v>1.330896575787281</v>
+      </c>
+      <c r="D109" t="n">
+        <v>6.480919072343962</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="n">
+        <v>37.30802320165905</v>
+      </c>
+      <c r="G109" t="n">
+        <v>115.1722561953073</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>40.47631717845898</v>
+      </c>
+      <c r="J109" t="n">
+        <v>63.04875633932758</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
+        <v>11.75091160813525</v>
+      </c>
+      <c r="M109" t="n">
+        <v>73.54518951050484</v>
+      </c>
+      <c r="N109" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" t="n">
+        <v>363.2899891061788</v>
+      </c>
+      <c r="P109" t="n">
+        <v>449.2855876119449</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
+      <c r="R109" t="n">
+        <v>42.31870277007896</v>
+      </c>
+      <c r="S109" t="n">
+        <v>53.68852354557569</v>
+      </c>
+      <c r="T109" t="n">
+        <v>0</v>
+      </c>
+      <c r="U109" t="n">
+        <v>0.4290089325166486</v>
+      </c>
+      <c r="V109" t="n">
+        <v>1.63098449210523</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1</v>
+      </c>
+      <c r="X109" t="n">
+        <v>58.9735826408503</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>63.17383049319319</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>0.05128205128205128</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:45:15</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+      <c r="C110" t="n">
+        <v>11.67884883065691</v>
+      </c>
+      <c r="D110" t="n">
+        <v>15.99610300269065</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="n">
+        <v>119.2320512556282</v>
+      </c>
+      <c r="G110" t="n">
+        <v>169.1871419742022</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>68.22100316896518</v>
+      </c>
+      <c r="J110" t="n">
+        <v>81.69900461058693</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>36.50420344837308</v>
+      </c>
+      <c r="M110" t="n">
+        <v>70.95633501580566</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="n">
+        <v>592.2497279007381</v>
+      </c>
+      <c r="P110" t="n">
+        <v>764.318760835181</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
+      <c r="R110" t="n">
+        <v>7.655138814559368</v>
+      </c>
+      <c r="S110" t="n">
+        <v>16.64712908258861</v>
+      </c>
+      <c r="T110" t="n">
+        <v>0</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.171867764952874</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.358790423130284</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1</v>
+      </c>
+      <c r="X110" t="n">
+        <v>35.02159698020324</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>49.5040236519613</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>0.3513513513513514</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:45:22</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0</v>
+      </c>
+      <c r="D111" t="n">
+        <v>16.95204716003052</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="n">
+        <v>100.0840539854258</v>
+      </c>
+      <c r="G111" t="n">
+        <v>108.7877928077068</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>14.52586497821462</v>
+      </c>
+      <c r="J111" t="n">
+        <v>73.39705730466942</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0</v>
+      </c>
+      <c r="L111" t="n">
+        <v>33.66080704026426</v>
+      </c>
+      <c r="M111" t="n">
+        <v>50.65289959941471</v>
+      </c>
+      <c r="N111" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" t="n">
+        <v>322.7605292354199</v>
+      </c>
+      <c r="P111" t="n">
+        <v>845.6936602057866</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1</v>
+      </c>
+      <c r="R111" t="n">
+        <v>30.46477850609514</v>
+      </c>
+      <c r="S111" t="n">
+        <v>64.40280858392876</v>
+      </c>
+      <c r="T111" t="n">
+        <v>0</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.243779275798332</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="n">
+        <v>49.92088479562089</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>53.29449245166609</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>0.7379679144385026</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:45:24</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5.463905248626707</v>
+      </c>
+      <c r="D112" t="n">
+        <v>13.93197080170717</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="n">
+        <v>130.9989114958635</v>
+      </c>
+      <c r="G112" t="n">
+        <v>137.0537705839819</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>27.10311450262471</v>
+      </c>
+      <c r="J112" t="n">
+        <v>104.5474376402876</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>4.942227967911255</v>
+      </c>
+      <c r="M112" t="n">
+        <v>93.08745027364037</v>
+      </c>
+      <c r="N112" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" t="n">
+        <v>39.29519613151351</v>
+      </c>
+      <c r="P112" t="n">
+        <v>137.611016593337</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
+      <c r="R112" t="n">
+        <v>32.61866627869555</v>
+      </c>
+      <c r="S112" t="n">
+        <v>53.36629805150248</v>
+      </c>
+      <c r="T112" t="n">
+        <v>0</v>
+      </c>
+      <c r="U112" t="n">
+        <v>0.3241346922105118</v>
+      </c>
+      <c r="V112" t="n">
+        <v>1.265550053930418</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="n">
+        <v>47.60671134282678</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>59.73284694475712</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>0.6122448979591837</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:45:43</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+      <c r="C113" t="n">
+        <v>7.474078456016152</v>
+      </c>
+      <c r="D113" t="n">
+        <v>15.36199257682888</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>6.436079678096269</v>
+      </c>
+      <c r="G113" t="n">
+        <v>133.0554790935624</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>69.45883912304426</v>
+      </c>
+      <c r="J113" t="n">
+        <v>88.35401173325852</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.3396676909718054</v>
+      </c>
+      <c r="M113" t="n">
+        <v>30.45222517711624</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="n">
+        <v>378.0976805180604</v>
+      </c>
+      <c r="P113" t="n">
+        <v>383.242882770882</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
+      <c r="R113" t="n">
+        <v>37.89302116178202</v>
+      </c>
+      <c r="S113" t="n">
+        <v>41.5127417785015</v>
+      </c>
+      <c r="T113" t="n">
+        <v>0</v>
+      </c>
+      <c r="U113" t="n">
+        <v>0.5532606790969486</v>
+      </c>
+      <c r="V113" t="n">
+        <v>0.6116911679196404</v>
+      </c>
+      <c r="W113" t="n">
+        <v>0</v>
+      </c>
+      <c r="X113" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>42.34247230944457</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>0.8171428571428572</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:45:51</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0</v>
+      </c>
+      <c r="C114" t="n">
+        <v>14.87524454603491</v>
+      </c>
+      <c r="D114" t="n">
+        <v>15.72167946239956</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>199</v>
+      </c>
+      <c r="G114" t="n">
+        <v>199</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>47.71639351028493</v>
+      </c>
+      <c r="J114" t="n">
+        <v>64.77161291587777</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>9.535023271486796</v>
+      </c>
+      <c r="M114" t="n">
+        <v>23.66341335097681</v>
+      </c>
+      <c r="N114" t="n">
+        <v>0</v>
+      </c>
+      <c r="O114" t="n">
+        <v>404.5710564542886</v>
+      </c>
+      <c r="P114" t="n">
+        <v>725.5517949962343</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
+      <c r="R114" t="n">
+        <v>6.128007695795507</v>
+      </c>
+      <c r="S114" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T114" t="n">
+        <v>0</v>
+      </c>
+      <c r="U114" t="n">
+        <v>0.5520302283115665</v>
+      </c>
+      <c r="V114" t="n">
+        <v>1.346278251921964</v>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>72.86844938939808</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>78.30344885767533</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:46:02</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.7289480939372346</v>
+      </c>
+      <c r="D115" t="n">
+        <v>5.627801320901447</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="n">
+        <v>7.82148835353382</v>
+      </c>
+      <c r="G115" t="n">
+        <v>154.3492717847462</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1</v>
+      </c>
+      <c r="I115" t="n">
+        <v>56.44893340984189</v>
+      </c>
+      <c r="J115" t="n">
+        <v>92.2604557873013</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0</v>
+      </c>
+      <c r="L115" t="n">
+        <v>18.82138320951025</v>
+      </c>
+      <c r="M115" t="n">
+        <v>97.72519398548627</v>
+      </c>
+      <c r="N115" t="n">
+        <v>0</v>
+      </c>
+      <c r="O115" t="n">
+        <v>166.8667244584514</v>
+      </c>
+      <c r="P115" t="n">
+        <v>630.2020620937818</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
+      <c r="R115" t="n">
+        <v>13.46068239608087</v>
+      </c>
+      <c r="S115" t="n">
+        <v>21.53306204468741</v>
+      </c>
+      <c r="T115" t="n">
+        <v>0</v>
+      </c>
+      <c r="U115" t="n">
+        <v>0.4871038285980886</v>
+      </c>
+      <c r="V115" t="n">
+        <v>1.06584632205419</v>
+      </c>
+      <c r="W115" t="n">
+        <v>0</v>
+      </c>
+      <c r="X115" t="n">
+        <v>48.55093038314402</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>69.71795238307772</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:46:10</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+      <c r="C116" t="n">
+        <v>12.86952598369776</v>
+      </c>
+      <c r="D116" t="n">
+        <v>13.87542617063252</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="n">
+        <v>149.1174016737548</v>
+      </c>
+      <c r="G116" t="n">
+        <v>160.9362730385986</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1</v>
+      </c>
+      <c r="I116" t="n">
+        <v>61.76836384503936</v>
+      </c>
+      <c r="J116" t="n">
+        <v>92.60463301583081</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>21.68192008386896</v>
+      </c>
+      <c r="M116" t="n">
+        <v>29.28653062468161</v>
+      </c>
+      <c r="N116" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" t="n">
+        <v>373.9711163397137</v>
+      </c>
+      <c r="P116" t="n">
+        <v>473.6979164319289</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
+      <c r="R116" t="n">
+        <v>27.99407352323591</v>
+      </c>
+      <c r="S116" t="n">
+        <v>42.64991788828861</v>
+      </c>
+      <c r="T116" t="n">
+        <v>0</v>
+      </c>
+      <c r="U116" t="n">
+        <v>0.7501208117698394</v>
+      </c>
+      <c r="V116" t="n">
+        <v>1.279831488150528</v>
+      </c>
+      <c r="W116" t="n">
+        <v>0</v>
+      </c>
+      <c r="X116" t="n">
+        <v>42.57502232603964</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>0.8288770053475936</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:46:12</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+      <c r="C117" t="n">
+        <v>7.164602362591552</v>
+      </c>
+      <c r="D117" t="n">
+        <v>13.48086630921665</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>60.32936679699289</v>
+      </c>
+      <c r="G117" t="n">
+        <v>132.8229118456633</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>15.72878456891308</v>
+      </c>
+      <c r="J117" t="n">
+        <v>63.24619461599596</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>9.243476341650073</v>
+      </c>
+      <c r="M117" t="n">
+        <v>53.86014035531633</v>
+      </c>
+      <c r="N117" t="n">
+        <v>0</v>
+      </c>
+      <c r="O117" t="n">
+        <v>213.8708512573828</v>
+      </c>
+      <c r="P117" t="n">
+        <v>580.7475645254124</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>35.21642087799241</v>
+      </c>
+      <c r="S117" t="n">
+        <v>38.50571184303848</v>
+      </c>
+      <c r="T117" t="n">
+        <v>0</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.531328417616637</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.179309377409578</v>
+      </c>
+      <c r="W117" t="n">
+        <v>0</v>
+      </c>
+      <c r="X117" t="n">
+        <v>31.12522697461257</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>53.73925701711937</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>0.46875</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:46:31</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" t="n">
+        <v>15.11304410436462</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>40.03945231056771</v>
+      </c>
+      <c r="G118" t="n">
+        <v>127.5642862002144</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>79.49205298171375</v>
+      </c>
+      <c r="M118" t="n">
+        <v>96.17136327280767</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>524.2452179580017</v>
+      </c>
+      <c r="P118" t="n">
+        <v>619.8126713584988</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" t="n">
+        <v>15.56295451783399</v>
+      </c>
+      <c r="S118" t="n">
+        <v>29.29166470750889</v>
+      </c>
+      <c r="T118" t="n">
+        <v>0</v>
+      </c>
+      <c r="U118" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V118" t="n">
+        <v>0.9293742730035779</v>
+      </c>
+      <c r="W118" t="n">
+        <v>0</v>
+      </c>
+      <c r="X118" t="n">
+        <v>28.2147814933431</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>59.43075170028091</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>0.7657142857142857</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:46:40</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+      <c r="C119" t="n">
+        <v>11.2377492288929</v>
+      </c>
+      <c r="D119" t="n">
+        <v>13.81528458847912</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>75.65414558227727</v>
+      </c>
+      <c r="G119" t="n">
+        <v>199</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>59.80289506885375</v>
+      </c>
+      <c r="J119" t="n">
+        <v>80.11157615225729</v>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>11.23524156309734</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>729.8318211124227</v>
+      </c>
+      <c r="P119" t="n">
+        <v>768.6437963354931</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" t="n">
+        <v>3.302848190918704</v>
+      </c>
+      <c r="S119" t="n">
+        <v>29.17491099362546</v>
+      </c>
+      <c r="T119" t="n">
+        <v>0</v>
+      </c>
+      <c r="U119" t="n">
+        <v>1.31740263871178</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.323456559986757</v>
+      </c>
+      <c r="W119" t="n">
+        <v>0</v>
+      </c>
+      <c r="X119" t="n">
+        <v>26.32366827715152</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>71.48473740316032</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>0.3658536585365854</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:46:48</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+      <c r="C120" t="n">
+        <v>1.418002845873172</v>
+      </c>
+      <c r="D120" t="n">
+        <v>11.15865321659022</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="n">
+        <v>133.7902605410489</v>
+      </c>
+      <c r="G120" t="n">
+        <v>192.0056717722191</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>42.23891142091204</v>
+      </c>
+      <c r="J120" t="n">
+        <v>78.28969772871986</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>9.645367207257426</v>
+      </c>
+      <c r="M120" t="n">
+        <v>35.64772532671148</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>337.8270645365198</v>
+      </c>
+      <c r="P120" t="n">
+        <v>745.5318299786031</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" t="n">
+        <v>3.217329081214853</v>
+      </c>
+      <c r="S120" t="n">
+        <v>36.12325260611792</v>
+      </c>
+      <c r="T120" t="n">
+        <v>0</v>
+      </c>
+      <c r="U120" t="n">
+        <v>0.3454660264421676</v>
+      </c>
+      <c r="V120" t="n">
+        <v>0.4158002050501504</v>
+      </c>
+      <c r="W120" t="n">
+        <v>0</v>
+      </c>
+      <c r="X120" t="n">
+        <v>37.46847791657827</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>50.97558372511527</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:46:54</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>1</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.1300657906452576</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12.92089354932135</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="n">
+        <v>92.57804406023139</v>
+      </c>
+      <c r="G121" t="n">
+        <v>111.3574985589026</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>32.49353448374453</v>
+      </c>
+      <c r="J121" t="n">
+        <v>65.61764876176795</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>40.69124152761353</v>
+      </c>
+      <c r="M121" t="n">
+        <v>66.66453914732608</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>313.2925351084399</v>
+      </c>
+      <c r="P121" t="n">
+        <v>327.7673079638017</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" t="n">
+        <v>13.7141350899976</v>
+      </c>
+      <c r="S121" t="n">
+        <v>63.50930518449266</v>
+      </c>
+      <c r="T121" t="n">
+        <v>0</v>
+      </c>
+      <c r="U121" t="n">
+        <v>0.3875691213873231</v>
+      </c>
+      <c r="V121" t="n">
+        <v>0.9896697355508352</v>
+      </c>
+      <c r="W121" t="n">
+        <v>0</v>
+      </c>
+      <c r="X121" t="n">
+        <v>41.54113333997871</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>71.96958659517728</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>0.8288770053475936</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:46:56</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0</v>
+      </c>
+      <c r="C122" t="n">
+        <v>4.909492151808598</v>
+      </c>
+      <c r="D122" t="n">
+        <v>11.09538760089145</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="n">
+        <v>119.5851761126877</v>
+      </c>
+      <c r="G122" t="n">
+        <v>166.7801746949932</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>88.23202919265066</v>
+      </c>
+      <c r="J122" t="n">
+        <v>89.2591622932253</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>11.62669927576664</v>
+      </c>
+      <c r="M122" t="n">
+        <v>69.29945774649761</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>524.6001442470313</v>
+      </c>
+      <c r="P122" t="n">
+        <v>585.8505034648755</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" t="n">
+        <v>45.63354901200515</v>
+      </c>
+      <c r="S122" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T122" t="n">
+        <v>0</v>
+      </c>
+      <c r="U122" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V122" t="n">
+        <v>1.360844810130854</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1</v>
+      </c>
+      <c r="X122" t="n">
+        <v>34.14896445884688</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>68.1527827297095</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>0.40625</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:47:14</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+      <c r="C123" t="n">
+        <v>9.938832453630869</v>
+      </c>
+      <c r="D123" t="n">
+        <v>13.05437682857667</v>
+      </c>
+      <c r="E123" t="n">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>29.26352643589819</v>
+      </c>
+      <c r="G123" t="n">
+        <v>147.9751039117326</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>31.12362376518836</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>305.1934012590056</v>
+      </c>
+      <c r="P123" t="n">
+        <v>311.7318958130614</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" t="n">
+        <v>7.178151307146893</v>
+      </c>
+      <c r="S123" t="n">
+        <v>49.08408046546115</v>
+      </c>
+      <c r="T123" t="n">
+        <v>0</v>
+      </c>
+      <c r="U123" t="n">
+        <v>0.5611999509592911</v>
+      </c>
+      <c r="V123" t="n">
+        <v>0.6532842664977525</v>
+      </c>
+      <c r="W123" t="n">
+        <v>0</v>
+      </c>
+      <c r="X123" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>21.70708096753383</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>0.9114285714285715</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:47:21</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+      <c r="C124" t="n">
+        <v>0.7698190476332943</v>
+      </c>
+      <c r="D124" t="n">
+        <v>11.77024438746219</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="n">
+        <v>44.13622068903407</v>
+      </c>
+      <c r="G124" t="n">
+        <v>122.0677392286007</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1.862655169371183</v>
+      </c>
+      <c r="J124" t="n">
+        <v>67.22022589137907</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>10.79720616957234</v>
+      </c>
+      <c r="M124" t="n">
+        <v>84.66156291686065</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="n">
+        <v>72.03775511732034</v>
+      </c>
+      <c r="P124" t="n">
+        <v>110.5777953833251</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
+      <c r="R124" t="n">
+        <v>10.81128147665819</v>
+      </c>
+      <c r="S124" t="n">
+        <v>31.38657675835561</v>
+      </c>
+      <c r="T124" t="n">
+        <v>0</v>
+      </c>
+      <c r="U124" t="n">
+        <v>0.575538873146249</v>
+      </c>
+      <c r="V124" t="n">
+        <v>1.900124736903314</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1</v>
+      </c>
+      <c r="X124" t="n">
+        <v>36.88149888359905</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>40.14723052265703</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>0.1935483870967742</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:47:28</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+      <c r="C125" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>17</v>
+      </c>
+      <c r="E125" t="n">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>57.48967096825245</v>
+      </c>
+      <c r="G125" t="n">
+        <v>183.9968040816234</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>21.1281583050356</v>
+      </c>
+      <c r="J125" t="n">
+        <v>26.35478631887931</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>55.47311199195835</v>
+      </c>
+      <c r="N125" t="n">
+        <v>0</v>
+      </c>
+      <c r="O125" t="n">
+        <v>82.70265884378102</v>
+      </c>
+      <c r="P125" t="n">
+        <v>417.4722248963995</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
+      <c r="R125" t="n">
+        <v>0</v>
+      </c>
+      <c r="S125" t="n">
+        <v>66.00614583219773</v>
+      </c>
+      <c r="T125" t="n">
+        <v>0</v>
+      </c>
+      <c r="U125" t="n">
+        <v>0.4320160701462703</v>
+      </c>
+      <c r="V125" t="n">
+        <v>1.281941765847862</v>
+      </c>
+      <c r="W125" t="n">
+        <v>0</v>
+      </c>
+      <c r="X125" t="n">
+        <v>62.53369058062957</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>63.4087301902255</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>0.8983957219251337</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:47:51</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+      <c r="C126" t="n">
+        <v>8.293234693428738</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.70912413770107</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="n">
+        <v>20.62837744112142</v>
+      </c>
+      <c r="G126" t="n">
+        <v>28.08343662974237</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>6.530846999023339</v>
+      </c>
+      <c r="J126" t="n">
+        <v>61.82204895039869</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0</v>
+      </c>
+      <c r="M126" t="n">
+        <v>16.84404072088508</v>
+      </c>
+      <c r="N126" t="n">
+        <v>0</v>
+      </c>
+      <c r="O126" t="n">
+        <v>21.12438926544273</v>
+      </c>
+      <c r="P126" t="n">
+        <v>174.0103430281842</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>10.78990612850881</v>
+      </c>
+      <c r="S126" t="n">
+        <v>37.20437799427265</v>
+      </c>
+      <c r="T126" t="n">
+        <v>0</v>
+      </c>
+      <c r="U126" t="n">
+        <v>0.0782786803561185</v>
+      </c>
+      <c r="V126" t="n">
+        <v>0.719316067518715</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1</v>
+      </c>
+      <c r="X126" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>27.95888330625014</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:48:05</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+      <c r="C127" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" t="n">
+        <v>2.43530532935794</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1</v>
+      </c>
+      <c r="F127" t="n">
+        <v>8.490923529812136</v>
+      </c>
+      <c r="G127" t="n">
+        <v>122.0765263546063</v>
+      </c>
+      <c r="H127" t="n">
+        <v>1</v>
+      </c>
+      <c r="I127" t="n">
+        <v>65.9471322566844</v>
+      </c>
+      <c r="J127" t="n">
+        <v>88.0621579162067</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
+        <v>30.64725976209849</v>
+      </c>
+      <c r="M127" t="n">
+        <v>42.19563153199679</v>
+      </c>
+      <c r="N127" t="n">
+        <v>0</v>
+      </c>
+      <c r="O127" t="n">
+        <v>530.0704216913277</v>
+      </c>
+      <c r="P127" t="n">
+        <v>829.1943209012062</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
+      <c r="R127" t="n">
+        <v>30.17806431393865</v>
+      </c>
+      <c r="S127" t="n">
+        <v>63.56840706567041</v>
+      </c>
+      <c r="T127" t="n">
+        <v>0</v>
+      </c>
+      <c r="U127" t="n">
+        <v>1.762515679427616</v>
+      </c>
+      <c r="V127" t="n">
+        <v>1.927047051464505</v>
+      </c>
+      <c r="W127" t="n">
+        <v>0</v>
+      </c>
+      <c r="X127" t="n">
+        <v>55.04378316576187</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>0.4161490683229814</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:48:14</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0</v>
+      </c>
+      <c r="C128" t="n">
+        <v>7.849785452869706</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.22154237645321</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="n">
+        <v>53.33514534119922</v>
+      </c>
+      <c r="G128" t="n">
+        <v>119.0587036740087</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>61.95638310907928</v>
+      </c>
+      <c r="J128" t="n">
+        <v>63.59635858822038</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>50.7751332422982</v>
+      </c>
+      <c r="M128" t="n">
+        <v>58.88322664128511</v>
+      </c>
+      <c r="N128" t="n">
+        <v>0</v>
+      </c>
+      <c r="O128" t="n">
+        <v>446.7672131149732</v>
+      </c>
+      <c r="P128" t="n">
+        <v>798.6256375836826</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
+      <c r="R128" t="n">
+        <v>31.64001964631304</v>
+      </c>
+      <c r="S128" t="n">
+        <v>50.65062650720147</v>
+      </c>
+      <c r="T128" t="n">
+        <v>0</v>
+      </c>
+      <c r="U128" t="n">
+        <v>0.8949873390668228</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.363869246349202</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1</v>
+      </c>
+      <c r="X128" t="n">
+        <v>22.76087448877397</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>36.24278529459252</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>0.4574468085106383</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:48:22</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+      <c r="C129" t="n">
+        <v>11.34983057310882</v>
+      </c>
+      <c r="D129" t="n">
+        <v>15.09087291572244</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>67.86485468908033</v>
+      </c>
+      <c r="G129" t="n">
+        <v>92.61091239705989</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>38.39857702845169</v>
+      </c>
+      <c r="J129" t="n">
+        <v>83.69583529338789</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>15.96317121404755</v>
+      </c>
+      <c r="M129" t="n">
+        <v>18.66849858531315</v>
+      </c>
+      <c r="N129" t="n">
+        <v>0</v>
+      </c>
+      <c r="O129" t="n">
+        <v>162.4780104589639</v>
+      </c>
+      <c r="P129" t="n">
+        <v>518.8276545549343</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>1</v>
+      </c>
+      <c r="R129" t="n">
+        <v>11.07762574364443</v>
+      </c>
+      <c r="S129" t="n">
+        <v>30.13721100097106</v>
+      </c>
+      <c r="T129" t="n">
+        <v>0</v>
+      </c>
+      <c r="U129" t="n">
+        <v>0.4132541604983103</v>
+      </c>
+      <c r="V129" t="n">
+        <v>1.204838881685652</v>
+      </c>
+      <c r="W129" t="n">
+        <v>0</v>
+      </c>
+      <c r="X129" t="n">
+        <v>29.50070481057754</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>76.68052410862822</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>0.4901960784313725</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:48:29</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+      <c r="C130" t="n">
+        <v>3.129399776199966</v>
+      </c>
+      <c r="D130" t="n">
+        <v>15.43431742540306</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>156.0700514747703</v>
+      </c>
+      <c r="G130" t="n">
+        <v>199</v>
+      </c>
+      <c r="H130" t="n">
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>37.26285714404246</v>
+      </c>
+      <c r="J130" t="n">
+        <v>89.0720823028493</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0</v>
+      </c>
+      <c r="M130" t="n">
+        <v>52.37587980200095</v>
+      </c>
+      <c r="N130" t="n">
+        <v>0</v>
+      </c>
+      <c r="O130" t="n">
+        <v>222.3029114133986</v>
+      </c>
+      <c r="P130" t="n">
+        <v>295.0208230576383</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
+      <c r="R130" t="n">
+        <v>3.235153937690084</v>
+      </c>
+      <c r="S130" t="n">
+        <v>52.6536652532645</v>
+      </c>
+      <c r="T130" t="n">
+        <v>0</v>
+      </c>
+      <c r="U130" t="n">
+        <v>0.1332527560696274</v>
+      </c>
+      <c r="V130" t="n">
+        <v>2.160048167967251</v>
+      </c>
+      <c r="W130" t="n">
+        <v>0</v>
+      </c>
+      <c r="X130" t="n">
+        <v>61.45340263359024</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>79.28859702182282</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>0.8288770053475936</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:48:32</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.789569168015207</v>
+      </c>
+      <c r="D131" t="n">
+        <v>16.82047295375471</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" t="n">
+        <v>41.5115430007263</v>
+      </c>
+      <c r="G131" t="n">
+        <v>131.6324190807042</v>
+      </c>
+      <c r="H131" t="n">
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>31.6281961546424</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0</v>
+      </c>
+      <c r="L131" t="n">
+        <v>66.44037556787404</v>
+      </c>
+      <c r="M131" t="n">
+        <v>84.54731116275732</v>
+      </c>
+      <c r="N131" t="n">
+        <v>0</v>
+      </c>
+      <c r="O131" t="n">
+        <v>329.055698121634</v>
+      </c>
+      <c r="P131" t="n">
+        <v>823.8698005798224</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
+      <c r="R131" t="n">
+        <v>35.98319210633925</v>
+      </c>
+      <c r="S131" t="n">
+        <v>43.55521615574943</v>
+      </c>
+      <c r="T131" t="n">
+        <v>0</v>
+      </c>
+      <c r="U131" t="n">
+        <v>1.093862463528299</v>
+      </c>
+      <c r="V131" t="n">
+        <v>1.906768986499508</v>
+      </c>
+      <c r="W131" t="n">
+        <v>0</v>
+      </c>
+      <c r="X131" t="n">
+        <v>31.24293240347947</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>48.98264742856762</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>0.34375</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:48:51</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+      <c r="C132" t="n">
+        <v>4.001417025299827</v>
+      </c>
+      <c r="D132" t="n">
+        <v>6.116882721039243</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1</v>
+      </c>
+      <c r="F132" t="n">
+        <v>17.07214092374335</v>
+      </c>
+      <c r="G132" t="n">
+        <v>120.0303071991893</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>27.68047058685215</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0</v>
+      </c>
+      <c r="M132" t="n">
+        <v>35.82758955203398</v>
+      </c>
+      <c r="N132" t="n">
+        <v>0</v>
+      </c>
+      <c r="O132" t="n">
+        <v>0</v>
+      </c>
+      <c r="P132" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
+      <c r="R132" t="n">
+        <v>2.218606818976293</v>
+      </c>
+      <c r="S132" t="n">
+        <v>31.79312502872452</v>
+      </c>
+      <c r="T132" t="n">
+        <v>0</v>
+      </c>
+      <c r="U132" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V132" t="n">
+        <v>1.591833407661046</v>
+      </c>
+      <c r="W132" t="n">
+        <v>0</v>
+      </c>
+      <c r="X132" t="n">
+        <v>22.09759183978936</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>41.38847290215413</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:49:02</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+      <c r="C133" t="n">
+        <v>2.868830901889414</v>
+      </c>
+      <c r="D133" t="n">
+        <v>5.96733833575796</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" t="n">
+        <v>56.50649223225665</v>
+      </c>
+      <c r="G133" t="n">
+        <v>148.5944877176887</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>37.61230998209607</v>
+      </c>
+      <c r="J133" t="n">
+        <v>70.58635380038095</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
+        <v>53.93277721048529</v>
+      </c>
+      <c r="M133" t="n">
+        <v>55.00462431032512</v>
+      </c>
+      <c r="N133" t="n">
+        <v>0</v>
+      </c>
+      <c r="O133" t="n">
+        <v>178.3102060977054</v>
+      </c>
+      <c r="P133" t="n">
+        <v>261.9902405290986</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>1</v>
+      </c>
+      <c r="R133" t="n">
+        <v>22.3832779244776</v>
+      </c>
+      <c r="S133" t="n">
+        <v>29.53922247913182</v>
+      </c>
+      <c r="T133" t="n">
+        <v>0</v>
+      </c>
+      <c r="U133" t="n">
+        <v>1.430797350634789</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.375133641509555</v>
+      </c>
+      <c r="W133" t="n">
+        <v>0</v>
+      </c>
+      <c r="X133" t="n">
+        <v>65.28400849917131</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>71.99791807124012</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>0.3571428571428572</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:49:11</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.9457192494879343</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.17617297705532</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>110.5012588915025</v>
+      </c>
+      <c r="G134" t="n">
+        <v>137.210964003869</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>67.36226759280063</v>
+      </c>
+      <c r="J134" t="n">
+        <v>104.638480561413</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0</v>
+      </c>
+      <c r="L134" t="n">
+        <v>40.11904238022286</v>
+      </c>
+      <c r="M134" t="n">
+        <v>43.18655853066578</v>
+      </c>
+      <c r="N134" t="n">
+        <v>1</v>
+      </c>
+      <c r="O134" t="n">
+        <v>95.04889176807187</v>
+      </c>
+      <c r="P134" t="n">
+        <v>763.642424119109</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
+      <c r="R134" t="n">
+        <v>25.24401100491063</v>
+      </c>
+      <c r="S134" t="n">
+        <v>41.10390514532917</v>
+      </c>
+      <c r="T134" t="n">
+        <v>0</v>
+      </c>
+      <c r="U134" t="n">
+        <v>0.5263949974589555</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.419839686827001</v>
+      </c>
+      <c r="W134" t="n">
+        <v>0</v>
+      </c>
+      <c r="X134" t="n">
+        <v>31.89071799546998</v>
+      </c>
+      <c r="Y134" t="n">
+        <v>61.66230853654638</v>
+      </c>
+      <c r="Z134" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA134" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:49:19</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>1</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.694659292116297</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.14822949587092</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" t="n">
+        <v>16.4643899064037</v>
+      </c>
+      <c r="G135" t="n">
+        <v>182.9748684701911</v>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>80.69990551385501</v>
+      </c>
+      <c r="J135" t="n">
+        <v>120.9622608792968</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0</v>
+      </c>
+      <c r="L135" t="n">
+        <v>26.6635381733774</v>
+      </c>
+      <c r="M135" t="n">
+        <v>36.55203727201435</v>
+      </c>
+      <c r="N135" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" t="n">
+        <v>144.5528526276561</v>
+      </c>
+      <c r="P135" t="n">
+        <v>795.7587030359541</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
+      <c r="R135" t="n">
+        <v>14.79915432970187</v>
+      </c>
+      <c r="S135" t="n">
+        <v>18.15551296995805</v>
+      </c>
+      <c r="T135" t="n">
+        <v>0</v>
+      </c>
+      <c r="U135" t="n">
+        <v>0.1463142413856654</v>
+      </c>
+      <c r="V135" t="n">
+        <v>0.6454738745704679</v>
+      </c>
+      <c r="W135" t="n">
+        <v>0</v>
+      </c>
+      <c r="X135" t="n">
+        <v>59.11197029573164</v>
+      </c>
+      <c r="Y135" t="n">
+        <v>70.24501641377697</v>
+      </c>
+      <c r="Z135" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA135" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:49:26</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.838277578472943</v>
+      </c>
+      <c r="D136" t="n">
+        <v>13.51974213422891</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" t="n">
+        <v>108.140681581285</v>
+      </c>
+      <c r="G136" t="n">
+        <v>129.9041890136057</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>94.38043929518147</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="n">
+        <v>18.94272504986255</v>
+      </c>
+      <c r="M136" t="n">
+        <v>96.81780883731636</v>
+      </c>
+      <c r="N136" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" t="n">
+        <v>127.1481007900438</v>
+      </c>
+      <c r="P136" t="n">
+        <v>746.3404280756558</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
+      <c r="R136" t="n">
+        <v>17.63439743606868</v>
+      </c>
+      <c r="S136" t="n">
+        <v>41.58917036036155</v>
+      </c>
+      <c r="T136" t="n">
+        <v>0</v>
+      </c>
+      <c r="U136" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V136" t="n">
+        <v>2.361249519585623</v>
+      </c>
+      <c r="W136" t="n">
+        <v>0</v>
+      </c>
+      <c r="X136" t="n">
+        <v>71.03862836002034</v>
+      </c>
+      <c r="Y136" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z136" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA136" t="n">
+        <v>0.6256684491978609</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>2023-03-03 02:49:30</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>1</v>
+      </c>
+      <c r="C137" t="n">
+        <v>2.870388075690135</v>
+      </c>
+      <c r="D137" t="n">
+        <v>15.50811278826193</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0</v>
+      </c>
+      <c r="F137" t="n">
+        <v>79.48144877200771</v>
+      </c>
+      <c r="G137" t="n">
+        <v>178.9866141393211</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>40.13227320418942</v>
+      </c>
+      <c r="J137" t="n">
+        <v>63.07606937220876</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0</v>
+      </c>
+      <c r="L137" t="n">
+        <v>49.17327234652604</v>
+      </c>
+      <c r="M137" t="n">
+        <v>86.07588287778704</v>
+      </c>
+      <c r="N137" t="n">
+        <v>0</v>
+      </c>
+      <c r="O137" t="n">
+        <v>83.45489239997642</v>
+      </c>
+      <c r="P137" t="n">
+        <v>274.3835198588088</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
+      <c r="R137" t="n">
+        <v>9.429939258242205</v>
+      </c>
+      <c r="S137" t="n">
+        <v>41.8899974496186</v>
+      </c>
+      <c r="T137" t="n">
+        <v>0</v>
+      </c>
+      <c r="U137" t="n">
+        <v>1.464383297442122</v>
+      </c>
+      <c r="V137" t="n">
+        <v>2.271617644326599</v>
+      </c>
+      <c r="W137" t="n">
+        <v>0</v>
+      </c>
+      <c r="X137" t="n">
+        <v>45.3117217895859</v>
+      </c>
+      <c r="Y137" t="n">
+        <v>72.29289035934931</v>
+      </c>
+      <c r="Z137" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA137" t="n">
+        <v>0.8142857142857143</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Working code/Logs/fitness1_rule_log.xlsx
+++ b/Working code/Logs/fitness1_rule_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA137"/>
+  <dimension ref="A1:AA165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12118,6 +12118,2386 @@
         <v>0.8142857142857143</v>
       </c>
     </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:13:54</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>4.55817896629197</v>
+      </c>
+      <c r="D138" t="n">
+        <v>7.548024382131423</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="n">
+        <v>126.4602568515581</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>25.72552593628635</v>
+      </c>
+      <c r="J138" t="n">
+        <v>69.29494026874573</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
+        <v>19.79030290171892</v>
+      </c>
+      <c r="M138" t="n">
+        <v>21.31173513855844</v>
+      </c>
+      <c r="N138" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" t="n">
+        <v>91.07215033351265</v>
+      </c>
+      <c r="P138" t="n">
+        <v>285.0881276880122</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
+      <c r="R138" t="n">
+        <v>3.104638603703636</v>
+      </c>
+      <c r="S138" t="n">
+        <v>41.44398121479894</v>
+      </c>
+      <c r="T138" t="n">
+        <v>0</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1.042042009919061</v>
+      </c>
+      <c r="V138" t="n">
+        <v>1.131994291117846</v>
+      </c>
+      <c r="W138" t="n">
+        <v>0</v>
+      </c>
+      <c r="X138" t="n">
+        <v>36.46517639911259</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>44.52143595625524</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>0.7657142857142857</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:14:11</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>6.956205697428776</v>
+      </c>
+      <c r="D139" t="n">
+        <v>14.16888878608498</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.656069713648224</v>
+      </c>
+      <c r="G139" t="n">
+        <v>152.0513908600306</v>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>50.4072535861208</v>
+      </c>
+      <c r="J139" t="n">
+        <v>87.18404256255977</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0</v>
+      </c>
+      <c r="L139" t="n">
+        <v>47.71518522969805</v>
+      </c>
+      <c r="M139" t="n">
+        <v>74.29161679204437</v>
+      </c>
+      <c r="N139" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" t="n">
+        <v>52.40522660238643</v>
+      </c>
+      <c r="P139" t="n">
+        <v>834.6316430483274</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
+      <c r="R139" t="n">
+        <v>16.45495832652177</v>
+      </c>
+      <c r="S139" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T139" t="n">
+        <v>0</v>
+      </c>
+      <c r="U139" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V139" t="n">
+        <v>0.9426272911894222</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0</v>
+      </c>
+      <c r="X139" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y139" t="n">
+        <v>36.25240461297614</v>
+      </c>
+      <c r="Z139" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA139" t="n">
+        <v>0.8414634146341463</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:14:23</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>4.614943326698848</v>
+      </c>
+      <c r="D140" t="n">
+        <v>8.992563716736543</v>
+      </c>
+      <c r="E140" t="n">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="n">
+        <v>188.9820570469037</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>79.6884230810749</v>
+      </c>
+      <c r="J140" t="n">
+        <v>87.52061515804975</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>54.13004703387068</v>
+      </c>
+      <c r="M140" t="n">
+        <v>80.36355439160558</v>
+      </c>
+      <c r="N140" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" t="n">
+        <v>540.7724772283577</v>
+      </c>
+      <c r="P140" t="n">
+        <v>770.5191083366085</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
+      <c r="R140" t="n">
+        <v>21.66411318217272</v>
+      </c>
+      <c r="S140" t="n">
+        <v>26.25173377311823</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1.384318094040213</v>
+      </c>
+      <c r="V140" t="n">
+        <v>1.621262019234662</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>59.32928744646019</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>0.946524064171123</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:16:23</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>3.845692445998699</v>
+      </c>
+      <c r="D141" t="n">
+        <v>8.263804415640866</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>54.40892736354479</v>
+      </c>
+      <c r="G141" t="n">
+        <v>94.34526800052217</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>4.50049544637226</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>22.55637842770785</v>
+      </c>
+      <c r="M141" t="n">
+        <v>26.50751516586413</v>
+      </c>
+      <c r="N141" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" t="n">
+        <v>393.4684363501718</v>
+      </c>
+      <c r="P141" t="n">
+        <v>738.1301869489751</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
+      <c r="R141" t="n">
+        <v>0</v>
+      </c>
+      <c r="S141" t="n">
+        <v>4.009436198624168</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>1.149361151802574</v>
+      </c>
+      <c r="V141" t="n">
+        <v>1.985440874958724</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1</v>
+      </c>
+      <c r="X141" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>31.53720856527958</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>0.6914285714285714</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:16:41</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>6.938685221623437</v>
+      </c>
+      <c r="D142" t="n">
+        <v>8.503600411365101</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0</v>
+      </c>
+      <c r="F142" t="n">
+        <v>92.47490618070421</v>
+      </c>
+      <c r="G142" t="n">
+        <v>165.7750387619682</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>43.70992423038008</v>
+      </c>
+      <c r="J142" t="n">
+        <v>72.83491636965681</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>26.364841725741</v>
+      </c>
+      <c r="M142" t="n">
+        <v>48.6156638025274</v>
+      </c>
+      <c r="N142" t="n">
+        <v>0</v>
+      </c>
+      <c r="O142" t="n">
+        <v>255.4772606084036</v>
+      </c>
+      <c r="P142" t="n">
+        <v>424.7221893430695</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
+      <c r="R142" t="n">
+        <v>37.53215953292293</v>
+      </c>
+      <c r="S142" t="n">
+        <v>64.26336237932057</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>1.482339979516072</v>
+      </c>
+      <c r="V142" t="n">
+        <v>1.943808284186152</v>
+      </c>
+      <c r="W142" t="n">
+        <v>1</v>
+      </c>
+      <c r="X142" t="n">
+        <v>36.69265474395645</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>48.20624735390043</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>0.5370370370370371</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:16:57</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>14.69033982290117</v>
+      </c>
+      <c r="D143" t="n">
+        <v>15.52837462768518</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" t="n">
+        <v>98.65731175318807</v>
+      </c>
+      <c r="G143" t="n">
+        <v>103.1764129379908</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>57.91114506621226</v>
+      </c>
+      <c r="J143" t="n">
+        <v>99.76649792884216</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
+        <v>16.59651600047771</v>
+      </c>
+      <c r="M143" t="n">
+        <v>49.39649432768333</v>
+      </c>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+      <c r="O143" t="n">
+        <v>119.3544571462888</v>
+      </c>
+      <c r="P143" t="n">
+        <v>138.6711079864527</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
+      <c r="R143" t="n">
+        <v>54.91305631112963</v>
+      </c>
+      <c r="S143" t="n">
+        <v>59.42290615063102</v>
+      </c>
+      <c r="T143" t="n">
+        <v>0</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1.866132659551814</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.243464064013914</v>
+      </c>
+      <c r="W143" t="n">
+        <v>0</v>
+      </c>
+      <c r="X143" t="n">
+        <v>48.0774390749455</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>80.20606565263509</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:17:11</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>2.339199047453254</v>
+      </c>
+      <c r="D144" t="n">
+        <v>14.49936704777572</v>
+      </c>
+      <c r="E144" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" t="n">
+        <v>109.1089526649377</v>
+      </c>
+      <c r="G144" t="n">
+        <v>116.8208966915283</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>9.64154345701172</v>
+      </c>
+      <c r="J144" t="n">
+        <v>30.56503425762756</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
+        <v>25.00339237951673</v>
+      </c>
+      <c r="M144" t="n">
+        <v>62.99902672577324</v>
+      </c>
+      <c r="N144" t="n">
+        <v>0</v>
+      </c>
+      <c r="O144" t="n">
+        <v>320.764794659188</v>
+      </c>
+      <c r="P144" t="n">
+        <v>552.1902585957922</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
+      <c r="R144" t="n">
+        <v>6.523618355613777</v>
+      </c>
+      <c r="S144" t="n">
+        <v>21.08402105698175</v>
+      </c>
+      <c r="T144" t="n">
+        <v>0</v>
+      </c>
+      <c r="U144" t="n">
+        <v>0.4778407433652127</v>
+      </c>
+      <c r="V144" t="n">
+        <v>1.59607200150788</v>
+      </c>
+      <c r="W144" t="n">
+        <v>1</v>
+      </c>
+      <c r="X144" t="n">
+        <v>46.50833210509031</v>
+      </c>
+      <c r="Y144" t="n">
+        <v>78.62577594774966</v>
+      </c>
+      <c r="Z144" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA144" t="n">
+        <v>0.5869565217391305</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>2023-03-03 15:17:24</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>13.1499273344234</v>
+      </c>
+      <c r="D145" t="n">
+        <v>16.13234385395073</v>
+      </c>
+      <c r="E145" t="n">
+        <v>0</v>
+      </c>
+      <c r="F145" t="n">
+        <v>63.87472135757181</v>
+      </c>
+      <c r="G145" t="n">
+        <v>176.9927012453132</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>23.12019527970989</v>
+      </c>
+      <c r="J145" t="n">
+        <v>77.37120847230781</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>54.0229464109605</v>
+      </c>
+      <c r="M145" t="n">
+        <v>56.48418620942046</v>
+      </c>
+      <c r="N145" t="n">
+        <v>0</v>
+      </c>
+      <c r="O145" t="n">
+        <v>79.02190653157682</v>
+      </c>
+      <c r="P145" t="n">
+        <v>612.980139894794</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>1</v>
+      </c>
+      <c r="R145" t="n">
+        <v>23.82084548368514</v>
+      </c>
+      <c r="S145" t="n">
+        <v>64.02629604740646</v>
+      </c>
+      <c r="T145" t="n">
+        <v>0</v>
+      </c>
+      <c r="U145" t="n">
+        <v>0.821049362239222</v>
+      </c>
+      <c r="V145" t="n">
+        <v>1.740533947145778</v>
+      </c>
+      <c r="W145" t="n">
+        <v>0</v>
+      </c>
+      <c r="X145" t="n">
+        <v>30.2255181191722</v>
+      </c>
+      <c r="Y145" t="n">
+        <v>53.22978272698975</v>
+      </c>
+      <c r="Z145" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA145" t="n">
+        <v>0.9625668449197861</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:00:32</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>2.849271502388319</v>
+      </c>
+      <c r="D146" t="n">
+        <v>9.728699159920403</v>
+      </c>
+      <c r="E146" t="n">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>27.18570728209219</v>
+      </c>
+      <c r="G146" t="n">
+        <v>134.6336676466743</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>15.19917765771869</v>
+      </c>
+      <c r="J146" t="n">
+        <v>49.97058616557863</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0</v>
+      </c>
+      <c r="M146" t="n">
+        <v>60.95419149205704</v>
+      </c>
+      <c r="N146" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" t="n">
+        <v>410.3860181535962</v>
+      </c>
+      <c r="P146" t="n">
+        <v>646.3159566109224</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
+      <c r="R146" t="n">
+        <v>24.75819599638369</v>
+      </c>
+      <c r="S146" t="n">
+        <v>51.74809706757886</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0.1392686224520378</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0.6960386900391196</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>53.89277533458194</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:00:48</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.9089296869813701</v>
+      </c>
+      <c r="D147" t="n">
+        <v>2.174716127505658</v>
+      </c>
+      <c r="E147" t="n">
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>117.6693652214572</v>
+      </c>
+      <c r="G147" t="n">
+        <v>150.390372938859</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>50.57087169197132</v>
+      </c>
+      <c r="J147" t="n">
+        <v>58.56584148850396</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
+        <v>12.92619600508889</v>
+      </c>
+      <c r="M147" t="n">
+        <v>53.59769115695265</v>
+      </c>
+      <c r="N147" t="n">
+        <v>0</v>
+      </c>
+      <c r="O147" t="n">
+        <v>397.893909987497</v>
+      </c>
+      <c r="P147" t="n">
+        <v>550.5168265242169</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>3.114252397463733</v>
+      </c>
+      <c r="S147" t="n">
+        <v>33.20030288052148</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0.2891131005841922</v>
+      </c>
+      <c r="V147" t="n">
+        <v>1.1331257545955</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0</v>
+      </c>
+      <c r="X147" t="n">
+        <v>47.41671132284461</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>47.82684971666568</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:01:03</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12.75720306377305</v>
+      </c>
+      <c r="D148" t="n">
+        <v>15.02551935553083</v>
+      </c>
+      <c r="E148" t="n">
+        <v>0</v>
+      </c>
+      <c r="F148" t="n">
+        <v>84.11886744617536</v>
+      </c>
+      <c r="G148" t="n">
+        <v>97.92049364370682</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>10.28040570688485</v>
+      </c>
+      <c r="J148" t="n">
+        <v>67.10916163797275</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>25.62398838420659</v>
+      </c>
+      <c r="M148" t="n">
+        <v>64.58379054801267</v>
+      </c>
+      <c r="N148" t="n">
+        <v>1</v>
+      </c>
+      <c r="O148" t="n">
+        <v>312.7496802737703</v>
+      </c>
+      <c r="P148" t="n">
+        <v>752.4515652317501</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
+      <c r="R148" t="n">
+        <v>5.066745613839394</v>
+      </c>
+      <c r="S148" t="n">
+        <v>37.58376945114237</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0.4084558263990448</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.246740027186834</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>35.39288943531765</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>51.98678492974817</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>0.1904761904761905</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:01:17</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>10.03835640009604</v>
+      </c>
+      <c r="D149" t="n">
+        <v>16.88121435554199</v>
+      </c>
+      <c r="E149" t="n">
+        <v>0</v>
+      </c>
+      <c r="F149" t="n">
+        <v>5.033611187989332</v>
+      </c>
+      <c r="G149" t="n">
+        <v>79.67577907522258</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>2.179175547611772</v>
+      </c>
+      <c r="J149" t="n">
+        <v>100.659727856167</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>84.16208116842016</v>
+      </c>
+      <c r="M149" t="n">
+        <v>90.35240251687915</v>
+      </c>
+      <c r="N149" t="n">
+        <v>0</v>
+      </c>
+      <c r="O149" t="n">
+        <v>138.8659390439981</v>
+      </c>
+      <c r="P149" t="n">
+        <v>674.9769855614816</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>1</v>
+      </c>
+      <c r="R149" t="n">
+        <v>41.37467931864297</v>
+      </c>
+      <c r="S149" t="n">
+        <v>47.70301035075239</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0.475866349425882</v>
+      </c>
+      <c r="V149" t="n">
+        <v>1.519360264300722</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>33.1958201534513</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>34.91277982889751</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>0.1176470588235294</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:01:31</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>3.47781651725464</v>
+      </c>
+      <c r="D150" t="n">
+        <v>13.9067003932969</v>
+      </c>
+      <c r="E150" t="n">
+        <v>0</v>
+      </c>
+      <c r="F150" t="n">
+        <v>51.64947038869914</v>
+      </c>
+      <c r="G150" t="n">
+        <v>177.2850579992893</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>5.446596888870232</v>
+      </c>
+      <c r="J150" t="n">
+        <v>81.08499384653325</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>84.48110314240198</v>
+      </c>
+      <c r="M150" t="n">
+        <v>86.87835088224784</v>
+      </c>
+      <c r="N150" t="n">
+        <v>0</v>
+      </c>
+      <c r="O150" t="n">
+        <v>0</v>
+      </c>
+      <c r="P150" t="n">
+        <v>534.6493546913583</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
+      <c r="R150" t="n">
+        <v>17.61575517222212</v>
+      </c>
+      <c r="S150" t="n">
+        <v>43.67725509544272</v>
+      </c>
+      <c r="T150" t="n">
+        <v>1</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0.1762495896200036</v>
+      </c>
+      <c r="V150" t="n">
+        <v>1.549388901554323</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" t="n">
+        <v>31.89506701764042</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>45.22080362403781</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>0.9037433155080213</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:09:58</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>5.055524162892805</v>
+      </c>
+      <c r="D151" t="n">
+        <v>13.62386136302642</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>50.26962886691902</v>
+      </c>
+      <c r="G151" t="n">
+        <v>111.0359884315153</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>24.93759587272823</v>
+      </c>
+      <c r="J151" t="n">
+        <v>118.4822831188992</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
+        <v>17.33899324881926</v>
+      </c>
+      <c r="M151" t="n">
+        <v>38.82264735881775</v>
+      </c>
+      <c r="N151" t="n">
+        <v>0</v>
+      </c>
+      <c r="O151" t="n">
+        <v>323.0392312617436</v>
+      </c>
+      <c r="P151" t="n">
+        <v>694.262525633462</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
+      <c r="R151" t="n">
+        <v>4.394758522441188</v>
+      </c>
+      <c r="S151" t="n">
+        <v>51.05774326688663</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1.324474635832074</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.008083626856423</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>59.66884929800387</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>0.5628571428571428</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:10:13</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>8.981887477241967</v>
+      </c>
+      <c r="D152" t="n">
+        <v>13.14443266882413</v>
+      </c>
+      <c r="E152" t="n">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>71.30966334364024</v>
+      </c>
+      <c r="G152" t="n">
+        <v>159.2112875014658</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>36.46330950145049</v>
+      </c>
+      <c r="J152" t="n">
+        <v>75.39007902999118</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>76.8623243903607</v>
+      </c>
+      <c r="M152" t="n">
+        <v>82.46807954519774</v>
+      </c>
+      <c r="N152" t="n">
+        <v>0</v>
+      </c>
+      <c r="O152" t="n">
+        <v>319.2064353556443</v>
+      </c>
+      <c r="P152" t="n">
+        <v>679.9200682216842</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>1</v>
+      </c>
+      <c r="R152" t="n">
+        <v>12.0747072556761</v>
+      </c>
+      <c r="S152" t="n">
+        <v>27.68977224633728</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1.107108498625875</v>
+      </c>
+      <c r="V152" t="n">
+        <v>1.82006496061895</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>60.29299447541956</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>68.53793840143149</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>0.3071895424836601</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:10:27</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.643947674662718</v>
+      </c>
+      <c r="D153" t="n">
+        <v>7.54849461976681</v>
+      </c>
+      <c r="E153" t="n">
+        <v>0</v>
+      </c>
+      <c r="F153" t="n">
+        <v>16.34080867883443</v>
+      </c>
+      <c r="G153" t="n">
+        <v>43.19493272699496</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>19.13570050585953</v>
+      </c>
+      <c r="J153" t="n">
+        <v>57.94352342246322</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>17.41406634342022</v>
+      </c>
+      <c r="M153" t="n">
+        <v>28.44637936212316</v>
+      </c>
+      <c r="N153" t="n">
+        <v>1</v>
+      </c>
+      <c r="O153" t="n">
+        <v>105.6979477790366</v>
+      </c>
+      <c r="P153" t="n">
+        <v>623.960524604906</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
+      <c r="R153" t="n">
+        <v>30.4461720193617</v>
+      </c>
+      <c r="S153" t="n">
+        <v>65.87793077522778</v>
+      </c>
+      <c r="T153" t="n">
+        <v>1</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0.2129294146258435</v>
+      </c>
+      <c r="V153" t="n">
+        <v>1.216722740639832</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>31.50921170278868</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>76.60320043006818</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>0.4056603773584906</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:10:39</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.03535906134469158</v>
+      </c>
+      <c r="D154" t="n">
+        <v>13.6665541447013</v>
+      </c>
+      <c r="E154" t="n">
+        <v>0</v>
+      </c>
+      <c r="F154" t="n">
+        <v>50.67793936327479</v>
+      </c>
+      <c r="G154" t="n">
+        <v>165.1068279142739</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>28.88050068257976</v>
+      </c>
+      <c r="J154" t="n">
+        <v>30.48837980522224</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>26.65427068409618</v>
+      </c>
+      <c r="M154" t="n">
+        <v>85.74871218186694</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>574.5669826060043</v>
+      </c>
+      <c r="P154" t="n">
+        <v>787.5082625256288</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>28.70096566369286</v>
+      </c>
+      <c r="S154" t="n">
+        <v>30.6783432649571</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1.636686552109589</v>
+      </c>
+      <c r="V154" t="n">
+        <v>2.208968487757634</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="n">
+        <v>35.65716151234108</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>48.00531246282097</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>0.03174603174603174</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:10:51</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>4.754354908237344</v>
+      </c>
+      <c r="D155" t="n">
+        <v>13.10147687953931</v>
+      </c>
+      <c r="E155" t="n">
+        <v>0</v>
+      </c>
+      <c r="F155" t="n">
+        <v>150.2785073531709</v>
+      </c>
+      <c r="G155" t="n">
+        <v>189.6768999998548</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>32.87667367139963</v>
+      </c>
+      <c r="J155" t="n">
+        <v>63.62168722549483</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>91.74924206498231</v>
+      </c>
+      <c r="M155" t="n">
+        <v>94.90557875500969</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>284.117940657612</v>
+      </c>
+      <c r="P155" t="n">
+        <v>365.7327448868382</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="n">
+        <v>37.3747202380739</v>
+      </c>
+      <c r="S155" t="n">
+        <v>43.60314206186783</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0.4821784498312177</v>
+      </c>
+      <c r="V155" t="n">
+        <v>1.00241443475257</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>62.67451281580046</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>70.05473308539356</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>0.1967213114754098</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:11:03</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+      <c r="C156" t="n">
+        <v>7.102563096795008</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12.18052925316296</v>
+      </c>
+      <c r="E156" t="n">
+        <v>0</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.007834022713662181</v>
+      </c>
+      <c r="G156" t="n">
+        <v>133.2929536565719</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>99.77762482676356</v>
+      </c>
+      <c r="J156" t="n">
+        <v>106.5371714941176</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>19.1750917712906</v>
+      </c>
+      <c r="M156" t="n">
+        <v>21.23859466145852</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="n">
+        <v>654.636394004929</v>
+      </c>
+      <c r="P156" t="n">
+        <v>805.6428947943903</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
+      <c r="R156" t="n">
+        <v>38.10346024957063</v>
+      </c>
+      <c r="S156" t="n">
+        <v>45.20701505821985</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1.578051179582823</v>
+      </c>
+      <c r="V156" t="n">
+        <v>2.345747012661586</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="n">
+        <v>41.76628429731046</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>44.04523568922401</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>0.04081632653061224</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:11:14</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>1</v>
+      </c>
+      <c r="C157" t="n">
+        <v>8.362414241868663</v>
+      </c>
+      <c r="D157" t="n">
+        <v>13.87177224401067</v>
+      </c>
+      <c r="E157" t="n">
+        <v>0</v>
+      </c>
+      <c r="F157" t="n">
+        <v>15.87006348660567</v>
+      </c>
+      <c r="G157" t="n">
+        <v>144.5664255143512</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>3.118520331623402</v>
+      </c>
+      <c r="J157" t="n">
+        <v>48.05642980236948</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>69.13017632369179</v>
+      </c>
+      <c r="M157" t="n">
+        <v>85.56585732830159</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="n">
+        <v>88.12456043401636</v>
+      </c>
+      <c r="P157" t="n">
+        <v>198.5360388196551</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
+      <c r="R157" t="n">
+        <v>30.69377530821962</v>
+      </c>
+      <c r="S157" t="n">
+        <v>48.49190537590502</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0.8561051370408002</v>
+      </c>
+      <c r="V157" t="n">
+        <v>1.646865984458471</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>47.47166726229719</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>78.5700390888456</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>0.1702127659574468</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:11:24</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>1</v>
+      </c>
+      <c r="C158" t="n">
+        <v>0.7156663987463416</v>
+      </c>
+      <c r="D158" t="n">
+        <v>6.959446781389485</v>
+      </c>
+      <c r="E158" t="n">
+        <v>0</v>
+      </c>
+      <c r="F158" t="n">
+        <v>8.924244181427026</v>
+      </c>
+      <c r="G158" t="n">
+        <v>179.055098011058</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>16.48356445540441</v>
+      </c>
+      <c r="J158" t="n">
+        <v>69.9856514919623</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>55.76947127125146</v>
+      </c>
+      <c r="M158" t="n">
+        <v>76.46477165586202</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="n">
+        <v>150.4932579576019</v>
+      </c>
+      <c r="P158" t="n">
+        <v>158.162017464706</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
+      <c r="R158" t="n">
+        <v>44.15423657333502</v>
+      </c>
+      <c r="S158" t="n">
+        <v>48.23993140904867</v>
+      </c>
+      <c r="T158" t="n">
+        <v>0</v>
+      </c>
+      <c r="U158" t="n">
+        <v>0.1687770809437436</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.087575661383548</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0</v>
+      </c>
+      <c r="X158" t="n">
+        <v>34.11328564964136</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>59.36163262539099</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>0.8461538461538461</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:11:34</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+      <c r="C159" t="n">
+        <v>5.561883323331791</v>
+      </c>
+      <c r="D159" t="n">
+        <v>17</v>
+      </c>
+      <c r="E159" t="n">
+        <v>0</v>
+      </c>
+      <c r="F159" t="n">
+        <v>137.5182301140259</v>
+      </c>
+      <c r="G159" t="n">
+        <v>162.3970066852661</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>118.1297742126383</v>
+      </c>
+      <c r="J159" t="n">
+        <v>122</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
+        <v>28.63038373826042</v>
+      </c>
+      <c r="M159" t="n">
+        <v>47.84880178819436</v>
+      </c>
+      <c r="N159" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" t="n">
+        <v>313.0149111539431</v>
+      </c>
+      <c r="P159" t="n">
+        <v>667.6963166543419</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>1</v>
+      </c>
+      <c r="R159" t="n">
+        <v>20.3688188412056</v>
+      </c>
+      <c r="S159" t="n">
+        <v>40.88020670124533</v>
+      </c>
+      <c r="T159" t="n">
+        <v>0</v>
+      </c>
+      <c r="U159" t="n">
+        <v>1.215738306691831</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.071659680235428</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0</v>
+      </c>
+      <c r="X159" t="n">
+        <v>26.88253351430468</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>35.82817050022227</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>0.8128342245989305</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:11:37</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4.238634447377796</v>
+      </c>
+      <c r="D160" t="n">
+        <v>15.19994545465221</v>
+      </c>
+      <c r="E160" t="n">
+        <v>0</v>
+      </c>
+      <c r="F160" t="n">
+        <v>65.5670346846409</v>
+      </c>
+      <c r="G160" t="n">
+        <v>168.6700541222868</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>36.42088243491427</v>
+      </c>
+      <c r="J160" t="n">
+        <v>112.2256432170189</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>65.95541716303737</v>
+      </c>
+      <c r="M160" t="n">
+        <v>89.10230032053842</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="n">
+        <v>112.6055144791638</v>
+      </c>
+      <c r="P160" t="n">
+        <v>788.4476346353139</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
+      <c r="R160" t="n">
+        <v>27.71645935456845</v>
+      </c>
+      <c r="S160" t="n">
+        <v>57.3764226774371</v>
+      </c>
+      <c r="T160" t="n">
+        <v>0</v>
+      </c>
+      <c r="U160" t="n">
+        <v>0.09283065104224028</v>
+      </c>
+      <c r="V160" t="n">
+        <v>1.249459255653454</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1</v>
+      </c>
+      <c r="X160" t="n">
+        <v>22.36660617057113</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>74.22331833583247</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>0.9142857142857143</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:28:47</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>10.41548373705928</v>
+      </c>
+      <c r="D161" t="n">
+        <v>10.54240435883866</v>
+      </c>
+      <c r="E161" t="n">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0</v>
+      </c>
+      <c r="G161" t="n">
+        <v>128.0901773232662</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>12.08702090386954</v>
+      </c>
+      <c r="J161" t="n">
+        <v>29.21043437129111</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>29.25290397453944</v>
+      </c>
+      <c r="M161" t="n">
+        <v>99</v>
+      </c>
+      <c r="N161" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" t="n">
+        <v>660.8359321400545</v>
+      </c>
+      <c r="P161" t="n">
+        <v>767.1800891687893</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
+      <c r="R161" t="n">
+        <v>27.39934396335833</v>
+      </c>
+      <c r="S161" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T161" t="n">
+        <v>0</v>
+      </c>
+      <c r="U161" t="n">
+        <v>0.9106381778402992</v>
+      </c>
+      <c r="V161" t="n">
+        <v>1.553303738056118</v>
+      </c>
+      <c r="W161" t="n">
+        <v>0</v>
+      </c>
+      <c r="X161" t="n">
+        <v>21.20808551108499</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>32.54832831302437</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>0.7828571428571428</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:29:04</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>1</v>
+      </c>
+      <c r="C162" t="n">
+        <v>0</v>
+      </c>
+      <c r="D162" t="n">
+        <v>5.023023109270172</v>
+      </c>
+      <c r="E162" t="n">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>29.92922246577554</v>
+      </c>
+      <c r="G162" t="n">
+        <v>36.48417206858044</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>48.43530586309421</v>
+      </c>
+      <c r="J162" t="n">
+        <v>65.97847219342806</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>66.47279833873117</v>
+      </c>
+      <c r="M162" t="n">
+        <v>82.87851685994019</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="n">
+        <v>48.55543681702406</v>
+      </c>
+      <c r="P162" t="n">
+        <v>596.0696148826929</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>1</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>32.34149081384187</v>
+      </c>
+      <c r="T162" t="n">
+        <v>0</v>
+      </c>
+      <c r="U162" t="n">
+        <v>1.253108056930331</v>
+      </c>
+      <c r="V162" t="n">
+        <v>1.779430186570129</v>
+      </c>
+      <c r="W162" t="n">
+        <v>0</v>
+      </c>
+      <c r="X162" t="n">
+        <v>52.42495414949697</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>0.4736842105263158</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:29:19</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>11.86762364031261</v>
+      </c>
+      <c r="D163" t="n">
+        <v>11.90054027403555</v>
+      </c>
+      <c r="E163" t="n">
+        <v>0</v>
+      </c>
+      <c r="F163" t="n">
+        <v>33.90705301765416</v>
+      </c>
+      <c r="G163" t="n">
+        <v>37.89809234498042</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>54.29285398123464</v>
+      </c>
+      <c r="J163" t="n">
+        <v>95.8188941492408</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>25.23641366134742</v>
+      </c>
+      <c r="M163" t="n">
+        <v>79.19287174723019</v>
+      </c>
+      <c r="N163" t="n">
+        <v>1</v>
+      </c>
+      <c r="O163" t="n">
+        <v>233.2370344360708</v>
+      </c>
+      <c r="P163" t="n">
+        <v>565.5248897573188</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
+      <c r="R163" t="n">
+        <v>14.14601131205807</v>
+      </c>
+      <c r="S163" t="n">
+        <v>65.31825249057674</v>
+      </c>
+      <c r="T163" t="n">
+        <v>0</v>
+      </c>
+      <c r="U163" t="n">
+        <v>1.456396709437753</v>
+      </c>
+      <c r="V163" t="n">
+        <v>1.881579168851742</v>
+      </c>
+      <c r="W163" t="n">
+        <v>0</v>
+      </c>
+      <c r="X163" t="n">
+        <v>44.50605290455536</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>73.45914096522665</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:29:36</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>1</v>
+      </c>
+      <c r="C164" t="n">
+        <v>0.4837444608723456</v>
+      </c>
+      <c r="D164" t="n">
+        <v>15.36369829398259</v>
+      </c>
+      <c r="E164" t="n">
+        <v>0</v>
+      </c>
+      <c r="F164" t="n">
+        <v>44.47153372910823</v>
+      </c>
+      <c r="G164" t="n">
+        <v>53.50663428458792</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>45.87300442846103</v>
+      </c>
+      <c r="J164" t="n">
+        <v>114.1742423642025</v>
+      </c>
+      <c r="K164" t="n">
+        <v>0</v>
+      </c>
+      <c r="L164" t="n">
+        <v>59.31061399152302</v>
+      </c>
+      <c r="M164" t="n">
+        <v>94.01703644593768</v>
+      </c>
+      <c r="N164" t="n">
+        <v>0</v>
+      </c>
+      <c r="O164" t="n">
+        <v>403.594867717319</v>
+      </c>
+      <c r="P164" t="n">
+        <v>674.6962427258019</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
+      <c r="R164" t="n">
+        <v>38.70644771958693</v>
+      </c>
+      <c r="S164" t="n">
+        <v>60.16614048667344</v>
+      </c>
+      <c r="T164" t="n">
+        <v>0</v>
+      </c>
+      <c r="U164" t="n">
+        <v>1.021314156276887</v>
+      </c>
+      <c r="V164" t="n">
+        <v>2.170448614874015</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1</v>
+      </c>
+      <c r="X164" t="n">
+        <v>59.47638445222011</v>
+      </c>
+      <c r="Y164" t="n">
+        <v>72.88559551255265</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>0.1290322580645161</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>2023-03-03 16:29:51</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>1</v>
+      </c>
+      <c r="C165" t="n">
+        <v>0.5933481301110874</v>
+      </c>
+      <c r="D165" t="n">
+        <v>14.22744979811732</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+      <c r="F165" t="n">
+        <v>102.5391604687049</v>
+      </c>
+      <c r="G165" t="n">
+        <v>143.7410167699377</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>42.84128672193216</v>
+      </c>
+      <c r="J165" t="n">
+        <v>122</v>
+      </c>
+      <c r="K165" t="n">
+        <v>0</v>
+      </c>
+      <c r="L165" t="n">
+        <v>6.403633141669745</v>
+      </c>
+      <c r="M165" t="n">
+        <v>72.45521231821738</v>
+      </c>
+      <c r="N165" t="n">
+        <v>0</v>
+      </c>
+      <c r="O165" t="n">
+        <v>0</v>
+      </c>
+      <c r="P165" t="n">
+        <v>263.130686150008</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>0</v>
+      </c>
+      <c r="R165" t="n">
+        <v>32.75610464859308</v>
+      </c>
+      <c r="S165" t="n">
+        <v>36.40397668483062</v>
+      </c>
+      <c r="T165" t="n">
+        <v>0</v>
+      </c>
+      <c r="U165" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V165" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="W165" t="n">
+        <v>0</v>
+      </c>
+      <c r="X165" t="n">
+        <v>37.32027248430933</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z165" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA165" t="n">
+        <v>0.8609625668449198</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Working code/Logs/fitness1_rule_log.xlsx
+++ b/Working code/Logs/fitness1_rule_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA165"/>
+  <dimension ref="A1:AA201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14498,6 +14498,3066 @@
         <v>0.8609625668449198</v>
       </c>
     </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:39:24</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.822514721355552</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.88528850456099</v>
+      </c>
+      <c r="E166" t="n">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>117.1294289953098</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>122</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>10.85684537664464</v>
+      </c>
+      <c r="M166" t="n">
+        <v>15.49671767357466</v>
+      </c>
+      <c r="N166" t="n">
+        <v>0</v>
+      </c>
+      <c r="O166" t="n">
+        <v>15.71523796093496</v>
+      </c>
+      <c r="P166" t="n">
+        <v>60.81002947785892</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
+      <c r="R166" t="n">
+        <v>11.80226385283364</v>
+      </c>
+      <c r="S166" t="n">
+        <v>18.62717302124227</v>
+      </c>
+      <c r="T166" t="n">
+        <v>0</v>
+      </c>
+      <c r="U166" t="n">
+        <v>0.8427871531155361</v>
+      </c>
+      <c r="V166" t="n">
+        <v>1.653021523130375</v>
+      </c>
+      <c r="W166" t="n">
+        <v>0</v>
+      </c>
+      <c r="X166" t="n">
+        <v>27.80267470898163</v>
+      </c>
+      <c r="Y166" t="n">
+        <v>54.2695129038801</v>
+      </c>
+      <c r="Z166" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA166" t="n">
+        <v>0.6485714285714286</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:39:37</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>10.08531198868599</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>29.58491161594516</v>
+      </c>
+      <c r="G167" t="n">
+        <v>134.1650145328732</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1.104213613577253</v>
+      </c>
+      <c r="J167" t="n">
+        <v>46.26119877821388</v>
+      </c>
+      <c r="K167" t="n">
+        <v>0</v>
+      </c>
+      <c r="L167" t="n">
+        <v>36.51119829620279</v>
+      </c>
+      <c r="M167" t="n">
+        <v>77.10791671849304</v>
+      </c>
+      <c r="N167" t="n">
+        <v>0</v>
+      </c>
+      <c r="O167" t="n">
+        <v>314.0890884305852</v>
+      </c>
+      <c r="P167" t="n">
+        <v>652.002809383523</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
+      <c r="R167" t="n">
+        <v>18.41601488942992</v>
+      </c>
+      <c r="S167" t="n">
+        <v>36.22219156044839</v>
+      </c>
+      <c r="T167" t="n">
+        <v>0</v>
+      </c>
+      <c r="U167" t="n">
+        <v>0.7813460166836452</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.200236636464808</v>
+      </c>
+      <c r="W167" t="n">
+        <v>1</v>
+      </c>
+      <c r="X167" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y167" t="n">
+        <v>27.9179983814129</v>
+      </c>
+      <c r="Z167" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA167" t="n">
+        <v>0.4390243902439024</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:39:47</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>3.483765699170581</v>
+      </c>
+      <c r="D168" t="n">
+        <v>16.62961801917536</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>35.02532050691959</v>
+      </c>
+      <c r="G168" t="n">
+        <v>134.3469487370533</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>15.77274117977567</v>
+      </c>
+      <c r="J168" t="n">
+        <v>82.40888666289777</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
+        <v>33.98024234893736</v>
+      </c>
+      <c r="M168" t="n">
+        <v>76.43853133157663</v>
+      </c>
+      <c r="N168" t="n">
+        <v>0</v>
+      </c>
+      <c r="O168" t="n">
+        <v>422.3120432736168</v>
+      </c>
+      <c r="P168" t="n">
+        <v>430.6841758386702</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
+      <c r="R168" t="n">
+        <v>15.19363394669512</v>
+      </c>
+      <c r="S168" t="n">
+        <v>50.96420159548091</v>
+      </c>
+      <c r="T168" t="n">
+        <v>1</v>
+      </c>
+      <c r="U168" t="n">
+        <v>0.2049799669434677</v>
+      </c>
+      <c r="V168" t="n">
+        <v>0.3185726927038857</v>
+      </c>
+      <c r="W168" t="n">
+        <v>0</v>
+      </c>
+      <c r="X168" t="n">
+        <v>34.83455391880752</v>
+      </c>
+      <c r="Y168" t="n">
+        <v>49.94536999667284</v>
+      </c>
+      <c r="Z168" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA168" t="n">
+        <v>0.3188405797101449</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:39:56</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>9.677783076855075</v>
+      </c>
+      <c r="D169" t="n">
+        <v>13.49926007119817</v>
+      </c>
+      <c r="E169" t="n">
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>9.654352382572293</v>
+      </c>
+      <c r="G169" t="n">
+        <v>146.1272645191423</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>108.0508852584541</v>
+      </c>
+      <c r="J169" t="n">
+        <v>121.7891733115344</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>15.74919841212898</v>
+      </c>
+      <c r="M169" t="n">
+        <v>61.08001522195018</v>
+      </c>
+      <c r="N169" t="n">
+        <v>0</v>
+      </c>
+      <c r="O169" t="n">
+        <v>426.1830150460866</v>
+      </c>
+      <c r="P169" t="n">
+        <v>750.7931992067961</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
+      <c r="R169" t="n">
+        <v>12.38642863647968</v>
+      </c>
+      <c r="S169" t="n">
+        <v>62.17023923561528</v>
+      </c>
+      <c r="T169" t="n">
+        <v>0</v>
+      </c>
+      <c r="U169" t="n">
+        <v>1.506828686707078</v>
+      </c>
+      <c r="V169" t="n">
+        <v>2.319162816249189</v>
+      </c>
+      <c r="W169" t="n">
+        <v>1</v>
+      </c>
+      <c r="X169" t="n">
+        <v>50.78106958147525</v>
+      </c>
+      <c r="Y169" t="n">
+        <v>77.12553729891789</v>
+      </c>
+      <c r="Z169" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA169" t="n">
+        <v>0.1914893617021277</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:40:06</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.738319036219046</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.813911989524536</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0</v>
+      </c>
+      <c r="F170" t="n">
+        <v>124.3416541279074</v>
+      </c>
+      <c r="G170" t="n">
+        <v>143.1818109054913</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>43.39062961430669</v>
+      </c>
+      <c r="J170" t="n">
+        <v>57.26361069845996</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
+        <v>42.39893634221941</v>
+      </c>
+      <c r="M170" t="n">
+        <v>43.37391373894918</v>
+      </c>
+      <c r="N170" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" t="n">
+        <v>237.8459380530618</v>
+      </c>
+      <c r="P170" t="n">
+        <v>811.1074674972862</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
+      <c r="R170" t="n">
+        <v>46.61627119809771</v>
+      </c>
+      <c r="S170" t="n">
+        <v>60.43295899849358</v>
+      </c>
+      <c r="T170" t="n">
+        <v>0</v>
+      </c>
+      <c r="U170" t="n">
+        <v>0.5644983019538709</v>
+      </c>
+      <c r="V170" t="n">
+        <v>2.247882164602235</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1</v>
+      </c>
+      <c r="X170" t="n">
+        <v>25.99099668264034</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>33.07363388282683</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>0.3947368421052632</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:40:15</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>3.363861361961997</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>50.68370988551271</v>
+      </c>
+      <c r="G171" t="n">
+        <v>75.31986676666166</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>27.86776001862725</v>
+      </c>
+      <c r="J171" t="n">
+        <v>65.43244263041311</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>4.533238701559538</v>
+      </c>
+      <c r="M171" t="n">
+        <v>86.12316636540893</v>
+      </c>
+      <c r="N171" t="n">
+        <v>0</v>
+      </c>
+      <c r="O171" t="n">
+        <v>697.5657880121832</v>
+      </c>
+      <c r="P171" t="n">
+        <v>739.1149196979093</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>1</v>
+      </c>
+      <c r="R171" t="n">
+        <v>26.25631436000889</v>
+      </c>
+      <c r="S171" t="n">
+        <v>44.20899446724662</v>
+      </c>
+      <c r="T171" t="n">
+        <v>0</v>
+      </c>
+      <c r="U171" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W171" t="n">
+        <v>0</v>
+      </c>
+      <c r="X171" t="n">
+        <v>37.07356619145263</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>57.02681177646397</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>0.8663101604278075</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:42:50</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0</v>
+      </c>
+      <c r="D172" t="n">
+        <v>2.085329995359805</v>
+      </c>
+      <c r="E172" t="n">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>56.57829762036165</v>
+      </c>
+      <c r="G172" t="n">
+        <v>147.4916956746914</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>55.72649568564383</v>
+      </c>
+      <c r="J172" t="n">
+        <v>64.0585059653867</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0</v>
+      </c>
+      <c r="M172" t="n">
+        <v>32.39037742825901</v>
+      </c>
+      <c r="N172" t="n">
+        <v>0</v>
+      </c>
+      <c r="O172" t="n">
+        <v>1.724260717083897</v>
+      </c>
+      <c r="P172" t="n">
+        <v>61.59855306094067</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
+      <c r="R172" t="n">
+        <v>0</v>
+      </c>
+      <c r="S172" t="n">
+        <v>6.53415417986194</v>
+      </c>
+      <c r="T172" t="n">
+        <v>0</v>
+      </c>
+      <c r="U172" t="n">
+        <v>0.3782445001703506</v>
+      </c>
+      <c r="V172" t="n">
+        <v>1.491736708497173</v>
+      </c>
+      <c r="W172" t="n">
+        <v>0</v>
+      </c>
+      <c r="X172" t="n">
+        <v>45.91768948328674</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>59.70406354769092</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>0.9057142857142857</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:42:59</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>5.581840325767894</v>
+      </c>
+      <c r="D173" t="n">
+        <v>12.00130009875859</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>23.81025745141063</v>
+      </c>
+      <c r="G173" t="n">
+        <v>126.6506804866725</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>5.480685351010893</v>
+      </c>
+      <c r="J173" t="n">
+        <v>23.31965506700139</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>61.0244230038863</v>
+      </c>
+      <c r="M173" t="n">
+        <v>87.70867260616821</v>
+      </c>
+      <c r="N173" t="n">
+        <v>0</v>
+      </c>
+      <c r="O173" t="n">
+        <v>0</v>
+      </c>
+      <c r="P173" t="n">
+        <v>795.96522088718</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
+      <c r="R173" t="n">
+        <v>0</v>
+      </c>
+      <c r="S173" t="n">
+        <v>19.16593434799591</v>
+      </c>
+      <c r="T173" t="n">
+        <v>0</v>
+      </c>
+      <c r="U173" t="n">
+        <v>1.384382116640906</v>
+      </c>
+      <c r="V173" t="n">
+        <v>1.506793078696019</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1</v>
+      </c>
+      <c r="X173" t="n">
+        <v>57.12204234059617</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>74.90577168680397</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>0.1515151515151515</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:43:08</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>7.674666796021629</v>
+      </c>
+      <c r="D174" t="n">
+        <v>9.376644454441374</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>179.4185873250087</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>73.43731090651055</v>
+      </c>
+      <c r="J174" t="n">
+        <v>122</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>53.87075936210422</v>
+      </c>
+      <c r="N174" t="n">
+        <v>0</v>
+      </c>
+      <c r="O174" t="n">
+        <v>496.2513766914064</v>
+      </c>
+      <c r="P174" t="n">
+        <v>660.6857352879331</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
+      <c r="R174" t="n">
+        <v>27.54540578483385</v>
+      </c>
+      <c r="S174" t="n">
+        <v>48.84626058380713</v>
+      </c>
+      <c r="T174" t="n">
+        <v>0</v>
+      </c>
+      <c r="U174" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V174" t="n">
+        <v>1.936840982456603</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1</v>
+      </c>
+      <c r="X174" t="n">
+        <v>23.28767672604247</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>77.3865905700889</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>0.9144385026737968</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:58:34</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+      <c r="C175" t="n">
+        <v>3.76164741066319</v>
+      </c>
+      <c r="D175" t="n">
+        <v>5.842244087246818</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0</v>
+      </c>
+      <c r="F175" t="n">
+        <v>7.038838473746715</v>
+      </c>
+      <c r="G175" t="n">
+        <v>89.72864187983299</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>47.95904671576642</v>
+      </c>
+      <c r="J175" t="n">
+        <v>58.95650812140477</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>15.39551415654375</v>
+      </c>
+      <c r="M175" t="n">
+        <v>73.59520049223168</v>
+      </c>
+      <c r="N175" t="n">
+        <v>0</v>
+      </c>
+      <c r="O175" t="n">
+        <v>47.24521437076102</v>
+      </c>
+      <c r="P175" t="n">
+        <v>261.5095452762692</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
+      <c r="R175" t="n">
+        <v>16.29834654684969</v>
+      </c>
+      <c r="S175" t="n">
+        <v>26.03850288231605</v>
+      </c>
+      <c r="T175" t="n">
+        <v>0</v>
+      </c>
+      <c r="U175" t="n">
+        <v>0.9833430902888756</v>
+      </c>
+      <c r="V175" t="n">
+        <v>1.61095044160866</v>
+      </c>
+      <c r="W175" t="n">
+        <v>0</v>
+      </c>
+      <c r="X175" t="n">
+        <v>28.33685790644602</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>55.62252297067143</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:58:45</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>5.578918772653033</v>
+      </c>
+      <c r="D176" t="n">
+        <v>8.721145830970231</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>132.6798205804185</v>
+      </c>
+      <c r="G176" t="n">
+        <v>166.980104055599</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>6.441227529114762</v>
+      </c>
+      <c r="J176" t="n">
+        <v>10.49068796822013</v>
+      </c>
+      <c r="K176" t="n">
+        <v>1</v>
+      </c>
+      <c r="L176" t="n">
+        <v>22.367882145444</v>
+      </c>
+      <c r="M176" t="n">
+        <v>80.56694907277104</v>
+      </c>
+      <c r="N176" t="n">
+        <v>0</v>
+      </c>
+      <c r="O176" t="n">
+        <v>175.0880270252548</v>
+      </c>
+      <c r="P176" t="n">
+        <v>364.4118536156047</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
+      <c r="R176" t="n">
+        <v>0.6589811080252836</v>
+      </c>
+      <c r="S176" t="n">
+        <v>24.06122362050997</v>
+      </c>
+      <c r="T176" t="n">
+        <v>0</v>
+      </c>
+      <c r="U176" t="n">
+        <v>1.037720854387484</v>
+      </c>
+      <c r="V176" t="n">
+        <v>1.234475617771999</v>
+      </c>
+      <c r="W176" t="n">
+        <v>0</v>
+      </c>
+      <c r="X176" t="n">
+        <v>32.09446574173302</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>70.98598050327294</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:58:56</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+      <c r="C177" t="n">
+        <v>3.953325021216658</v>
+      </c>
+      <c r="D177" t="n">
+        <v>14.2169295997335</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0</v>
+      </c>
+      <c r="F177" t="n">
+        <v>149.0951246287546</v>
+      </c>
+      <c r="G177" t="n">
+        <v>177.6764952740551</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>32.34399129120887</v>
+      </c>
+      <c r="J177" t="n">
+        <v>87.55497241326805</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>13.99850124387611</v>
+      </c>
+      <c r="M177" t="n">
+        <v>95.20309804761762</v>
+      </c>
+      <c r="N177" t="n">
+        <v>0</v>
+      </c>
+      <c r="O177" t="n">
+        <v>311.9448617311688</v>
+      </c>
+      <c r="P177" t="n">
+        <v>390.3850735418544</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
+      <c r="R177" t="n">
+        <v>0.1021419828516577</v>
+      </c>
+      <c r="S177" t="n">
+        <v>6.089398901883999</v>
+      </c>
+      <c r="T177" t="n">
+        <v>1</v>
+      </c>
+      <c r="U177" t="n">
+        <v>1.759829689358102</v>
+      </c>
+      <c r="V177" t="n">
+        <v>2.30422017959788</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1</v>
+      </c>
+      <c r="X177" t="n">
+        <v>38.4181184301781</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>46.16655212743028</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:59:07</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>5.105142066589783</v>
+      </c>
+      <c r="D178" t="n">
+        <v>8.416730009617494</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>86.79647141543425</v>
+      </c>
+      <c r="G178" t="n">
+        <v>141.612474205964</v>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+      <c r="I178" t="n">
+        <v>4.063251539745773</v>
+      </c>
+      <c r="J178" t="n">
+        <v>53.30388251712117</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>95.40296566181955</v>
+      </c>
+      <c r="N178" t="n">
+        <v>0</v>
+      </c>
+      <c r="O178" t="n">
+        <v>65.56215382866557</v>
+      </c>
+      <c r="P178" t="n">
+        <v>325.9453469464623</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
+      <c r="R178" t="n">
+        <v>18.85391321053249</v>
+      </c>
+      <c r="S178" t="n">
+        <v>60.86691750293988</v>
+      </c>
+      <c r="T178" t="n">
+        <v>1</v>
+      </c>
+      <c r="U178" t="n">
+        <v>0.9300052088590606</v>
+      </c>
+      <c r="V178" t="n">
+        <v>2.067468097838383</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1</v>
+      </c>
+      <c r="X178" t="n">
+        <v>63.2494427042288</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>75.2995563657054</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:59:18</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C179" t="n">
+        <v>9.797741592532079</v>
+      </c>
+      <c r="D179" t="n">
+        <v>11.04814781399234</v>
+      </c>
+      <c r="E179" t="n">
+        <v>0</v>
+      </c>
+      <c r="F179" t="n">
+        <v>148.0970717847144</v>
+      </c>
+      <c r="G179" t="n">
+        <v>168.9707154357944</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="n">
+        <v>87.20288647866406</v>
+      </c>
+      <c r="J179" t="n">
+        <v>118.3180318958945</v>
+      </c>
+      <c r="K179" t="n">
+        <v>1</v>
+      </c>
+      <c r="L179" t="n">
+        <v>18.72397713238879</v>
+      </c>
+      <c r="M179" t="n">
+        <v>90.51882820722005</v>
+      </c>
+      <c r="N179" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" t="n">
+        <v>382.8245921638445</v>
+      </c>
+      <c r="P179" t="n">
+        <v>726.8125628230738</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
+      <c r="R179" t="n">
+        <v>24.97581836280075</v>
+      </c>
+      <c r="S179" t="n">
+        <v>56.93646256539183</v>
+      </c>
+      <c r="T179" t="n">
+        <v>0</v>
+      </c>
+      <c r="U179" t="n">
+        <v>0.3608464881923411</v>
+      </c>
+      <c r="V179" t="n">
+        <v>0.7432767923628879</v>
+      </c>
+      <c r="W179" t="n">
+        <v>0</v>
+      </c>
+      <c r="X179" t="n">
+        <v>21.41826090018002</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>24.07886615241665</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:59:30</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+      <c r="C180" t="n">
+        <v>7.440513096183942</v>
+      </c>
+      <c r="D180" t="n">
+        <v>14.27283876925844</v>
+      </c>
+      <c r="E180" t="n">
+        <v>0</v>
+      </c>
+      <c r="F180" t="n">
+        <v>36.45497835188686</v>
+      </c>
+      <c r="G180" t="n">
+        <v>174.8799793557695</v>
+      </c>
+      <c r="H180" t="n">
+        <v>1</v>
+      </c>
+      <c r="I180" t="n">
+        <v>41.36612164337603</v>
+      </c>
+      <c r="J180" t="n">
+        <v>80.82796302429477</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0</v>
+      </c>
+      <c r="M180" t="n">
+        <v>97.40573388157769</v>
+      </c>
+      <c r="N180" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" t="n">
+        <v>202.3530633129929</v>
+      </c>
+      <c r="P180" t="n">
+        <v>762.9695375363765</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>0</v>
+      </c>
+      <c r="R180" t="n">
+        <v>33.04027509366563</v>
+      </c>
+      <c r="S180" t="n">
+        <v>35.88387391050123</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1</v>
+      </c>
+      <c r="U180" t="n">
+        <v>0.5305047329996614</v>
+      </c>
+      <c r="V180" t="n">
+        <v>1.742543355921326</v>
+      </c>
+      <c r="W180" t="n">
+        <v>0</v>
+      </c>
+      <c r="X180" t="n">
+        <v>36.01485919888565</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>69.56358332232887</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>0.1503759398496241</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:59:41</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4.543321599720451</v>
+      </c>
+      <c r="D181" t="n">
+        <v>15.11140836349202</v>
+      </c>
+      <c r="E181" t="n">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>84.69204708484703</v>
+      </c>
+      <c r="G181" t="n">
+        <v>84.98327495957054</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="n">
+        <v>114.6946414303167</v>
+      </c>
+      <c r="J181" t="n">
+        <v>121.4293596602307</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1</v>
+      </c>
+      <c r="L181" t="n">
+        <v>22.26648125067216</v>
+      </c>
+      <c r="M181" t="n">
+        <v>77.00123936884106</v>
+      </c>
+      <c r="N181" t="n">
+        <v>1</v>
+      </c>
+      <c r="O181" t="n">
+        <v>103.2065222746188</v>
+      </c>
+      <c r="P181" t="n">
+        <v>801.0664969190973</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>11.54590369676039</v>
+      </c>
+      <c r="S181" t="n">
+        <v>31.10759913493682</v>
+      </c>
+      <c r="T181" t="n">
+        <v>0</v>
+      </c>
+      <c r="U181" t="n">
+        <v>0.2374890488198425</v>
+      </c>
+      <c r="V181" t="n">
+        <v>1.818142068989899</v>
+      </c>
+      <c r="W181" t="n">
+        <v>0</v>
+      </c>
+      <c r="X181" t="n">
+        <v>35.62653409762935</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>65.69287648572177</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>2023-03-04 20:59:51</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+      <c r="C182" t="n">
+        <v>8.631661303624268</v>
+      </c>
+      <c r="D182" t="n">
+        <v>10.54443534927901</v>
+      </c>
+      <c r="E182" t="n">
+        <v>0</v>
+      </c>
+      <c r="F182" t="n">
+        <v>131.6706787657369</v>
+      </c>
+      <c r="G182" t="n">
+        <v>134.867580527651</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="n">
+        <v>85.61076781001378</v>
+      </c>
+      <c r="J182" t="n">
+        <v>115.2211934360312</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>25.49053144976607</v>
+      </c>
+      <c r="M182" t="n">
+        <v>89.04744589159874</v>
+      </c>
+      <c r="N182" t="n">
+        <v>0</v>
+      </c>
+      <c r="O182" t="n">
+        <v>513.7923852640135</v>
+      </c>
+      <c r="P182" t="n">
+        <v>798.9012068873689</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
+      <c r="R182" t="n">
+        <v>45.32257546018607</v>
+      </c>
+      <c r="S182" t="n">
+        <v>58.58725496048819</v>
+      </c>
+      <c r="T182" t="n">
+        <v>1</v>
+      </c>
+      <c r="U182" t="n">
+        <v>1.759672284645119</v>
+      </c>
+      <c r="V182" t="n">
+        <v>1.999248039244634</v>
+      </c>
+      <c r="W182" t="n">
+        <v>0</v>
+      </c>
+      <c r="X182" t="n">
+        <v>23.3375977912125</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>64.48804348833696</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:00:01</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>0</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.1276882100912974</v>
+      </c>
+      <c r="D183" t="n">
+        <v>0.5301094155170255</v>
+      </c>
+      <c r="E183" t="n">
+        <v>0</v>
+      </c>
+      <c r="F183" t="n">
+        <v>73.43893095298326</v>
+      </c>
+      <c r="G183" t="n">
+        <v>153.8867631642314</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="n">
+        <v>59.71060619514284</v>
+      </c>
+      <c r="J183" t="n">
+        <v>116.2192326421156</v>
+      </c>
+      <c r="K183" t="n">
+        <v>1</v>
+      </c>
+      <c r="L183" t="n">
+        <v>6.721610504296768</v>
+      </c>
+      <c r="M183" t="n">
+        <v>68.64306695335264</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="n">
+        <v>276.6409221491926</v>
+      </c>
+      <c r="P183" t="n">
+        <v>412.9519810020673</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
+      <c r="R183" t="n">
+        <v>19.71231357154441</v>
+      </c>
+      <c r="S183" t="n">
+        <v>64.87124513588074</v>
+      </c>
+      <c r="T183" t="n">
+        <v>0</v>
+      </c>
+      <c r="U183" t="n">
+        <v>1.504901168659871</v>
+      </c>
+      <c r="V183" t="n">
+        <v>1.830637075913795</v>
+      </c>
+      <c r="W183" t="n">
+        <v>0</v>
+      </c>
+      <c r="X183" t="n">
+        <v>42.74741803761074</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>43.90577907621388</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>0.2300884955752212</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:00:11</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+      <c r="C184" t="n">
+        <v>6.31698490682448</v>
+      </c>
+      <c r="D184" t="n">
+        <v>13.19936605838714</v>
+      </c>
+      <c r="E184" t="n">
+        <v>0</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2.830586358580169</v>
+      </c>
+      <c r="G184" t="n">
+        <v>152.1653968912929</v>
+      </c>
+      <c r="H184" t="n">
+        <v>1</v>
+      </c>
+      <c r="I184" t="n">
+        <v>65.1587753068045</v>
+      </c>
+      <c r="J184" t="n">
+        <v>97.23398258798179</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1</v>
+      </c>
+      <c r="L184" t="n">
+        <v>68.18159533157176</v>
+      </c>
+      <c r="M184" t="n">
+        <v>70.3814965562146</v>
+      </c>
+      <c r="N184" t="n">
+        <v>0</v>
+      </c>
+      <c r="O184" t="n">
+        <v>406.7703365894381</v>
+      </c>
+      <c r="P184" t="n">
+        <v>724.1932053650937</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
+      <c r="R184" t="n">
+        <v>8.984983853107252</v>
+      </c>
+      <c r="S184" t="n">
+        <v>60.09921416031716</v>
+      </c>
+      <c r="T184" t="n">
+        <v>1</v>
+      </c>
+      <c r="U184" t="n">
+        <v>0.8026647560126671</v>
+      </c>
+      <c r="V184" t="n">
+        <v>1.424488245843171</v>
+      </c>
+      <c r="W184" t="n">
+        <v>0</v>
+      </c>
+      <c r="X184" t="n">
+        <v>67.12576446327353</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>72.14960601370566</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:00:21</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>9.484716996815868</v>
+      </c>
+      <c r="D185" t="n">
+        <v>9.833880510203386</v>
+      </c>
+      <c r="E185" t="n">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>55.04015347868449</v>
+      </c>
+      <c r="G185" t="n">
+        <v>132.558829996656</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="n">
+        <v>25.28496935289519</v>
+      </c>
+      <c r="J185" t="n">
+        <v>51.67011778326923</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1</v>
+      </c>
+      <c r="L185" t="n">
+        <v>58.7484606534058</v>
+      </c>
+      <c r="M185" t="n">
+        <v>61.68140818603023</v>
+      </c>
+      <c r="N185" t="n">
+        <v>0</v>
+      </c>
+      <c r="O185" t="n">
+        <v>208.7871450366759</v>
+      </c>
+      <c r="P185" t="n">
+        <v>478.3978547326266</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
+      <c r="R185" t="n">
+        <v>13.15232820241196</v>
+      </c>
+      <c r="S185" t="n">
+        <v>41.19464832018112</v>
+      </c>
+      <c r="T185" t="n">
+        <v>0</v>
+      </c>
+      <c r="U185" t="n">
+        <v>1.067831871921365</v>
+      </c>
+      <c r="V185" t="n">
+        <v>2.06265290637407</v>
+      </c>
+      <c r="W185" t="n">
+        <v>0</v>
+      </c>
+      <c r="X185" t="n">
+        <v>27.47572791807136</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>80.8810237063193</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:00:31</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>3.030657137395303</v>
+      </c>
+      <c r="D186" t="n">
+        <v>12.96644954431011</v>
+      </c>
+      <c r="E186" t="n">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>128.718167230628</v>
+      </c>
+      <c r="G186" t="n">
+        <v>158.9882375927698</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="n">
+        <v>5.470393092130657</v>
+      </c>
+      <c r="J186" t="n">
+        <v>62.44541351972001</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
+        <v>18.73922176814349</v>
+      </c>
+      <c r="M186" t="n">
+        <v>34.88063963039971</v>
+      </c>
+      <c r="N186" t="n">
+        <v>1</v>
+      </c>
+      <c r="O186" t="n">
+        <v>463.0482169409551</v>
+      </c>
+      <c r="P186" t="n">
+        <v>757.0842345040014</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>1</v>
+      </c>
+      <c r="R186" t="n">
+        <v>3.417650134361204</v>
+      </c>
+      <c r="S186" t="n">
+        <v>41.80712760958939</v>
+      </c>
+      <c r="T186" t="n">
+        <v>1</v>
+      </c>
+      <c r="U186" t="n">
+        <v>0.2443577648603413</v>
+      </c>
+      <c r="V186" t="n">
+        <v>1.969898640919862</v>
+      </c>
+      <c r="W186" t="n">
+        <v>0</v>
+      </c>
+      <c r="X186" t="n">
+        <v>58.33583682266971</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>70.28271994032164</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:00:41</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>5.816913912456775</v>
+      </c>
+      <c r="D187" t="n">
+        <v>16.52301524086293</v>
+      </c>
+      <c r="E187" t="n">
+        <v>0</v>
+      </c>
+      <c r="F187" t="n">
+        <v>10.80470067184334</v>
+      </c>
+      <c r="G187" t="n">
+        <v>144.949903122364</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="n">
+        <v>6.253698141947208</v>
+      </c>
+      <c r="J187" t="n">
+        <v>46.62651729363947</v>
+      </c>
+      <c r="K187" t="n">
+        <v>1</v>
+      </c>
+      <c r="L187" t="n">
+        <v>18.29097360934281</v>
+      </c>
+      <c r="M187" t="n">
+        <v>77.68333988625999</v>
+      </c>
+      <c r="N187" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" t="n">
+        <v>98.66111069129482</v>
+      </c>
+      <c r="P187" t="n">
+        <v>484.3465178935825</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
+      <c r="R187" t="n">
+        <v>12.61001177337287</v>
+      </c>
+      <c r="S187" t="n">
+        <v>21.81928031557877</v>
+      </c>
+      <c r="T187" t="n">
+        <v>0</v>
+      </c>
+      <c r="U187" t="n">
+        <v>0.4390681791853323</v>
+      </c>
+      <c r="V187" t="n">
+        <v>2.178894276483145</v>
+      </c>
+      <c r="W187" t="n">
+        <v>0</v>
+      </c>
+      <c r="X187" t="n">
+        <v>28.08093024061447</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>61.75277323255767</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:00:51</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>7.134430894638468</v>
+      </c>
+      <c r="D188" t="n">
+        <v>16.23429685041231</v>
+      </c>
+      <c r="E188" t="n">
+        <v>0</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.50920678566264</v>
+      </c>
+      <c r="G188" t="n">
+        <v>194.2842121209418</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="n">
+        <v>32.9737233950359</v>
+      </c>
+      <c r="J188" t="n">
+        <v>63.5263743604111</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
+        <v>58.7251420686232</v>
+      </c>
+      <c r="M188" t="n">
+        <v>82.56922602465509</v>
+      </c>
+      <c r="N188" t="n">
+        <v>1</v>
+      </c>
+      <c r="O188" t="n">
+        <v>449.6477826110446</v>
+      </c>
+      <c r="P188" t="n">
+        <v>577.6710537569602</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>1</v>
+      </c>
+      <c r="R188" t="n">
+        <v>6.24546843152671</v>
+      </c>
+      <c r="S188" t="n">
+        <v>26.72783554143968</v>
+      </c>
+      <c r="T188" t="n">
+        <v>0</v>
+      </c>
+      <c r="U188" t="n">
+        <v>1.073461862375593</v>
+      </c>
+      <c r="V188" t="n">
+        <v>1.995995112543887</v>
+      </c>
+      <c r="W188" t="n">
+        <v>0</v>
+      </c>
+      <c r="X188" t="n">
+        <v>22.89444514183248</v>
+      </c>
+      <c r="Y188" t="n">
+        <v>26.47493819352972</v>
+      </c>
+      <c r="Z188" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:01:00</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+      <c r="C189" t="n">
+        <v>3.382606118280548</v>
+      </c>
+      <c r="D189" t="n">
+        <v>15.29456146930023</v>
+      </c>
+      <c r="E189" t="n">
+        <v>0</v>
+      </c>
+      <c r="F189" t="n">
+        <v>14.54926643581654</v>
+      </c>
+      <c r="G189" t="n">
+        <v>98.40723562931495</v>
+      </c>
+      <c r="H189" t="n">
+        <v>1</v>
+      </c>
+      <c r="I189" t="n">
+        <v>70.35927558125458</v>
+      </c>
+      <c r="J189" t="n">
+        <v>119.3204029062381</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
+        <v>16.88276798800296</v>
+      </c>
+      <c r="M189" t="n">
+        <v>58.87269927570041</v>
+      </c>
+      <c r="N189" t="n">
+        <v>1</v>
+      </c>
+      <c r="O189" t="n">
+        <v>245.123890022499</v>
+      </c>
+      <c r="P189" t="n">
+        <v>762.3926651252508</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>1</v>
+      </c>
+      <c r="R189" t="n">
+        <v>56.61557517674409</v>
+      </c>
+      <c r="S189" t="n">
+        <v>59.34173401082285</v>
+      </c>
+      <c r="T189" t="n">
+        <v>0</v>
+      </c>
+      <c r="U189" t="n">
+        <v>1.208253271404512</v>
+      </c>
+      <c r="V189" t="n">
+        <v>2.229721725534252</v>
+      </c>
+      <c r="W189" t="n">
+        <v>1</v>
+      </c>
+      <c r="X189" t="n">
+        <v>36.44732895400615</v>
+      </c>
+      <c r="Y189" t="n">
+        <v>47.8019803126302</v>
+      </c>
+      <c r="Z189" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:01:10</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>15.24090426081987</v>
+      </c>
+      <c r="D190" t="n">
+        <v>15.90730766527494</v>
+      </c>
+      <c r="E190" t="n">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>41.86403416842032</v>
+      </c>
+      <c r="G190" t="n">
+        <v>94.46260088503362</v>
+      </c>
+      <c r="H190" t="n">
+        <v>1</v>
+      </c>
+      <c r="I190" t="n">
+        <v>14.45794189214801</v>
+      </c>
+      <c r="J190" t="n">
+        <v>43.01303837174322</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>64.58830420545684</v>
+      </c>
+      <c r="M190" t="n">
+        <v>95.63889471519617</v>
+      </c>
+      <c r="N190" t="n">
+        <v>1</v>
+      </c>
+      <c r="O190" t="n">
+        <v>222.1083557586581</v>
+      </c>
+      <c r="P190" t="n">
+        <v>530.6154631153127</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
+      <c r="R190" t="n">
+        <v>35.5980546558546</v>
+      </c>
+      <c r="S190" t="n">
+        <v>50.66011988567887</v>
+      </c>
+      <c r="T190" t="n">
+        <v>0</v>
+      </c>
+      <c r="U190" t="n">
+        <v>1.489394236863485</v>
+      </c>
+      <c r="V190" t="n">
+        <v>1.984611884105517</v>
+      </c>
+      <c r="W190" t="n">
+        <v>0</v>
+      </c>
+      <c r="X190" t="n">
+        <v>43.88914827215696</v>
+      </c>
+      <c r="Y190" t="n">
+        <v>63.29882488325775</v>
+      </c>
+      <c r="Z190" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:01:20</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>7.387514337783311</v>
+      </c>
+      <c r="D191" t="n">
+        <v>10.15426245264408</v>
+      </c>
+      <c r="E191" t="n">
+        <v>0</v>
+      </c>
+      <c r="F191" t="n">
+        <v>49.35650026867062</v>
+      </c>
+      <c r="G191" t="n">
+        <v>193.2707862357173</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="n">
+        <v>24.87456525934102</v>
+      </c>
+      <c r="J191" t="n">
+        <v>37.65799926849779</v>
+      </c>
+      <c r="K191" t="n">
+        <v>1</v>
+      </c>
+      <c r="L191" t="n">
+        <v>51.99568063410137</v>
+      </c>
+      <c r="M191" t="n">
+        <v>60.99716007742688</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0</v>
+      </c>
+      <c r="O191" t="n">
+        <v>94.32165180752142</v>
+      </c>
+      <c r="P191" t="n">
+        <v>343.6379632330774</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>1</v>
+      </c>
+      <c r="R191" t="n">
+        <v>16.5754799381251</v>
+      </c>
+      <c r="S191" t="n">
+        <v>36.38018054473599</v>
+      </c>
+      <c r="T191" t="n">
+        <v>1</v>
+      </c>
+      <c r="U191" t="n">
+        <v>1.05099172400178</v>
+      </c>
+      <c r="V191" t="n">
+        <v>1.802538166378397</v>
+      </c>
+      <c r="W191" t="n">
+        <v>0</v>
+      </c>
+      <c r="X191" t="n">
+        <v>28.46037279915905</v>
+      </c>
+      <c r="Y191" t="n">
+        <v>63.63170996652429</v>
+      </c>
+      <c r="Z191" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:01:30</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+      <c r="C192" t="n">
+        <v>3.857786975175332</v>
+      </c>
+      <c r="D192" t="n">
+        <v>6.0758805120975</v>
+      </c>
+      <c r="E192" t="n">
+        <v>0</v>
+      </c>
+      <c r="F192" t="n">
+        <v>79.12043016674203</v>
+      </c>
+      <c r="G192" t="n">
+        <v>90.50697549637253</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="n">
+        <v>109.8087552570755</v>
+      </c>
+      <c r="J192" t="n">
+        <v>111.4993899372161</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1</v>
+      </c>
+      <c r="L192" t="n">
+        <v>18.29779126312763</v>
+      </c>
+      <c r="M192" t="n">
+        <v>58.50615712078558</v>
+      </c>
+      <c r="N192" t="n">
+        <v>1</v>
+      </c>
+      <c r="O192" t="n">
+        <v>639.1401887281187</v>
+      </c>
+      <c r="P192" t="n">
+        <v>687.3139966790993</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>1</v>
+      </c>
+      <c r="R192" t="n">
+        <v>31.97386577011606</v>
+      </c>
+      <c r="S192" t="n">
+        <v>46.39967124241387</v>
+      </c>
+      <c r="T192" t="n">
+        <v>1</v>
+      </c>
+      <c r="U192" t="n">
+        <v>1.133342416258325</v>
+      </c>
+      <c r="V192" t="n">
+        <v>1.428276491466606</v>
+      </c>
+      <c r="W192" t="n">
+        <v>0</v>
+      </c>
+      <c r="X192" t="n">
+        <v>66.42660394651389</v>
+      </c>
+      <c r="Y192" t="n">
+        <v>76.79794228273155</v>
+      </c>
+      <c r="Z192" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:01:40</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+      <c r="C193" t="n">
+        <v>5.075245384204641</v>
+      </c>
+      <c r="D193" t="n">
+        <v>8.360243879703344</v>
+      </c>
+      <c r="E193" t="n">
+        <v>0</v>
+      </c>
+      <c r="F193" t="n">
+        <v>15.6402961015097</v>
+      </c>
+      <c r="G193" t="n">
+        <v>151.5564819589748</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="n">
+        <v>12.6446511546118</v>
+      </c>
+      <c r="J193" t="n">
+        <v>46.71969129012305</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1</v>
+      </c>
+      <c r="L193" t="n">
+        <v>70.98157233807936</v>
+      </c>
+      <c r="M193" t="n">
+        <v>72.40493360979337</v>
+      </c>
+      <c r="N193" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" t="n">
+        <v>301.3339292967224</v>
+      </c>
+      <c r="P193" t="n">
+        <v>808.9311420066759</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
+      <c r="R193" t="n">
+        <v>13.68110515120177</v>
+      </c>
+      <c r="S193" t="n">
+        <v>27.87153077451937</v>
+      </c>
+      <c r="T193" t="n">
+        <v>1</v>
+      </c>
+      <c r="U193" t="n">
+        <v>0.180722806852826</v>
+      </c>
+      <c r="V193" t="n">
+        <v>0.4816515810505246</v>
+      </c>
+      <c r="W193" t="n">
+        <v>1</v>
+      </c>
+      <c r="X193" t="n">
+        <v>24.42385340781718</v>
+      </c>
+      <c r="Y193" t="n">
+        <v>38.75229982526548</v>
+      </c>
+      <c r="Z193" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:01:49</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>0</v>
+      </c>
+      <c r="C194" t="n">
+        <v>11.74731945029046</v>
+      </c>
+      <c r="D194" t="n">
+        <v>11.8755722950188</v>
+      </c>
+      <c r="E194" t="n">
+        <v>0</v>
+      </c>
+      <c r="F194" t="n">
+        <v>24.691470656798</v>
+      </c>
+      <c r="G194" t="n">
+        <v>59.66941547998019</v>
+      </c>
+      <c r="H194" t="n">
+        <v>1</v>
+      </c>
+      <c r="I194" t="n">
+        <v>49.63139068462004</v>
+      </c>
+      <c r="J194" t="n">
+        <v>93.4768900812053</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>14.34413520811458</v>
+      </c>
+      <c r="M194" t="n">
+        <v>38.99019255605972</v>
+      </c>
+      <c r="N194" t="n">
+        <v>1</v>
+      </c>
+      <c r="O194" t="n">
+        <v>408.5408484435967</v>
+      </c>
+      <c r="P194" t="n">
+        <v>698.6467913876139</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
+      <c r="R194" t="n">
+        <v>17.0924445213811</v>
+      </c>
+      <c r="S194" t="n">
+        <v>35.10818567339358</v>
+      </c>
+      <c r="T194" t="n">
+        <v>0</v>
+      </c>
+      <c r="U194" t="n">
+        <v>0.2833525742498537</v>
+      </c>
+      <c r="V194" t="n">
+        <v>1.158320146344868</v>
+      </c>
+      <c r="W194" t="n">
+        <v>0</v>
+      </c>
+      <c r="X194" t="n">
+        <v>52.62177752674435</v>
+      </c>
+      <c r="Y194" t="n">
+        <v>76.81741484819936</v>
+      </c>
+      <c r="Z194" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA194" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:01:59</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+      <c r="C195" t="n">
+        <v>2.758658822526165</v>
+      </c>
+      <c r="D195" t="n">
+        <v>4.700418751208947</v>
+      </c>
+      <c r="E195" t="n">
+        <v>0</v>
+      </c>
+      <c r="F195" t="n">
+        <v>51.33397690741959</v>
+      </c>
+      <c r="G195" t="n">
+        <v>184.3723638426033</v>
+      </c>
+      <c r="H195" t="n">
+        <v>1</v>
+      </c>
+      <c r="I195" t="n">
+        <v>70.56928667660293</v>
+      </c>
+      <c r="J195" t="n">
+        <v>109.2684649695151</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1</v>
+      </c>
+      <c r="L195" t="n">
+        <v>71.3833175698837</v>
+      </c>
+      <c r="M195" t="n">
+        <v>71.68093419159671</v>
+      </c>
+      <c r="N195" t="n">
+        <v>1</v>
+      </c>
+      <c r="O195" t="n">
+        <v>198.9722184978576</v>
+      </c>
+      <c r="P195" t="n">
+        <v>583.9561818172029</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>1</v>
+      </c>
+      <c r="R195" t="n">
+        <v>26.0938876683974</v>
+      </c>
+      <c r="S195" t="n">
+        <v>63.8455930212922</v>
+      </c>
+      <c r="T195" t="n">
+        <v>0</v>
+      </c>
+      <c r="U195" t="n">
+        <v>0.6953318068769972</v>
+      </c>
+      <c r="V195" t="n">
+        <v>1.264588342789644</v>
+      </c>
+      <c r="W195" t="n">
+        <v>0</v>
+      </c>
+      <c r="X195" t="n">
+        <v>35.74488333319075</v>
+      </c>
+      <c r="Y195" t="n">
+        <v>79.13033048155614</v>
+      </c>
+      <c r="Z195" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:02:09</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>1</v>
+      </c>
+      <c r="C196" t="n">
+        <v>11.84120987418641</v>
+      </c>
+      <c r="D196" t="n">
+        <v>15.93873793456645</v>
+      </c>
+      <c r="E196" t="n">
+        <v>0</v>
+      </c>
+      <c r="F196" t="n">
+        <v>71.22814259261747</v>
+      </c>
+      <c r="G196" t="n">
+        <v>169.7466151538478</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="n">
+        <v>5.32273587880634</v>
+      </c>
+      <c r="J196" t="n">
+        <v>28.94652390973467</v>
+      </c>
+      <c r="K196" t="n">
+        <v>0</v>
+      </c>
+      <c r="L196" t="n">
+        <v>69.80504944549261</v>
+      </c>
+      <c r="M196" t="n">
+        <v>72.20225460375248</v>
+      </c>
+      <c r="N196" t="n">
+        <v>1</v>
+      </c>
+      <c r="O196" t="n">
+        <v>133.1255523109698</v>
+      </c>
+      <c r="P196" t="n">
+        <v>269.3061197300373</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>1</v>
+      </c>
+      <c r="R196" t="n">
+        <v>7.252010095034797</v>
+      </c>
+      <c r="S196" t="n">
+        <v>32.10098085072456</v>
+      </c>
+      <c r="T196" t="n">
+        <v>0</v>
+      </c>
+      <c r="U196" t="n">
+        <v>0.8774420493176414</v>
+      </c>
+      <c r="V196" t="n">
+        <v>2.282182944569489</v>
+      </c>
+      <c r="W196" t="n">
+        <v>0</v>
+      </c>
+      <c r="X196" t="n">
+        <v>42.25238231220193</v>
+      </c>
+      <c r="Y196" t="n">
+        <v>61.54644910793415</v>
+      </c>
+      <c r="Z196" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:06:55</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0</v>
+      </c>
+      <c r="D197" t="n">
+        <v>12.44682008581611</v>
+      </c>
+      <c r="E197" t="n">
+        <v>0</v>
+      </c>
+      <c r="F197" t="n">
+        <v>28.49137829811406</v>
+      </c>
+      <c r="G197" t="n">
+        <v>53.64869581113874</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="n">
+        <v>25.90932112121163</v>
+      </c>
+      <c r="J197" t="n">
+        <v>53.10586650556781</v>
+      </c>
+      <c r="K197" t="n">
+        <v>1</v>
+      </c>
+      <c r="L197" t="n">
+        <v>17.24028423655705</v>
+      </c>
+      <c r="M197" t="n">
+        <v>90.78255816791022</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0</v>
+      </c>
+      <c r="O197" t="n">
+        <v>0</v>
+      </c>
+      <c r="P197" t="n">
+        <v>569.6728774271264</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
+      <c r="R197" t="n">
+        <v>19.64069938311763</v>
+      </c>
+      <c r="S197" t="n">
+        <v>35.2139716842368</v>
+      </c>
+      <c r="T197" t="n">
+        <v>0</v>
+      </c>
+      <c r="U197" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V197" t="n">
+        <v>1.028130418382562</v>
+      </c>
+      <c r="W197" t="n">
+        <v>0</v>
+      </c>
+      <c r="X197" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y197" t="n">
+        <v>58.93362649359829</v>
+      </c>
+      <c r="Z197" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA197" t="n">
+        <v>0.5914285714285714</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:07:06</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.17960468509852</v>
+      </c>
+      <c r="D198" t="n">
+        <v>17</v>
+      </c>
+      <c r="E198" t="n">
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>3.710372420044876</v>
+      </c>
+      <c r="G198" t="n">
+        <v>149.3863485641736</v>
+      </c>
+      <c r="H198" t="n">
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>34.78397356339056</v>
+      </c>
+      <c r="J198" t="n">
+        <v>122</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
+        <v>77.21681716301411</v>
+      </c>
+      <c r="M198" t="n">
+        <v>82.27216228673142</v>
+      </c>
+      <c r="N198" t="n">
+        <v>0</v>
+      </c>
+      <c r="O198" t="n">
+        <v>143.8335776906145</v>
+      </c>
+      <c r="P198" t="n">
+        <v>435.2423445225407</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
+      <c r="R198" t="n">
+        <v>13.49659417854682</v>
+      </c>
+      <c r="S198" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T198" t="n">
+        <v>0</v>
+      </c>
+      <c r="U198" t="n">
+        <v>0.1853716251190214</v>
+      </c>
+      <c r="V198" t="n">
+        <v>1.200367280731724</v>
+      </c>
+      <c r="W198" t="n">
+        <v>0</v>
+      </c>
+      <c r="X198" t="n">
+        <v>54.29391585420538</v>
+      </c>
+      <c r="Y198" t="n">
+        <v>75.55789672195476</v>
+      </c>
+      <c r="Z198" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA198" t="n">
+        <v>0.7972027972027972</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:07:14</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+      <c r="C199" t="n">
+        <v>13.29930819117934</v>
+      </c>
+      <c r="D199" t="n">
+        <v>17</v>
+      </c>
+      <c r="E199" t="n">
+        <v>0</v>
+      </c>
+      <c r="F199" t="n">
+        <v>122.0286551448652</v>
+      </c>
+      <c r="G199" t="n">
+        <v>199</v>
+      </c>
+      <c r="H199" t="n">
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>4.408217368121998</v>
+      </c>
+      <c r="J199" t="n">
+        <v>118.6747514306033</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>27.4062964859682</v>
+      </c>
+      <c r="M199" t="n">
+        <v>56.79558293614128</v>
+      </c>
+      <c r="N199" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" t="n">
+        <v>152.3665628105393</v>
+      </c>
+      <c r="P199" t="n">
+        <v>846</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
+      <c r="R199" t="n">
+        <v>24.34688695160623</v>
+      </c>
+      <c r="S199" t="n">
+        <v>38.4574115263063</v>
+      </c>
+      <c r="T199" t="n">
+        <v>0</v>
+      </c>
+      <c r="U199" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V199" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="W199" t="n">
+        <v>0</v>
+      </c>
+      <c r="X199" t="n">
+        <v>31.20956077098161</v>
+      </c>
+      <c r="Y199" t="n">
+        <v>38.59508790277935</v>
+      </c>
+      <c r="Z199" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA199" t="n">
+        <v>0.946524064171123</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:13:34</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>1</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0</v>
+      </c>
+      <c r="D200" t="n">
+        <v>17</v>
+      </c>
+      <c r="E200" t="n">
+        <v>1</v>
+      </c>
+      <c r="F200" t="n">
+        <v>11.20444273638034</v>
+      </c>
+      <c r="G200" t="n">
+        <v>166.6522643372627</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="n">
+        <v>24.61807631369374</v>
+      </c>
+      <c r="J200" t="n">
+        <v>92.22911593189059</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
+        <v>29.64090617088865</v>
+      </c>
+      <c r="M200" t="n">
+        <v>30.65498398807062</v>
+      </c>
+      <c r="N200" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" t="n">
+        <v>36.6034573040288</v>
+      </c>
+      <c r="P200" t="n">
+        <v>360.2950087265488</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
+      <c r="R200" t="n">
+        <v>39.91067159852062</v>
+      </c>
+      <c r="S200" t="n">
+        <v>53.45913330866607</v>
+      </c>
+      <c r="T200" t="n">
+        <v>0</v>
+      </c>
+      <c r="U200" t="n">
+        <v>0.9248667557812916</v>
+      </c>
+      <c r="V200" t="n">
+        <v>1.239135126369156</v>
+      </c>
+      <c r="W200" t="n">
+        <v>0</v>
+      </c>
+      <c r="X200" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y200" t="n">
+        <v>38.91277732889595</v>
+      </c>
+      <c r="Z200" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA200" t="n">
+        <v>0.9685714285714285</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:13:40</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+      <c r="C201" t="n">
+        <v>5.731226851716682</v>
+      </c>
+      <c r="D201" t="n">
+        <v>13.27496091549779</v>
+      </c>
+      <c r="E201" t="n">
+        <v>1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>4.927854658036793</v>
+      </c>
+      <c r="G201" t="n">
+        <v>188.6184425991765</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="n">
+        <v>72.28730800659812</v>
+      </c>
+      <c r="J201" t="n">
+        <v>111.7327438168909</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>13.33445935634523</v>
+      </c>
+      <c r="M201" t="n">
+        <v>26.35422171143638</v>
+      </c>
+      <c r="N201" t="n">
+        <v>0</v>
+      </c>
+      <c r="O201" t="n">
+        <v>430.242357120239</v>
+      </c>
+      <c r="P201" t="n">
+        <v>724.1827213589563</v>
+      </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
+      <c r="R201" t="n">
+        <v>0</v>
+      </c>
+      <c r="S201" t="n">
+        <v>18.85598674914418</v>
+      </c>
+      <c r="T201" t="n">
+        <v>0</v>
+      </c>
+      <c r="U201" t="n">
+        <v>1.837207793315101</v>
+      </c>
+      <c r="V201" t="n">
+        <v>2.106865708725899</v>
+      </c>
+      <c r="W201" t="n">
+        <v>0</v>
+      </c>
+      <c r="X201" t="n">
+        <v>59.37485908744484</v>
+      </c>
+      <c r="Y201" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z201" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA201" t="n">
+        <v>0.9411764705882353</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Working code/Logs/fitness1_rule_log.xlsx
+++ b/Working code/Logs/fitness1_rule_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA201"/>
+  <dimension ref="A1:AA221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17558,6 +17558,1706 @@
         <v>0.9411764705882353</v>
       </c>
     </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:17:57</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>0</v>
+      </c>
+      <c r="C202" t="n">
+        <v>5.678438895966898</v>
+      </c>
+      <c r="D202" t="n">
+        <v>8.864518931181006</v>
+      </c>
+      <c r="E202" t="n">
+        <v>0</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0</v>
+      </c>
+      <c r="G202" t="n">
+        <v>19.52967958671597</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="n">
+        <v>0</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>1</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.1385924120513035</v>
+      </c>
+      <c r="M202" t="n">
+        <v>87.40112315011579</v>
+      </c>
+      <c r="N202" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" t="n">
+        <v>0</v>
+      </c>
+      <c r="P202" t="n">
+        <v>554.7100464626254</v>
+      </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
+      <c r="R202" t="n">
+        <v>1.442053696803206</v>
+      </c>
+      <c r="S202" t="n">
+        <v>62.8236571079302</v>
+      </c>
+      <c r="T202" t="n">
+        <v>0</v>
+      </c>
+      <c r="U202" t="n">
+        <v>0.4741449980017883</v>
+      </c>
+      <c r="V202" t="n">
+        <v>2.05704319296225</v>
+      </c>
+      <c r="W202" t="n">
+        <v>0</v>
+      </c>
+      <c r="X202" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y202" t="n">
+        <v>80.39039142794246</v>
+      </c>
+      <c r="Z202" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA202" t="n">
+        <v>0.7171428571428572</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:18:07</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.989478040435021</v>
+      </c>
+      <c r="D203" t="n">
+        <v>8.092081499494029</v>
+      </c>
+      <c r="E203" t="n">
+        <v>0</v>
+      </c>
+      <c r="F203" t="n">
+        <v>50.10508727058214</v>
+      </c>
+      <c r="G203" t="n">
+        <v>60.35794615564797</v>
+      </c>
+      <c r="H203" t="n">
+        <v>0</v>
+      </c>
+      <c r="I203" t="n">
+        <v>47.57550729678633</v>
+      </c>
+      <c r="J203" t="n">
+        <v>68.76578602476121</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0</v>
+      </c>
+      <c r="M203" t="n">
+        <v>16.46440059424393</v>
+      </c>
+      <c r="N203" t="n">
+        <v>0</v>
+      </c>
+      <c r="O203" t="n">
+        <v>321.8446660241672</v>
+      </c>
+      <c r="P203" t="n">
+        <v>772.9235846827725</v>
+      </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
+      <c r="R203" t="n">
+        <v>25.15412360395915</v>
+      </c>
+      <c r="S203" t="n">
+        <v>41.05812446477677</v>
+      </c>
+      <c r="T203" t="n">
+        <v>0</v>
+      </c>
+      <c r="U203" t="n">
+        <v>1.04133831070268</v>
+      </c>
+      <c r="V203" t="n">
+        <v>1.582351716467877</v>
+      </c>
+      <c r="W203" t="n">
+        <v>0</v>
+      </c>
+      <c r="X203" t="n">
+        <v>48.83919015151904</v>
+      </c>
+      <c r="Y203" t="n">
+        <v>58.96154970961494</v>
+      </c>
+      <c r="Z203" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA203" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:18:16</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.8758262146963913</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.873376276740041</v>
+      </c>
+      <c r="E204" t="n">
+        <v>0</v>
+      </c>
+      <c r="F204" t="n">
+        <v>149.1229299991484</v>
+      </c>
+      <c r="G204" t="n">
+        <v>199</v>
+      </c>
+      <c r="H204" t="n">
+        <v>0</v>
+      </c>
+      <c r="I204" t="n">
+        <v>74.24319583969776</v>
+      </c>
+      <c r="J204" t="n">
+        <v>99.06008197556829</v>
+      </c>
+      <c r="K204" t="n">
+        <v>1</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0</v>
+      </c>
+      <c r="M204" t="n">
+        <v>92.95632501841249</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" t="n">
+        <v>0</v>
+      </c>
+      <c r="P204" t="n">
+        <v>246.3469756701236</v>
+      </c>
+      <c r="Q204" t="n">
+        <v>1</v>
+      </c>
+      <c r="R204" t="n">
+        <v>22.7487422127755</v>
+      </c>
+      <c r="S204" t="n">
+        <v>67.09999999999999</v>
+      </c>
+      <c r="T204" t="n">
+        <v>0</v>
+      </c>
+      <c r="U204" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V204" t="n">
+        <v>1.717294001443595</v>
+      </c>
+      <c r="W204" t="n">
+        <v>0</v>
+      </c>
+      <c r="X204" t="n">
+        <v>26.09046679663302</v>
+      </c>
+      <c r="Y204" t="n">
+        <v>39.57299104640496</v>
+      </c>
+      <c r="Z204" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA204" t="n">
+        <v>0.9946524064171123</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:18:36</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.212157430469009</v>
+      </c>
+      <c r="D205" t="n">
+        <v>6.877811052058619</v>
+      </c>
+      <c r="E205" t="n">
+        <v>0</v>
+      </c>
+      <c r="F205" t="n">
+        <v>47.50239431179521</v>
+      </c>
+      <c r="G205" t="n">
+        <v>94.70106050370228</v>
+      </c>
+      <c r="H205" t="n">
+        <v>0</v>
+      </c>
+      <c r="I205" t="n">
+        <v>29.94730451732056</v>
+      </c>
+      <c r="J205" t="n">
+        <v>121.3334704738196</v>
+      </c>
+      <c r="K205" t="n">
+        <v>1</v>
+      </c>
+      <c r="L205" t="n">
+        <v>16.08201122150907</v>
+      </c>
+      <c r="M205" t="n">
+        <v>94.52285598387779</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" t="n">
+        <v>373.4034120534792</v>
+      </c>
+      <c r="P205" t="n">
+        <v>527.707462686919</v>
+      </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
+      <c r="R205" t="n">
+        <v>29.37514552462985</v>
+      </c>
+      <c r="S205" t="n">
+        <v>47.1294023052241</v>
+      </c>
+      <c r="T205" t="n">
+        <v>0</v>
+      </c>
+      <c r="U205" t="n">
+        <v>1.236033143061256</v>
+      </c>
+      <c r="V205" t="n">
+        <v>1.332705088785584</v>
+      </c>
+      <c r="W205" t="n">
+        <v>0</v>
+      </c>
+      <c r="X205" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y205" t="n">
+        <v>27.42673982610435</v>
+      </c>
+      <c r="Z205" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA205" t="n">
+        <v>0.6028571428571429</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:18:47</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.713717605398662</v>
+      </c>
+      <c r="D206" t="n">
+        <v>12.599500633399</v>
+      </c>
+      <c r="E206" t="n">
+        <v>1</v>
+      </c>
+      <c r="F206" t="n">
+        <v>35.6494414973354</v>
+      </c>
+      <c r="G206" t="n">
+        <v>139.9773150792105</v>
+      </c>
+      <c r="H206" t="n">
+        <v>0</v>
+      </c>
+      <c r="I206" t="n">
+        <v>37.68986975932435</v>
+      </c>
+      <c r="J206" t="n">
+        <v>96.57237155501451</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
+        <v>21.57993116190195</v>
+      </c>
+      <c r="M206" t="n">
+        <v>93.56729044568722</v>
+      </c>
+      <c r="N206" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" t="n">
+        <v>475.3605201755119</v>
+      </c>
+      <c r="P206" t="n">
+        <v>719.3242044921947</v>
+      </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
+      <c r="R206" t="n">
+        <v>49.4540038353367</v>
+      </c>
+      <c r="S206" t="n">
+        <v>61.58380516367168</v>
+      </c>
+      <c r="T206" t="n">
+        <v>0</v>
+      </c>
+      <c r="U206" t="n">
+        <v>0.7471431972349531</v>
+      </c>
+      <c r="V206" t="n">
+        <v>1.132458089917897</v>
+      </c>
+      <c r="W206" t="n">
+        <v>0</v>
+      </c>
+      <c r="X206" t="n">
+        <v>24.40050487932199</v>
+      </c>
+      <c r="Y206" t="n">
+        <v>53.12967997136722</v>
+      </c>
+      <c r="Z206" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA206" t="n">
+        <v>0.8633093525179856</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:18:55</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+      <c r="C207" t="n">
+        <v>8.021628196908361</v>
+      </c>
+      <c r="D207" t="n">
+        <v>11.23372135718487</v>
+      </c>
+      <c r="E207" t="n">
+        <v>0</v>
+      </c>
+      <c r="F207" t="n">
+        <v>98.29965718421093</v>
+      </c>
+      <c r="G207" t="n">
+        <v>148.1136358387913</v>
+      </c>
+      <c r="H207" t="n">
+        <v>0</v>
+      </c>
+      <c r="I207" t="n">
+        <v>30.3907545087985</v>
+      </c>
+      <c r="J207" t="n">
+        <v>73.75220594009461</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1</v>
+      </c>
+      <c r="L207" t="n">
+        <v>20.79843190464404</v>
+      </c>
+      <c r="M207" t="n">
+        <v>86.16368565875614</v>
+      </c>
+      <c r="N207" t="n">
+        <v>0</v>
+      </c>
+      <c r="O207" t="n">
+        <v>296.5940273636732</v>
+      </c>
+      <c r="P207" t="n">
+        <v>671.2509646820918</v>
+      </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
+      <c r="R207" t="n">
+        <v>40.74377499090585</v>
+      </c>
+      <c r="S207" t="n">
+        <v>60.20426817489307</v>
+      </c>
+      <c r="T207" t="n">
+        <v>0</v>
+      </c>
+      <c r="U207" t="n">
+        <v>0.078</v>
+      </c>
+      <c r="V207" t="n">
+        <v>1.626234806296078</v>
+      </c>
+      <c r="W207" t="n">
+        <v>0</v>
+      </c>
+      <c r="X207" t="n">
+        <v>25.11695257975758</v>
+      </c>
+      <c r="Y207" t="n">
+        <v>49.96491364758299</v>
+      </c>
+      <c r="Z207" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA207" t="n">
+        <v>0.6149732620320856</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:18:58</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>1</v>
+      </c>
+      <c r="C208" t="n">
+        <v>5.563675897640422</v>
+      </c>
+      <c r="D208" t="n">
+        <v>15.31209635767564</v>
+      </c>
+      <c r="E208" t="n">
+        <v>0</v>
+      </c>
+      <c r="F208" t="n">
+        <v>18.44982236739121</v>
+      </c>
+      <c r="G208" t="n">
+        <v>186.3759734380285</v>
+      </c>
+      <c r="H208" t="n">
+        <v>0</v>
+      </c>
+      <c r="I208" t="n">
+        <v>72.63723151437298</v>
+      </c>
+      <c r="J208" t="n">
+        <v>86.60097717009137</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
+        <v>45.73401240370667</v>
+      </c>
+      <c r="M208" t="n">
+        <v>77.68957076556376</v>
+      </c>
+      <c r="N208" t="n">
+        <v>0</v>
+      </c>
+      <c r="O208" t="n">
+        <v>248.8110905536333</v>
+      </c>
+      <c r="P208" t="n">
+        <v>713.8597132211239</v>
+      </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
+      <c r="R208" t="n">
+        <v>0</v>
+      </c>
+      <c r="S208" t="n">
+        <v>63.48718963871816</v>
+      </c>
+      <c r="T208" t="n">
+        <v>0</v>
+      </c>
+      <c r="U208" t="n">
+        <v>1.808068569570564</v>
+      </c>
+      <c r="V208" t="n">
+        <v>2.101831462133949</v>
+      </c>
+      <c r="W208" t="n">
+        <v>0</v>
+      </c>
+      <c r="X208" t="n">
+        <v>52.93110326912314</v>
+      </c>
+      <c r="Y208" t="n">
+        <v>70.75852224073816</v>
+      </c>
+      <c r="Z208" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA208" t="n">
+        <v>0.4722222222222222</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:19:00</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.27543351802194</v>
+      </c>
+      <c r="D209" t="n">
+        <v>16.58971300196605</v>
+      </c>
+      <c r="E209" t="n">
+        <v>1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>40.12763159674729</v>
+      </c>
+      <c r="G209" t="n">
+        <v>131.3497669504046</v>
+      </c>
+      <c r="H209" t="n">
+        <v>0</v>
+      </c>
+      <c r="I209" t="n">
+        <v>51.04521802354689</v>
+      </c>
+      <c r="J209" t="n">
+        <v>87.48838400062718</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
+        <v>7.640526559326322</v>
+      </c>
+      <c r="M209" t="n">
+        <v>44.2887527887391</v>
+      </c>
+      <c r="N209" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" t="n">
+        <v>28.44053748561182</v>
+      </c>
+      <c r="P209" t="n">
+        <v>343.3074094996246</v>
+      </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
+      <c r="R209" t="n">
+        <v>19.75233981702316</v>
+      </c>
+      <c r="S209" t="n">
+        <v>56.95969825910795</v>
+      </c>
+      <c r="T209" t="n">
+        <v>0</v>
+      </c>
+      <c r="U209" t="n">
+        <v>0.513128996985911</v>
+      </c>
+      <c r="V209" t="n">
+        <v>2.173777096950758</v>
+      </c>
+      <c r="W209" t="n">
+        <v>0</v>
+      </c>
+      <c r="X209" t="n">
+        <v>49.44448643511531</v>
+      </c>
+      <c r="Y209" t="n">
+        <v>75.29374210148191</v>
+      </c>
+      <c r="Z209" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA209" t="n">
+        <v>0.3947368421052632</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:19:20</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+      <c r="C210" t="n">
+        <v>10.47673740143056</v>
+      </c>
+      <c r="D210" t="n">
+        <v>11.24359350388394</v>
+      </c>
+      <c r="E210" t="n">
+        <v>0</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0</v>
+      </c>
+      <c r="G210" t="n">
+        <v>199</v>
+      </c>
+      <c r="H210" t="n">
+        <v>0</v>
+      </c>
+      <c r="I210" t="n">
+        <v>49.81408818802937</v>
+      </c>
+      <c r="J210" t="n">
+        <v>56.02828349144539</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1</v>
+      </c>
+      <c r="L210" t="n">
+        <v>1.340179339888583</v>
+      </c>
+      <c r="M210" t="n">
+        <v>86.1232286620501</v>
+      </c>
+      <c r="N210" t="n">
+        <v>0</v>
+      </c>
+      <c r="O210" t="n">
+        <v>273.1635117790223</v>
+      </c>
+      <c r="P210" t="n">
+        <v>611.6727985180398</v>
+      </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
+      <c r="R210" t="n">
+        <v>55.55886404558161</v>
+      </c>
+      <c r="S210" t="n">
+        <v>62.04999374065371</v>
+      </c>
+      <c r="T210" t="n">
+        <v>0</v>
+      </c>
+      <c r="U210" t="n">
+        <v>0.975265472877939</v>
+      </c>
+      <c r="V210" t="n">
+        <v>1.33045792772588</v>
+      </c>
+      <c r="W210" t="n">
+        <v>0</v>
+      </c>
+      <c r="X210" t="n">
+        <v>35.04714028920104</v>
+      </c>
+      <c r="Y210" t="n">
+        <v>41.04920584550954</v>
+      </c>
+      <c r="Z210" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA210" t="n">
+        <v>0.7171428571428572</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:19:30</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>1</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.228246872493588</v>
+      </c>
+      <c r="D211" t="n">
+        <v>17</v>
+      </c>
+      <c r="E211" t="n">
+        <v>0</v>
+      </c>
+      <c r="F211" t="n">
+        <v>2.942352901362121</v>
+      </c>
+      <c r="G211" t="n">
+        <v>43.94255924872382</v>
+      </c>
+      <c r="H211" t="n">
+        <v>0</v>
+      </c>
+      <c r="I211" t="n">
+        <v>13.17615945726471</v>
+      </c>
+      <c r="J211" t="n">
+        <v>26.97123169155248</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>9.117607674689452</v>
+      </c>
+      <c r="M211" t="n">
+        <v>78.7885962814433</v>
+      </c>
+      <c r="N211" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" t="n">
+        <v>416.6532156146832</v>
+      </c>
+      <c r="P211" t="n">
+        <v>668.292559901417</v>
+      </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
+      <c r="R211" t="n">
+        <v>23.30248587616442</v>
+      </c>
+      <c r="S211" t="n">
+        <v>26.68215252428291</v>
+      </c>
+      <c r="T211" t="n">
+        <v>0</v>
+      </c>
+      <c r="U211" t="n">
+        <v>0.3125438822936565</v>
+      </c>
+      <c r="V211" t="n">
+        <v>1.304524365051329</v>
+      </c>
+      <c r="W211" t="n">
+        <v>0</v>
+      </c>
+      <c r="X211" t="n">
+        <v>45.2343747163272</v>
+      </c>
+      <c r="Y211" t="n">
+        <v>57.68531908483621</v>
+      </c>
+      <c r="Z211" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA211" t="n">
+        <v>0.7373737373737373</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:19:38</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>0</v>
+      </c>
+      <c r="C212" t="n">
+        <v>8.143084852280234</v>
+      </c>
+      <c r="D212" t="n">
+        <v>9.411164277002271</v>
+      </c>
+      <c r="E212" t="n">
+        <v>0</v>
+      </c>
+      <c r="F212" t="n">
+        <v>3.582074472409431</v>
+      </c>
+      <c r="G212" t="n">
+        <v>81.79305206019134</v>
+      </c>
+      <c r="H212" t="n">
+        <v>0</v>
+      </c>
+      <c r="I212" t="n">
+        <v>100.3104059647172</v>
+      </c>
+      <c r="J212" t="n">
+        <v>120.7454777327368</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1</v>
+      </c>
+      <c r="L212" t="n">
+        <v>5.583756311594968</v>
+      </c>
+      <c r="M212" t="n">
+        <v>99</v>
+      </c>
+      <c r="N212" t="n">
+        <v>0</v>
+      </c>
+      <c r="O212" t="n">
+        <v>401.294223985845</v>
+      </c>
+      <c r="P212" t="n">
+        <v>649.2265151492157</v>
+      </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
+      <c r="R212" t="n">
+        <v>41.35768265946092</v>
+      </c>
+      <c r="S212" t="n">
+        <v>47.12094536144641</v>
+      </c>
+      <c r="T212" t="n">
+        <v>0</v>
+      </c>
+      <c r="U212" t="n">
+        <v>1.330274568715548</v>
+      </c>
+      <c r="V212" t="n">
+        <v>2.053046662540503</v>
+      </c>
+      <c r="W212" t="n">
+        <v>0</v>
+      </c>
+      <c r="X212" t="n">
+        <v>51.25935098053927</v>
+      </c>
+      <c r="Y212" t="n">
+        <v>75.05583783207091</v>
+      </c>
+      <c r="Z212" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA212" t="n">
+        <v>0.6844919786096256</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:19:41</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.7217451855464172</v>
+      </c>
+      <c r="D213" t="n">
+        <v>7.131045000593621</v>
+      </c>
+      <c r="E213" t="n">
+        <v>0</v>
+      </c>
+      <c r="F213" t="n">
+        <v>41.09542349206804</v>
+      </c>
+      <c r="G213" t="n">
+        <v>80.30798672219291</v>
+      </c>
+      <c r="H213" t="n">
+        <v>0</v>
+      </c>
+      <c r="I213" t="n">
+        <v>84.25185461182592</v>
+      </c>
+      <c r="J213" t="n">
+        <v>99.07744873141858</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
+        <v>19.63995217844205</v>
+      </c>
+      <c r="M213" t="n">
+        <v>76.54146998565344</v>
+      </c>
+      <c r="N213" t="n">
+        <v>0</v>
+      </c>
+      <c r="O213" t="n">
+        <v>154.0158190721867</v>
+      </c>
+      <c r="P213" t="n">
+        <v>331.706899628901</v>
+      </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
+      <c r="R213" t="n">
+        <v>38.10823024249678</v>
+      </c>
+      <c r="S213" t="n">
+        <v>45.40154096398902</v>
+      </c>
+      <c r="T213" t="n">
+        <v>0</v>
+      </c>
+      <c r="U213" t="n">
+        <v>0.1813122008146959</v>
+      </c>
+      <c r="V213" t="n">
+        <v>0.4412541550131248</v>
+      </c>
+      <c r="W213" t="n">
+        <v>1</v>
+      </c>
+      <c r="X213" t="n">
+        <v>27.62105964825107</v>
+      </c>
+      <c r="Y213" t="n">
+        <v>78.66145398165885</v>
+      </c>
+      <c r="Z213" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA213" t="n">
+        <v>0.847457627118644</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:20:01</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0</v>
+      </c>
+      <c r="D214" t="n">
+        <v>3.298973360712444</v>
+      </c>
+      <c r="E214" t="n">
+        <v>0</v>
+      </c>
+      <c r="F214" t="n">
+        <v>76.74404585658716</v>
+      </c>
+      <c r="G214" t="n">
+        <v>90.24731226196523</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0</v>
+      </c>
+      <c r="I214" t="n">
+        <v>44.85455154167646</v>
+      </c>
+      <c r="J214" t="n">
+        <v>60.0479930208606</v>
+      </c>
+      <c r="K214" t="n">
+        <v>1</v>
+      </c>
+      <c r="L214" t="n">
+        <v>2.148128032602981</v>
+      </c>
+      <c r="M214" t="n">
+        <v>82.33493153743792</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" t="n">
+        <v>257.4593519758667</v>
+      </c>
+      <c r="P214" t="n">
+        <v>526.7855841899109</v>
+      </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
+      <c r="R214" t="n">
+        <v>0</v>
+      </c>
+      <c r="S214" t="n">
+        <v>63.45781015370622</v>
+      </c>
+      <c r="T214" t="n">
+        <v>0</v>
+      </c>
+      <c r="U214" t="n">
+        <v>0.4538502408446092</v>
+      </c>
+      <c r="V214" t="n">
+        <v>0.7175207713119801</v>
+      </c>
+      <c r="W214" t="n">
+        <v>0</v>
+      </c>
+      <c r="X214" t="n">
+        <v>26.70275894980348</v>
+      </c>
+      <c r="Y214" t="n">
+        <v>29.81736871645424</v>
+      </c>
+      <c r="Z214" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA214" t="n">
+        <v>0.7171428571428572</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:20:10</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+      <c r="C215" t="n">
+        <v>9.106294860152913</v>
+      </c>
+      <c r="D215" t="n">
+        <v>10.25994296733514</v>
+      </c>
+      <c r="E215" t="n">
+        <v>1</v>
+      </c>
+      <c r="F215" t="n">
+        <v>10.09636436046338</v>
+      </c>
+      <c r="G215" t="n">
+        <v>199</v>
+      </c>
+      <c r="H215" t="n">
+        <v>0</v>
+      </c>
+      <c r="I215" t="n">
+        <v>33.14054120438104</v>
+      </c>
+      <c r="J215" t="n">
+        <v>39.95271243702412</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>52.14730582839873</v>
+      </c>
+      <c r="M215" t="n">
+        <v>64.63596907222674</v>
+      </c>
+      <c r="N215" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" t="n">
+        <v>453.9776513217206</v>
+      </c>
+      <c r="P215" t="n">
+        <v>752.4065668539229</v>
+      </c>
+      <c r="Q215" t="n">
+        <v>1</v>
+      </c>
+      <c r="R215" t="n">
+        <v>3.885810670266385</v>
+      </c>
+      <c r="S215" t="n">
+        <v>25.37697827091056</v>
+      </c>
+      <c r="T215" t="n">
+        <v>0</v>
+      </c>
+      <c r="U215" t="n">
+        <v>0.7622010734884342</v>
+      </c>
+      <c r="V215" t="n">
+        <v>1.261589587033482</v>
+      </c>
+      <c r="W215" t="n">
+        <v>0</v>
+      </c>
+      <c r="X215" t="n">
+        <v>76.83266123067359</v>
+      </c>
+      <c r="Y215" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z215" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA215" t="n">
+        <v>0.3535353535353535</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:20:19</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+      <c r="C216" t="n">
+        <v>7.599643411570427</v>
+      </c>
+      <c r="D216" t="n">
+        <v>9.014948090840699</v>
+      </c>
+      <c r="E216" t="n">
+        <v>1</v>
+      </c>
+      <c r="F216" t="n">
+        <v>67.45497765547856</v>
+      </c>
+      <c r="G216" t="n">
+        <v>138.8043354796032</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0</v>
+      </c>
+      <c r="I216" t="n">
+        <v>35.51348778119218</v>
+      </c>
+      <c r="J216" t="n">
+        <v>52.34839502188776</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
+        <v>57.33508096569809</v>
+      </c>
+      <c r="M216" t="n">
+        <v>71.34288092823503</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0</v>
+      </c>
+      <c r="O216" t="n">
+        <v>378.8325282236385</v>
+      </c>
+      <c r="P216" t="n">
+        <v>561.0776833886814</v>
+      </c>
+      <c r="Q216" t="n">
+        <v>1</v>
+      </c>
+      <c r="R216" t="n">
+        <v>17.3188885885997</v>
+      </c>
+      <c r="S216" t="n">
+        <v>62.40983198621505</v>
+      </c>
+      <c r="T216" t="n">
+        <v>0</v>
+      </c>
+      <c r="U216" t="n">
+        <v>1.229674381733067</v>
+      </c>
+      <c r="V216" t="n">
+        <v>1.675644296848506</v>
+      </c>
+      <c r="W216" t="n">
+        <v>0</v>
+      </c>
+      <c r="X216" t="n">
+        <v>66.59688532187273</v>
+      </c>
+      <c r="Y216" t="n">
+        <v>70.20662115518967</v>
+      </c>
+      <c r="Z216" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA216" t="n">
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:20:27</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+      <c r="C217" t="n">
+        <v>4.958687270216334</v>
+      </c>
+      <c r="D217" t="n">
+        <v>16.15968396146746</v>
+      </c>
+      <c r="E217" t="n">
+        <v>0</v>
+      </c>
+      <c r="F217" t="n">
+        <v>51.05959492791888</v>
+      </c>
+      <c r="G217" t="n">
+        <v>199</v>
+      </c>
+      <c r="H217" t="n">
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>28.6422130187463</v>
+      </c>
+      <c r="J217" t="n">
+        <v>95.88518663235406</v>
+      </c>
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1.431456704779364</v>
+      </c>
+      <c r="M217" t="n">
+        <v>25.86047595005146</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0</v>
+      </c>
+      <c r="O217" t="n">
+        <v>323.05539708213</v>
+      </c>
+      <c r="P217" t="n">
+        <v>388.4748037571098</v>
+      </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
+      <c r="R217" t="n">
+        <v>51.43350329742172</v>
+      </c>
+      <c r="S217" t="n">
+        <v>61.4300002515343</v>
+      </c>
+      <c r="T217" t="n">
+        <v>0</v>
+      </c>
+      <c r="U217" t="n">
+        <v>1.560533498014571</v>
+      </c>
+      <c r="V217" t="n">
+        <v>1.664786991136298</v>
+      </c>
+      <c r="W217" t="n">
+        <v>0</v>
+      </c>
+      <c r="X217" t="n">
+        <v>49.34633054247783</v>
+      </c>
+      <c r="Y217" t="n">
+        <v>77.66685543429719</v>
+      </c>
+      <c r="Z217" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA217" t="n">
+        <v>0.9144385026737968</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:20:45</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>0</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0</v>
+      </c>
+      <c r="D218" t="n">
+        <v>0.8196681418278582</v>
+      </c>
+      <c r="E218" t="n">
+        <v>0</v>
+      </c>
+      <c r="F218" t="n">
+        <v>127.6443435747193</v>
+      </c>
+      <c r="G218" t="n">
+        <v>189.141008461857</v>
+      </c>
+      <c r="H218" t="n">
+        <v>0</v>
+      </c>
+      <c r="I218" t="n">
+        <v>2.203120932541817</v>
+      </c>
+      <c r="J218" t="n">
+        <v>54.20889227896815</v>
+      </c>
+      <c r="K218" t="n">
+        <v>1</v>
+      </c>
+      <c r="L218" t="n">
+        <v>10.35682563488212</v>
+      </c>
+      <c r="M218" t="n">
+        <v>99</v>
+      </c>
+      <c r="N218" t="n">
+        <v>0</v>
+      </c>
+      <c r="O218" t="n">
+        <v>727.9788093957658</v>
+      </c>
+      <c r="P218" t="n">
+        <v>845.0731208302548</v>
+      </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
+      <c r="R218" t="n">
+        <v>48.322111451551</v>
+      </c>
+      <c r="S218" t="n">
+        <v>51.94877486358973</v>
+      </c>
+      <c r="T218" t="n">
+        <v>0</v>
+      </c>
+      <c r="U218" t="n">
+        <v>0.9860915591454363</v>
+      </c>
+      <c r="V218" t="n">
+        <v>1.866415591825273</v>
+      </c>
+      <c r="W218" t="n">
+        <v>0</v>
+      </c>
+      <c r="X218" t="n">
+        <v>49.77610103230884</v>
+      </c>
+      <c r="Y218" t="n">
+        <v>53.71249147000165</v>
+      </c>
+      <c r="Z218" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA218" t="n">
+        <v>0.6971428571428572</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:20:55</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.842990489819886</v>
+      </c>
+      <c r="D219" t="n">
+        <v>11.40901685548344</v>
+      </c>
+      <c r="E219" t="n">
+        <v>1</v>
+      </c>
+      <c r="F219" t="n">
+        <v>39.97077677412838</v>
+      </c>
+      <c r="G219" t="n">
+        <v>163.0984531803226</v>
+      </c>
+      <c r="H219" t="n">
+        <v>0</v>
+      </c>
+      <c r="I219" t="n">
+        <v>89.12787035333528</v>
+      </c>
+      <c r="J219" t="n">
+        <v>122</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
+        <v>92.68004172834779</v>
+      </c>
+      <c r="M219" t="n">
+        <v>97.96455641278753</v>
+      </c>
+      <c r="N219" t="n">
+        <v>0</v>
+      </c>
+      <c r="O219" t="n">
+        <v>467.3077265313134</v>
+      </c>
+      <c r="P219" t="n">
+        <v>553.2559576132695</v>
+      </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
+      <c r="R219" t="n">
+        <v>11.18975919879712</v>
+      </c>
+      <c r="S219" t="n">
+        <v>14.33496843978018</v>
+      </c>
+      <c r="T219" t="n">
+        <v>0</v>
+      </c>
+      <c r="U219" t="n">
+        <v>0.09374873476995585</v>
+      </c>
+      <c r="V219" t="n">
+        <v>1.576502938327123</v>
+      </c>
+      <c r="W219" t="n">
+        <v>0</v>
+      </c>
+      <c r="X219" t="n">
+        <v>24.03109674576426</v>
+      </c>
+      <c r="Y219" t="n">
+        <v>69.35171531559281</v>
+      </c>
+      <c r="Z219" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA219" t="n">
+        <v>0.9622641509433962</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:21:02</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>0</v>
+      </c>
+      <c r="C220" t="n">
+        <v>7.909913978848624</v>
+      </c>
+      <c r="D220" t="n">
+        <v>10.60962025406278</v>
+      </c>
+      <c r="E220" t="n">
+        <v>0</v>
+      </c>
+      <c r="F220" t="n">
+        <v>24.57665672861043</v>
+      </c>
+      <c r="G220" t="n">
+        <v>127.3747396872604</v>
+      </c>
+      <c r="H220" t="n">
+        <v>0</v>
+      </c>
+      <c r="I220" t="n">
+        <v>65.5326838983608</v>
+      </c>
+      <c r="J220" t="n">
+        <v>117.8845442941322</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1</v>
+      </c>
+      <c r="L220" t="n">
+        <v>5.379779443091323</v>
+      </c>
+      <c r="M220" t="n">
+        <v>96.76776143654244</v>
+      </c>
+      <c r="N220" t="n">
+        <v>0</v>
+      </c>
+      <c r="O220" t="n">
+        <v>290.2848261218492</v>
+      </c>
+      <c r="P220" t="n">
+        <v>369.9070454382949</v>
+      </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
+      <c r="R220" t="n">
+        <v>8.075499048279195</v>
+      </c>
+      <c r="S220" t="n">
+        <v>38.37046951327621</v>
+      </c>
+      <c r="T220" t="n">
+        <v>0</v>
+      </c>
+      <c r="U220" t="n">
+        <v>0.9219369367666582</v>
+      </c>
+      <c r="V220" t="n">
+        <v>1.575409005539726</v>
+      </c>
+      <c r="W220" t="n">
+        <v>0</v>
+      </c>
+      <c r="X220" t="n">
+        <v>29.67630978233684</v>
+      </c>
+      <c r="Y220" t="n">
+        <v>47.91380761677796</v>
+      </c>
+      <c r="Z220" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA220" t="n">
+        <v>0.6844919786096256</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>2023-03-04 21:21:05</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0</v>
+      </c>
+      <c r="D221" t="n">
+        <v>15.08663221524694</v>
+      </c>
+      <c r="E221" t="n">
+        <v>1</v>
+      </c>
+      <c r="F221" t="n">
+        <v>91.00798463628851</v>
+      </c>
+      <c r="G221" t="n">
+        <v>183.121560941505</v>
+      </c>
+      <c r="H221" t="n">
+        <v>0</v>
+      </c>
+      <c r="I221" t="n">
+        <v>43.50936452837063</v>
+      </c>
+      <c r="J221" t="n">
+        <v>107.799141220571</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
+        <v>49.32510214217336</v>
+      </c>
+      <c r="M221" t="n">
+        <v>75.63235952071126</v>
+      </c>
+      <c r="N221" t="n">
+        <v>0</v>
+      </c>
+      <c r="O221" t="n">
+        <v>572.5753877232466</v>
+      </c>
+      <c r="P221" t="n">
+        <v>580.2844369029403</v>
+      </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
+      <c r="R221" t="n">
+        <v>10.29086399865767</v>
+      </c>
+      <c r="S221" t="n">
+        <v>37.76985809402589</v>
+      </c>
+      <c r="T221" t="n">
+        <v>0</v>
+      </c>
+      <c r="U221" t="n">
+        <v>0.5253482077472995</v>
+      </c>
+      <c r="V221" t="n">
+        <v>1.808681031546156</v>
+      </c>
+      <c r="W221" t="n">
+        <v>1</v>
+      </c>
+      <c r="X221" t="n">
+        <v>21.24933120343521</v>
+      </c>
+      <c r="Y221" t="n">
+        <v>81</v>
+      </c>
+      <c r="Z221" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA221" t="n">
+        <v>0.9322033898305084</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Working code/Logs/fitness1_rule_log.xlsx
+++ b/Working code/Logs/fitness1_rule_log.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA221"/>
+  <dimension ref="A1:AA224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19258,6 +19258,261 @@
         <v>0.9322033898305084</v>
       </c>
     </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>2023-03-05 01:08:07</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.3004189789332148</v>
+      </c>
+      <c r="D222" t="n">
+        <v>12.5519972078065</v>
+      </c>
+      <c r="E222" t="n">
+        <v>0</v>
+      </c>
+      <c r="F222" t="n">
+        <v>64.10661732567408</v>
+      </c>
+      <c r="G222" t="n">
+        <v>199</v>
+      </c>
+      <c r="H222" t="n">
+        <v>0</v>
+      </c>
+      <c r="I222" t="n">
+        <v>38.12362155676142</v>
+      </c>
+      <c r="J222" t="n">
+        <v>51.91514831826359</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0</v>
+      </c>
+      <c r="M222" t="n">
+        <v>99</v>
+      </c>
+      <c r="N222" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" t="n">
+        <v>366.2652541245909</v>
+      </c>
+      <c r="P222" t="n">
+        <v>464.0017467007311</v>
+      </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
+      <c r="R222" t="n">
+        <v>1.094950752297137</v>
+      </c>
+      <c r="S222" t="n">
+        <v>9.949335902022034</v>
+      </c>
+      <c r="T222" t="n">
+        <v>0</v>
+      </c>
+      <c r="U222" t="n">
+        <v>0.492139725233915</v>
+      </c>
+      <c r="V222" t="n">
+        <v>1.440361596377902</v>
+      </c>
+      <c r="W222" t="n">
+        <v>0</v>
+      </c>
+      <c r="X222" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y222" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z222" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>2023-03-05 01:08:14</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+      <c r="C223" t="n">
+        <v>8.794451822979992</v>
+      </c>
+      <c r="D223" t="n">
+        <v>16.74440034772437</v>
+      </c>
+      <c r="E223" t="n">
+        <v>0</v>
+      </c>
+      <c r="F223" t="n">
+        <v>87.4286588268024</v>
+      </c>
+      <c r="G223" t="n">
+        <v>170.9873348032689</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0</v>
+      </c>
+      <c r="I223" t="n">
+        <v>71.39501663122455</v>
+      </c>
+      <c r="J223" t="n">
+        <v>71.54525949488846</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1</v>
+      </c>
+      <c r="L223" t="n">
+        <v>11.60458292493113</v>
+      </c>
+      <c r="M223" t="n">
+        <v>99</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0</v>
+      </c>
+      <c r="O223" t="n">
+        <v>318.0548282107167</v>
+      </c>
+      <c r="P223" t="n">
+        <v>515.4897968539174</v>
+      </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
+      <c r="R223" t="n">
+        <v>39.72057394711538</v>
+      </c>
+      <c r="S223" t="n">
+        <v>50.6939145917535</v>
+      </c>
+      <c r="T223" t="n">
+        <v>0</v>
+      </c>
+      <c r="U223" t="n">
+        <v>0.1824577585891321</v>
+      </c>
+      <c r="V223" t="n">
+        <v>0.7714685794300464</v>
+      </c>
+      <c r="W223" t="n">
+        <v>0</v>
+      </c>
+      <c r="X223" t="n">
+        <v>39.32399082307946</v>
+      </c>
+      <c r="Y223" t="n">
+        <v>39.63868945916674</v>
+      </c>
+      <c r="Z223" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA223" t="n">
+        <v>0.679144385026738</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>2023-03-05 01:08:17</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>1</v>
+      </c>
+      <c r="C224" t="n">
+        <v>2.904100304791208</v>
+      </c>
+      <c r="D224" t="n">
+        <v>14.90674972823157</v>
+      </c>
+      <c r="E224" t="n">
+        <v>0</v>
+      </c>
+      <c r="F224" t="n">
+        <v>13.09811996090837</v>
+      </c>
+      <c r="G224" t="n">
+        <v>61.02107779173155</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0</v>
+      </c>
+      <c r="I224" t="n">
+        <v>74.64374755274902</v>
+      </c>
+      <c r="J224" t="n">
+        <v>84.04691488310364</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0</v>
+      </c>
+      <c r="M224" t="n">
+        <v>45.79524249940564</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0</v>
+      </c>
+      <c r="O224" t="n">
+        <v>163.0253948760104</v>
+      </c>
+      <c r="P224" t="n">
+        <v>538.8307393455809</v>
+      </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
+      <c r="R224" t="n">
+        <v>11.92587884941098</v>
+      </c>
+      <c r="S224" t="n">
+        <v>28.16895351511135</v>
+      </c>
+      <c r="T224" t="n">
+        <v>0</v>
+      </c>
+      <c r="U224" t="n">
+        <v>0.1903587835964609</v>
+      </c>
+      <c r="V224" t="n">
+        <v>1.666565047810561</v>
+      </c>
+      <c r="W224" t="n">
+        <v>0</v>
+      </c>
+      <c r="X224" t="n">
+        <v>31.39391902118464</v>
+      </c>
+      <c r="Y224" t="n">
+        <v>41.86275012534708</v>
+      </c>
+      <c r="Z224" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA224" t="n">
+        <v>0.8166666666666667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
